--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DCD77F-03FB-8B4C-B986-AFF5A65CA4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BACE7A-A17E-514E-AD0B-A0585E964A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="vertex42_id" hidden="1">"project-task-list-with-gantt-chart.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Project Task List with Gantt Chart"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -762,6 +762,36 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1482,36 +1512,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1526,44 +1526,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:U127" xr:uid="{EA8E0BFA-7E16-439B-A6A0-85575A1D2FBB}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="17">
       <calculatedColumnFormula>B2&amp;D2&amp;F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="1">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1892,8 +1892,8 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="T2" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="U2" s="24">
         <v>3.8286127140760531</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="T3" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-244</v>
+        <v>-279</v>
       </c>
       <c r="U3" s="25">
         <v>0</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="T4" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-139</v>
       </c>
       <c r="U4" s="25">
         <v>1.8586563945729366</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="T5" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U5" s="25">
         <v>0.79194964416177871</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T6" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-18</v>
+        <v>-53</v>
       </c>
       <c r="U6" s="25">
         <v>1.8581913281290774</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="T7" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-27</v>
       </c>
       <c r="U7" s="25">
         <v>0.45069827803129847</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="T8" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="U8" s="25">
         <v>6.4714074693689341</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="T9" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-27</v>
       </c>
       <c r="U9" s="25">
         <v>2.1938359438979802</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="T10" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-160</v>
       </c>
       <c r="U10" s="25">
         <v>1.4899400056670535</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="T11" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U11" s="25">
         <v>33.058446215526629</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="T12" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U12" s="25">
         <v>1.8989416148357232</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="T13" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-104</v>
       </c>
       <c r="U13" s="25">
         <v>0.61599151131979568</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="T14" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>-48</v>
       </c>
       <c r="U14" s="25">
         <v>0.42275200889415104</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="T15" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U15" s="25">
         <v>5.4312137246679076E-2</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="T16" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U16" s="25">
         <v>0.74004960479265314</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="T17" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U17" s="25">
         <v>0.17748202368678323</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="T18" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U18" s="25">
         <v>3.9250044561777282E-2</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="T19" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U19" s="25">
         <v>4.9777015190575383E-2</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="T20" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-27</v>
       </c>
       <c r="U20" s="25">
         <v>1.9866670170786576</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="T21" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="U21" s="25">
         <v>8.0826749208230453</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="T22" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="U22" s="25">
         <v>4.8861619889981514E-2</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="T23" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U23" s="25">
         <v>0.22890573488117585</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="T24" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>-48</v>
       </c>
       <c r="U24" s="25">
         <v>7.4966605347794035E-2</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="T25" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="U25" s="25">
         <v>0.4156489033720388</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="T26" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U26" s="25">
         <v>0.34221449233860612</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="T27" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-125</v>
       </c>
       <c r="U27" s="25">
         <v>2.0404487343946266E-2</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="T28" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U28" s="25">
         <v>2.3371433481226382E-2</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="T29" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="U29" s="25">
         <v>2.9187755059895788</v>
@@ -4038,7 +4038,7 @@
         <v>45759</v>
       </c>
       <c r="L30" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>42</v>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="P30" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="Q30" s="22">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>-556</v>
       </c>
       <c r="R30" s="23">
         <f t="shared" si="4"/>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="T30" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="U30" s="25">
         <v>0.11596582079047627</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="T31" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="U31" s="25">
         <v>8.1747544717989548E-2</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="T32" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U32" s="25">
         <v>4.396791761852549E-2</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="T33" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U33" s="25">
         <v>1.2091683970173784E-2</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="T34" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-125</v>
       </c>
       <c r="U34" s="25">
         <v>2.2129086244257725</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="T35" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U35" s="25">
         <v>0.7163956909384217</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="T36" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="U36" s="25">
         <v>2.788276283922893</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="T37" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="U37" s="25">
         <v>0.24445340046690409</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="T38" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-27</v>
       </c>
       <c r="U38" s="25">
         <v>1.3834064445609398</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="T39" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U39" s="25">
         <v>0.39134230671971154</v>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="T40" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="U40" s="25">
         <v>0.10777677087659648</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="T41" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U41" s="25">
         <v>8.2318386059768451E-3</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="T42" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="U42" s="25">
         <v>6.3041469860199054E-2</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="T43" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U43" s="25">
         <v>3.5386814494663736E-2</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="T44" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U44" s="25">
         <v>0.58542108403682003</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="T45" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="U45" s="25">
         <v>18.96429322855024</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="T46" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U46" s="25">
         <v>2.1882553326908354E-2</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="T47" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U47" s="25">
         <v>0.10433791562790558</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="T48" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="U48" s="25">
         <v>1.6500421520262731</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="T49" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="U49" s="25">
         <v>1.4876499045579906E-2</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="T50" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="U50" s="25">
         <v>6.7954571404563111E-2</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="T51" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="U51" s="25">
         <v>0.24341470950651456</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="T52" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U52" s="25">
         <v>0</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="T53" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U53" s="25">
         <v>0</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="T54" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U54" s="25">
         <v>0</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="T55" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>-80</v>
       </c>
       <c r="U55" s="25">
         <v>7.3157389496987042</v>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="T56" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>26</v>
+        <v>-10</v>
       </c>
       <c r="U56" s="25">
         <v>1.2678290518311721</v>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="T57" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-12</v>
+        <v>-47</v>
       </c>
       <c r="U57" s="25">
         <v>0.90362130154493769</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="T58" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>-17</v>
       </c>
       <c r="U58" s="25">
         <v>0.90362130154493769</v>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="T59" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>15</v>
+        <v>-21</v>
       </c>
       <c r="U59" s="25">
         <v>0.90362130154493769</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="T60" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-70</v>
       </c>
       <c r="U60" s="25">
         <v>1.5818776119585585</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="T61" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-31</v>
       </c>
       <c r="U61" s="25">
         <v>1.2842274814527748</v>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="T62" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-126</v>
+        <v>-161</v>
       </c>
       <c r="U62" s="25">
         <v>6.1841913050091657</v>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="T63" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U63" s="25">
         <v>0</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="T64" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-43</v>
       </c>
       <c r="U64" s="25">
         <v>0.94074024135300072</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="T65" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-71</v>
       </c>
       <c r="U65" s="25">
         <v>1.2317038245452467</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="T66" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="U66" s="25">
         <v>4.341217820948339</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="T67" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-125</v>
       </c>
       <c r="U67" s="25">
         <v>1.2874256064363331E-2</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="T68" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>22</v>
+        <v>-14</v>
       </c>
       <c r="U68" s="25">
         <v>0.87755848995820385</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="T69" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>-22</v>
       </c>
       <c r="U69" s="25">
         <v>5.6463899562994637</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="T70" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-121</v>
+        <v>-156</v>
       </c>
       <c r="U70" s="25">
         <v>3.3921463524873796</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="T71" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-49</v>
       </c>
       <c r="U71" s="25">
         <v>1.1565364385446064</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="T72" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-116</v>
+        <v>-151</v>
       </c>
       <c r="U72" s="25">
         <v>0.35948495436649136</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="T73" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U73" s="25">
         <v>0</v>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="T74" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U74" s="25">
         <v>0</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="T75" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U75" s="25">
         <v>7.3681118933140155</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="T76" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>-13</v>
       </c>
       <c r="U76" s="25">
         <v>1.9262225609604624</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="T77" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U77" s="25">
         <v>0</v>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="T78" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-63</v>
       </c>
       <c r="U78" s="25">
         <v>2.6947696149272917</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="T79" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-108</v>
+        <v>-143</v>
       </c>
       <c r="U79" s="25">
         <v>7.1455552805644906</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="T80" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-153</v>
       </c>
       <c r="U80" s="25">
         <v>2.1250737260073151</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="T81" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-188</v>
       </c>
       <c r="U81" s="25">
         <v>2.2141421850391501</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="T82" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-174</v>
       </c>
       <c r="U82" s="25">
         <v>2.1434231234710972</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="T83" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U83" s="25">
         <v>0</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="T84" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-428</v>
+        <v>-463</v>
       </c>
       <c r="U84" s="25">
         <v>4.2091892986185098</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="T85" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U85" s="25">
         <v>0.67906690555318538</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="T86" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-174</v>
       </c>
       <c r="U86" s="25">
         <v>0.3705846265159719</v>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="T87" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U87" s="25">
         <v>0.46782862216660642</v>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="T88" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-160</v>
+        <v>-195</v>
       </c>
       <c r="U88" s="25">
         <v>2.1434231234710972</v>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="T89" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U89" s="25">
         <v>0</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="T90" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-104</v>
       </c>
       <c r="U90" s="25">
         <v>0.66829826225735345</v>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="T91" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-167</v>
+        <v>-202</v>
       </c>
       <c r="U91" s="25">
         <v>0.45089754003550009</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="T92" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-188</v>
       </c>
       <c r="U92" s="25">
         <v>0.47544300629915759</v>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="T93" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U93" s="25">
         <v>0</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="T94" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-111</v>
       </c>
       <c r="U94" s="25">
         <v>7.4012273158472057</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="T95" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U95" s="25">
         <v>0</v>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="T96" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U96" s="25">
         <v>0.12529658962134113</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="T97" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U97" s="25">
         <v>0</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="T98" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-216</v>
       </c>
       <c r="U98" s="25">
         <v>0.53563667137898285</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="T99" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-62</v>
       </c>
       <c r="U99" s="25">
         <v>0.31365570942757215</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="T100" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-62</v>
       </c>
       <c r="U100" s="25">
         <v>0.1502798023901277</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="T101" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U101" s="25">
         <v>0</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="T102" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-104</v>
       </c>
       <c r="U102" s="25">
         <v>0.1640586615913901</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="T103" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-160</v>
       </c>
       <c r="U103" s="25">
         <v>0.1502798023901277</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="T104" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U104" s="25">
         <v>0</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="T105" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-47</v>
+        <v>-82</v>
       </c>
       <c r="U105" s="25">
         <v>0.41311075421685678</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="T106" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-47</v>
+        <v>-82</v>
       </c>
       <c r="U106" s="25">
         <v>0.41311075421685678</v>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="T107" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U107" s="25">
         <v>0</v>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="T108" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U108" s="25">
         <v>0.71590581972999912</v>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="T109" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U109" s="25">
         <v>0</v>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="T110" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U110" s="25">
         <v>0</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="T111" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U111" s="25">
         <v>1.1364470150796924</v>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="T112" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U112" s="25">
         <v>0</v>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="T113" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-125</v>
       </c>
       <c r="U113" s="25">
         <v>0.86888955106354271</v>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="T114" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-75</v>
+        <v>-110</v>
       </c>
       <c r="U114" s="25">
         <v>1.9101722387327178</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="T115" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-20</v>
       </c>
       <c r="U115" s="25">
         <v>2.3615133681493417</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="T116" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U116" s="25">
         <v>0</v>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="T117" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U117" s="25">
         <v>0</v>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="T118" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="U118" s="25">
         <v>0</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="T119" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-132</v>
       </c>
       <c r="U119" s="25">
         <v>1.2772542166873568</v>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="T120" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-62</v>
       </c>
       <c r="U120" s="25">
         <v>1.3021928291029847</v>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="T121" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-41</v>
       </c>
       <c r="U121" s="25">
         <v>2.2106399922458855</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="T122" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-75</v>
+        <v>-110</v>
       </c>
       <c r="U122" s="25">
         <v>0.94089880391742786</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="T123" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="U123" s="25">
         <v>0.83220228058553414</v>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="T124" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="U124" s="25">
         <v>1.1429745636452144</v>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="T125" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-104</v>
       </c>
       <c r="U125" s="25">
         <v>0.65729302337862683</v>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="T126" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-37</v>
+        <v>-72</v>
       </c>
       <c r="U126" s="25">
         <v>1.1353862689916343</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="T127" s="47">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>30</v>
+        <v>-6</v>
       </c>
       <c r="U127" s="47">
         <v>0.45616355925610708</v>
@@ -11058,13 +11058,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BACE7A-A17E-514E-AD0B-A0585E964A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB4BCC-6A19-FD41-B833-C4BD2E3C7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -1891,9 +1891,9 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L31" sqref="L31"/>
+      <selection pane="topRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="T2" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U2" s="24">
         <v>3.8286127140760531</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="T3" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-279</v>
+        <v>-281</v>
       </c>
       <c r="U3" s="25">
         <v>0</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="T4" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-141</v>
       </c>
       <c r="U4" s="25">
         <v>1.8586563945729366</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="T5" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U5" s="25">
         <v>0.79194964416177871</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T6" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="U6" s="25">
         <v>1.8581913281290774</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="T7" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="U7" s="25">
         <v>0.45069827803129847</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="T8" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="25">
         <v>6.4714074693689341</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="T9" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="U9" s="25">
         <v>2.1938359438979802</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="T10" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-160</v>
+        <v>-162</v>
       </c>
       <c r="U10" s="25">
         <v>1.4899400056670535</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="T11" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U11" s="25">
         <v>33.058446215526629</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="T12" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U12" s="25">
         <v>1.8989416148357232</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="T13" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="U13" s="25">
         <v>0.61599151131979568</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="T14" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="U14" s="25">
         <v>0.42275200889415104</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="T15" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U15" s="25">
         <v>5.4312137246679076E-2</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="T16" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U16" s="25">
         <v>0.74004960479265314</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="T17" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U17" s="25">
         <v>0.17748202368678323</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="T18" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U18" s="25">
         <v>3.9250044561777282E-2</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="T19" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U19" s="25">
         <v>4.9777015190575383E-2</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="T20" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="U20" s="25">
         <v>1.9866670170786576</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="T21" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U21" s="25">
         <v>8.0826749208230453</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="T22" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U22" s="25">
         <v>4.8861619889981514E-2</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="T23" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U23" s="25">
         <v>0.22890573488117585</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="T24" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="U24" s="25">
         <v>7.4966605347794035E-2</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="T25" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U25" s="25">
         <v>0.4156489033720388</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="T26" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U26" s="25">
         <v>0.34221449233860612</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="T27" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="U27" s="25">
         <v>2.0404487343946266E-2</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="T28" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U28" s="25">
         <v>2.3371433481226382E-2</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="T29" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U29" s="25">
         <v>2.9187755059895788</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="T30" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U30" s="25">
         <v>0.11596582079047627</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="T31" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U31" s="25">
         <v>8.1747544717989548E-2</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="T32" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U32" s="25">
         <v>4.396791761852549E-2</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="T33" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U33" s="25">
         <v>1.2091683970173784E-2</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="T34" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="U34" s="25">
         <v>2.2129086244257725</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="T35" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U35" s="25">
         <v>0.7163956909384217</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="T36" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U36" s="25">
         <v>2.788276283922893</v>
@@ -4542,7 +4542,7 @@
         <v>45759</v>
       </c>
       <c r="L37" s="19">
-        <v>0.84599999999999997</v>
+        <v>1</v>
       </c>
       <c r="M37" s="20" t="s">
         <v>26</v>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="P37" s="22">
         <f t="shared" si="2"/>
-        <v>336.70799999999997</v>
+        <v>398</v>
       </c>
       <c r="Q37" s="22">
         <f t="shared" si="3"/>
-        <v>61.29200000000003</v>
+        <v>0</v>
       </c>
       <c r="R37" s="23">
         <f t="shared" si="4"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="T37" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U37" s="25">
         <v>0.24445340046690409</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="T38" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="U38" s="25">
         <v>1.3834064445609398</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="T39" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U39" s="25">
         <v>0.39134230671971154</v>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="T40" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U40" s="25">
         <v>0.10777677087659648</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="T41" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U41" s="25">
         <v>8.2318386059768451E-3</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="T42" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U42" s="25">
         <v>6.3041469860199054E-2</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="T43" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U43" s="25">
         <v>3.5386814494663736E-2</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="T44" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U44" s="25">
         <v>0.58542108403682003</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="T45" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U45" s="25">
         <v>18.96429322855024</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="T46" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U46" s="25">
         <v>2.1882553326908354E-2</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="T47" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U47" s="25">
         <v>0.10433791562790558</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="T48" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U48" s="25">
         <v>1.6500421520262731</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="T49" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U49" s="25">
         <v>1.4876499045579906E-2</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="T50" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U50" s="25">
         <v>6.7954571404563111E-2</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="T51" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="U51" s="25">
         <v>0.24341470950651456</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="T52" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U52" s="25">
         <v>0</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="T53" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U53" s="25">
         <v>0</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="T54" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U54" s="25">
         <v>0</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="T55" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="U55" s="25">
         <v>7.3157389496987042</v>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="T56" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="U56" s="25">
         <v>1.2678290518311721</v>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="T57" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="U57" s="25">
         <v>0.90362130154493769</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="T58" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="U58" s="25">
         <v>0.90362130154493769</v>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="T59" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="U59" s="25">
         <v>0.90362130154493769</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="T60" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-70</v>
+        <v>-72</v>
       </c>
       <c r="U60" s="25">
         <v>1.5818776119585585</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="T61" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-33</v>
       </c>
       <c r="U61" s="25">
         <v>1.2842274814527748</v>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="T62" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-163</v>
       </c>
       <c r="U62" s="25">
         <v>6.1841913050091657</v>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="T63" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U63" s="25">
         <v>0</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="T64" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="U64" s="25">
         <v>0.94074024135300072</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="T65" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-73</v>
       </c>
       <c r="U65" s="25">
         <v>1.2317038245452467</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="T66" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="U66" s="25">
         <v>4.341217820948339</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="T67" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="U67" s="25">
         <v>1.2874256064363331E-2</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="T68" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="U68" s="25">
         <v>0.87755848995820385</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="T69" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="U69" s="25">
         <v>5.6463899562994637</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="T70" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-156</v>
+        <v>-158</v>
       </c>
       <c r="U70" s="25">
         <v>3.3921463524873796</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="T71" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="U71" s="25">
         <v>1.1565364385446064</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="T72" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-151</v>
+        <v>-153</v>
       </c>
       <c r="U72" s="25">
         <v>0.35948495436649136</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="T73" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U73" s="25">
         <v>0</v>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="T74" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U74" s="25">
         <v>0</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="T75" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U75" s="25">
         <v>7.3681118933140155</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="T76" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="U76" s="25">
         <v>1.9262225609604624</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="T77" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U77" s="25">
         <v>0</v>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="T78" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="U78" s="25">
         <v>2.6947696149272917</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="T79" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-143</v>
+        <v>-145</v>
       </c>
       <c r="U79" s="25">
         <v>7.1455552805644906</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="T80" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-155</v>
       </c>
       <c r="U80" s="25">
         <v>2.1250737260073151</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="T81" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>-190</v>
       </c>
       <c r="U81" s="25">
         <v>2.2141421850391501</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="T82" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>-176</v>
       </c>
       <c r="U82" s="25">
         <v>2.1434231234710972</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="T83" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U83" s="25">
         <v>0</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="T84" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-463</v>
+        <v>-465</v>
       </c>
       <c r="U84" s="25">
         <v>4.2091892986185098</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="T85" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U85" s="25">
         <v>0.67906690555318538</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="T86" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>-176</v>
       </c>
       <c r="U86" s="25">
         <v>0.3705846265159719</v>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="T87" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U87" s="25">
         <v>0.46782862216660642</v>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="T88" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-195</v>
+        <v>-197</v>
       </c>
       <c r="U88" s="25">
         <v>2.1434231234710972</v>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="T89" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U89" s="25">
         <v>0</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="T90" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="U90" s="25">
         <v>0.66829826225735345</v>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="T91" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>-204</v>
       </c>
       <c r="U91" s="25">
         <v>0.45089754003550009</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="T92" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>-190</v>
       </c>
       <c r="U92" s="25">
         <v>0.47544300629915759</v>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="T93" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U93" s="25">
         <v>0</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="T94" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="U94" s="25">
         <v>7.4012273158472057</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="T95" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U95" s="25">
         <v>0</v>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="T96" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U96" s="25">
         <v>0.12529658962134113</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="T97" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U97" s="25">
         <v>0</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="T98" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-216</v>
+        <v>-218</v>
       </c>
       <c r="U98" s="25">
         <v>0.53563667137898285</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="T99" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="U99" s="25">
         <v>0.31365570942757215</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="T100" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="U100" s="25">
         <v>0.1502798023901277</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="T101" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U101" s="25">
         <v>0</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="T102" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="U102" s="25">
         <v>0.1640586615913901</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="T103" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-160</v>
+        <v>-162</v>
       </c>
       <c r="U103" s="25">
         <v>0.1502798023901277</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="T104" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U104" s="25">
         <v>0</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="T105" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-82</v>
+        <v>-84</v>
       </c>
       <c r="U105" s="25">
         <v>0.41311075421685678</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="T106" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-82</v>
+        <v>-84</v>
       </c>
       <c r="U106" s="25">
         <v>0.41311075421685678</v>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="T107" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U107" s="25">
         <v>0</v>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="T108" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U108" s="25">
         <v>0.71590581972999912</v>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="T109" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U109" s="25">
         <v>0</v>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="T110" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U110" s="25">
         <v>0</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="T111" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U111" s="25">
         <v>1.1364470150796924</v>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="T112" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U112" s="25">
         <v>0</v>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="T113" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="U113" s="25">
         <v>0.86888955106354271</v>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="T114" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-110</v>
+        <v>-112</v>
       </c>
       <c r="U114" s="25">
         <v>1.9101722387327178</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="T115" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="U115" s="25">
         <v>2.3615133681493417</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="T116" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U116" s="25">
         <v>0</v>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="T117" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U117" s="25">
         <v>0</v>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="T118" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U118" s="25">
         <v>0</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="T119" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-132</v>
+        <v>-134</v>
       </c>
       <c r="U119" s="25">
         <v>1.2772542166873568</v>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="T120" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="U120" s="25">
         <v>1.3021928291029847</v>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="T121" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="U121" s="25">
         <v>2.2106399922458855</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="T122" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-110</v>
+        <v>-112</v>
       </c>
       <c r="U122" s="25">
         <v>0.94089880391742786</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="T123" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U123" s="25">
         <v>0.83220228058553414</v>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="T124" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U124" s="25">
         <v>1.1429745636452144</v>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="T125" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="U125" s="25">
         <v>0.65729302337862683</v>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="T126" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-72</v>
+        <v>-74</v>
       </c>
       <c r="U126" s="25">
         <v>1.1353862689916343</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="T127" s="47">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="U127" s="47">
         <v>0.45616355925610708</v>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB4BCC-6A19-FD41-B833-C4BD2E3C7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -1891,9 +1891,9 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2052,10 +2052,10 @@
       </c>
       <c r="T2" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U2" s="24">
-        <v>3.8286127140760531</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="T3" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-281</v>
+        <v>-284</v>
       </c>
       <c r="U3" s="25">
         <v>0</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="T4" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-141</v>
+        <v>-144</v>
       </c>
       <c r="U4" s="25">
         <v>1.8586563945729366</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="T5" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U5" s="25">
         <v>0.79194964416177871</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T6" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="U6" s="25">
         <v>1.8581913281290774</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="T7" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="U7" s="25">
         <v>0.45069827803129847</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="T8" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="U8" s="25">
         <v>6.4714074693689341</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="T9" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="U9" s="25">
         <v>2.1938359438979802</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="T10" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-162</v>
+        <v>-165</v>
       </c>
       <c r="U10" s="25">
         <v>1.4899400056670535</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="T11" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U11" s="25">
         <v>33.058446215526629</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="T12" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U12" s="25">
         <v>1.8989416148357232</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="T13" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-109</v>
       </c>
       <c r="U13" s="25">
         <v>0.61599151131979568</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="T14" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="U14" s="25">
         <v>0.42275200889415104</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="T15" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U15" s="25">
         <v>5.4312137246679076E-2</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="T16" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U16" s="25">
         <v>0.74004960479265314</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="T17" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U17" s="25">
         <v>0.17748202368678323</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="T18" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U18" s="25">
         <v>3.9250044561777282E-2</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="T19" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U19" s="25">
         <v>4.9777015190575383E-2</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="T20" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="U20" s="25">
         <v>1.9866670170786576</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="T21" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U21" s="25">
         <v>8.0826749208230453</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="T22" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U22" s="25">
         <v>4.8861619889981514E-2</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="T23" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U23" s="25">
         <v>0.22890573488117585</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="T24" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="U24" s="25">
         <v>7.4966605347794035E-2</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="T25" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U25" s="25">
         <v>0.4156489033720388</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="T26" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U26" s="25">
         <v>0.34221449233860612</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="T27" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-127</v>
+        <v>-130</v>
       </c>
       <c r="U27" s="25">
         <v>2.0404487343946266E-2</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="T28" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U28" s="25">
         <v>2.3371433481226382E-2</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="T29" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U29" s="25">
         <v>2.9187755059895788</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="T30" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U30" s="25">
         <v>0.11596582079047627</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="T31" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="U31" s="25">
         <v>8.1747544717989548E-2</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="T32" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U32" s="25">
         <v>4.396791761852549E-2</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="T33" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U33" s="25">
         <v>1.2091683970173784E-2</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="T34" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-127</v>
+        <v>-130</v>
       </c>
       <c r="U34" s="25">
         <v>2.2129086244257725</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="T35" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U35" s="25">
         <v>0.7163956909384217</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="T36" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U36" s="25">
         <v>2.788276283922893</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="T37" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U37" s="25">
         <v>0.24445340046690409</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="T38" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="U38" s="25">
         <v>1.3834064445609398</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="T39" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U39" s="25">
         <v>0.39134230671971154</v>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="T40" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U40" s="25">
         <v>0.10777677087659648</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="T41" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U41" s="25">
         <v>8.2318386059768451E-3</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="T42" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="U42" s="25">
         <v>6.3041469860199054E-2</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="T43" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U43" s="25">
         <v>3.5386814494663736E-2</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="T44" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U44" s="25">
         <v>0.58542108403682003</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="T45" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U45" s="25">
         <v>18.96429322855024</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="T46" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U46" s="25">
         <v>2.1882553326908354E-2</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="T47" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U47" s="25">
         <v>0.10433791562790558</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="T48" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="U48" s="25">
         <v>1.6500421520262731</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="T49" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U49" s="25">
         <v>1.4876499045579906E-2</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="T50" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U50" s="25">
         <v>6.7954571404563111E-2</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="T51" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="U51" s="25">
         <v>0.24341470950651456</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="T52" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U52" s="25">
         <v>0</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="T53" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U53" s="25">
         <v>0</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="T54" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U54" s="25">
         <v>0</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="T55" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-82</v>
+        <v>-85</v>
       </c>
       <c r="U55" s="25">
         <v>7.3157389496987042</v>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="T56" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="U56" s="25">
         <v>1.2678290518311721</v>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="T57" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-49</v>
+        <v>-52</v>
       </c>
       <c r="U57" s="25">
         <v>0.90362130154493769</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="T58" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="U58" s="25">
         <v>0.90362130154493769</v>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="T59" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="U59" s="25">
         <v>0.90362130154493769</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="T60" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-72</v>
+        <v>-75</v>
       </c>
       <c r="U60" s="25">
         <v>1.5818776119585585</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="T61" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="U61" s="25">
         <v>1.2842274814527748</v>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="T62" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-163</v>
+        <v>-166</v>
       </c>
       <c r="U62" s="25">
         <v>6.1841913050091657</v>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="T63" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U63" s="25">
         <v>0</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="T64" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="U64" s="25">
         <v>0.94074024135300072</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="T65" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-73</v>
+        <v>-76</v>
       </c>
       <c r="U65" s="25">
         <v>1.2317038245452467</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="T66" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-102</v>
+        <v>-105</v>
       </c>
       <c r="U66" s="25">
         <v>4.341217820948339</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="T67" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-127</v>
+        <v>-130</v>
       </c>
       <c r="U67" s="25">
         <v>1.2874256064363331E-2</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="T68" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="U68" s="25">
         <v>0.87755848995820385</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="T69" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="U69" s="25">
         <v>5.6463899562994637</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="T70" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-158</v>
+        <v>-161</v>
       </c>
       <c r="U70" s="25">
         <v>3.3921463524873796</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="T71" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="U71" s="25">
         <v>1.1565364385446064</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="T72" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-156</v>
       </c>
       <c r="U72" s="25">
         <v>0.35948495436649136</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="T73" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U73" s="25">
         <v>0</v>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="T74" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U74" s="25">
         <v>0</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="T75" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U75" s="25">
         <v>7.3681118933140155</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="T76" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="U76" s="25">
         <v>1.9262225609604624</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="T77" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U77" s="25">
         <v>0</v>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="T78" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-65</v>
+        <v>-68</v>
       </c>
       <c r="U78" s="25">
         <v>2.6947696149272917</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="T79" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-145</v>
+        <v>-148</v>
       </c>
       <c r="U79" s="25">
         <v>7.1455552805644906</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="T80" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-155</v>
+        <v>-158</v>
       </c>
       <c r="U80" s="25">
         <v>2.1250737260073151</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="T81" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-190</v>
+        <v>-193</v>
       </c>
       <c r="U81" s="25">
         <v>2.2141421850391501</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="T82" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-176</v>
+        <v>-179</v>
       </c>
       <c r="U82" s="25">
         <v>2.1434231234710972</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="T83" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U83" s="25">
         <v>0</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="T84" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-465</v>
+        <v>-468</v>
       </c>
       <c r="U84" s="25">
         <v>4.2091892986185098</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="T85" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U85" s="25">
         <v>0.67906690555318538</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="T86" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-176</v>
+        <v>-179</v>
       </c>
       <c r="U86" s="25">
         <v>0.3705846265159719</v>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="T87" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U87" s="25">
         <v>0.46782862216660642</v>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="T88" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-197</v>
+        <v>-200</v>
       </c>
       <c r="U88" s="25">
         <v>2.1434231234710972</v>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="T89" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U89" s="25">
         <v>0</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="T90" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-109</v>
       </c>
       <c r="U90" s="25">
         <v>0.66829826225735345</v>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="T91" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-204</v>
+        <v>-207</v>
       </c>
       <c r="U91" s="25">
         <v>0.45089754003550009</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="T92" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-190</v>
+        <v>-193</v>
       </c>
       <c r="U92" s="25">
         <v>0.47544300629915759</v>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="T93" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U93" s="25">
         <v>0</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="T94" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="U94" s="25">
         <v>7.4012273158472057</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="T95" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U95" s="25">
         <v>0</v>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="T96" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U96" s="25">
         <v>0.12529658962134113</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="T97" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U97" s="25">
         <v>0</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="T98" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-218</v>
+        <v>-221</v>
       </c>
       <c r="U98" s="25">
         <v>0.53563667137898285</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="T99" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-67</v>
       </c>
       <c r="U99" s="25">
         <v>0.31365570942757215</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="T100" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-67</v>
       </c>
       <c r="U100" s="25">
         <v>0.1502798023901277</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="T101" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U101" s="25">
         <v>0</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="T102" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-109</v>
       </c>
       <c r="U102" s="25">
         <v>0.1640586615913901</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="T103" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-162</v>
+        <v>-165</v>
       </c>
       <c r="U103" s="25">
         <v>0.1502798023901277</v>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="T104" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U104" s="25">
         <v>0</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="T105" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>-87</v>
       </c>
       <c r="U105" s="25">
         <v>0.41311075421685678</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="T106" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>-87</v>
       </c>
       <c r="U106" s="25">
         <v>0.41311075421685678</v>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="T107" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U107" s="25">
         <v>0</v>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="T108" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U108" s="25">
         <v>0.71590581972999912</v>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="T109" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U109" s="25">
         <v>0</v>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="T110" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U110" s="25">
         <v>0</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="T111" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U111" s="25">
         <v>1.1364470150796924</v>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="T112" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U112" s="25">
         <v>0</v>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="T113" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-127</v>
+        <v>-130</v>
       </c>
       <c r="U113" s="25">
         <v>0.86888955106354271</v>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="T114" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-115</v>
       </c>
       <c r="U114" s="25">
         <v>1.9101722387327178</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="T115" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="U115" s="25">
         <v>2.3615133681493417</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="T116" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U116" s="25">
         <v>0</v>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="T117" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U117" s="25">
         <v>0</v>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="T118" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U118" s="25">
         <v>0</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="T119" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-137</v>
       </c>
       <c r="U119" s="25">
         <v>1.2772542166873568</v>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="T120" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-67</v>
       </c>
       <c r="U120" s="25">
         <v>1.3021928291029847</v>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="T121" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="U121" s="25">
         <v>2.2106399922458855</v>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="T122" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-115</v>
       </c>
       <c r="U122" s="25">
         <v>0.94089880391742786</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="T123" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="U123" s="25">
         <v>0.83220228058553414</v>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="T124" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="U124" s="25">
         <v>1.1429745636452144</v>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="T125" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-109</v>
       </c>
       <c r="U125" s="25">
         <v>0.65729302337862683</v>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="T126" s="25">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-74</v>
+        <v>-77</v>
       </c>
       <c r="U126" s="25">
         <v>1.1353862689916343</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="T127" s="47">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="U127" s="47">
         <v>0.45616355925610708</v>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F91F3862-76A3-4C56-A187-2F7304B7AA89}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4422FC2-1B39-4C83-9D8B-4749FF6F0B8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -1553,6 +1553,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:U127" xr:uid="{EA8E0BFA-7E16-439B-A6A0-85575A1D2FBB}"/>
@@ -1920,8 +1924,8 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,7 +2051,7 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L2" s="18">
         <v>0.72240000000000004</v>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="R2" s="22">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-91</v>
+        <v>-87</v>
       </c>
       <c r="S2" s="21">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2080,7 +2084,7 @@
       </c>
       <c r="T2" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="U2" s="23">
         <v>5</v>
@@ -2119,7 +2123,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -2142,7 +2146,7 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2150,7 +2154,7 @@
       </c>
       <c r="T3" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-288</v>
+        <v>-293</v>
       </c>
       <c r="U3" s="24">
         <v>0</v>
@@ -2189,7 +2193,7 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L4" s="18">
         <v>0.78769999999999996</v>
@@ -2214,7 +2218,7 @@
       </c>
       <c r="R4" s="22">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="5"/>
@@ -2222,7 +2226,7 @@
       </c>
       <c r="T4" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-148</v>
+        <v>-153</v>
       </c>
       <c r="U4" s="24">
         <v>1.8586563945729366</v>
@@ -2261,7 +2265,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -2286,7 +2290,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="5"/>
@@ -2294,7 +2298,7 @@
       </c>
       <c r="T5" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U5" s="24">
         <v>0.79194964416177871</v>
@@ -2333,7 +2337,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L6" s="18">
         <v>0.1246</v>
@@ -2358,7 +2362,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="5"/>
@@ -2366,7 +2370,7 @@
       </c>
       <c r="T6" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-67</v>
       </c>
       <c r="U6" s="24">
         <v>1.8581913281290774</v>
@@ -2405,7 +2409,7 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L7" s="18">
         <v>0.28070000000000001</v>
@@ -2430,7 +2434,7 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
@@ -2438,7 +2442,7 @@
       </c>
       <c r="T7" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="U7" s="24">
         <v>0.45069827803129847</v>
@@ -2477,7 +2481,7 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L8" s="18">
         <v>0.19450000000000001</v>
@@ -2502,7 +2506,7 @@
       </c>
       <c r="R8" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="5"/>
@@ -2510,7 +2514,7 @@
       </c>
       <c r="T8" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="U8" s="24">
         <v>6.4714074693689341</v>
@@ -2549,7 +2553,7 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L9" s="18">
         <v>0.3276</v>
@@ -2574,7 +2578,7 @@
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="5"/>
@@ -2582,7 +2586,7 @@
       </c>
       <c r="T9" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="U9" s="24">
         <v>2.1938359438979802</v>
@@ -2621,7 +2625,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L10" s="18">
         <v>0.4572</v>
@@ -2646,7 +2650,7 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="5"/>
@@ -2654,7 +2658,7 @@
       </c>
       <c r="T10" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-169</v>
+        <v>-174</v>
       </c>
       <c r="U10" s="24">
         <v>1.4899400056670535</v>
@@ -2693,7 +2697,7 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L11" s="18">
         <v>1.21E-2</v>
@@ -2718,7 +2722,7 @@
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="5"/>
@@ -2726,7 +2730,7 @@
       </c>
       <c r="T11" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U11" s="24">
         <v>33.058446215526629</v>
@@ -2765,7 +2769,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -2790,7 +2794,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="5"/>
@@ -2798,7 +2802,7 @@
       </c>
       <c r="T12" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U12" s="24">
         <v>1.8989416148357232</v>
@@ -2837,7 +2841,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -2862,7 +2866,7 @@
       </c>
       <c r="R13" s="22">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="5"/>
@@ -2870,7 +2874,7 @@
       </c>
       <c r="T13" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-118</v>
       </c>
       <c r="U13" s="24">
         <v>0.61599151131979568</v>
@@ -2909,7 +2913,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2934,7 +2938,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="5"/>
@@ -2942,7 +2946,7 @@
       </c>
       <c r="T14" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="U14" s="24">
         <v>0.42275200889415104</v>
@@ -2981,7 +2985,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3006,7 +3010,7 @@
       </c>
       <c r="R15" s="22">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="5"/>
@@ -3014,7 +3018,7 @@
       </c>
       <c r="T15" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U15" s="24">
         <v>5.4312137246679076E-2</v>
@@ -3053,7 +3057,7 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L16" s="18">
         <v>0.42799999999999999</v>
@@ -3078,7 +3082,7 @@
       </c>
       <c r="R16" s="22">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="5"/>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="T16" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U16" s="24">
         <v>0.74004960479265314</v>
@@ -3125,7 +3129,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3150,7 +3154,7 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="5"/>
@@ -3158,7 +3162,7 @@
       </c>
       <c r="T17" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U17" s="24">
         <v>0.17748202368678323</v>
@@ -3197,7 +3201,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L18" s="18">
         <v>0.99970000000000003</v>
@@ -3222,7 +3226,7 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="5"/>
@@ -3230,7 +3234,7 @@
       </c>
       <c r="T18" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U18" s="24">
         <v>3.9250044561777282E-2</v>
@@ -3269,7 +3273,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="5"/>
@@ -3302,7 +3306,7 @@
       </c>
       <c r="T19" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U19" s="24">
         <v>4.9777015190575383E-2</v>
@@ -3341,7 +3345,7 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L20" s="18">
         <v>0.1221</v>
@@ -3366,7 +3370,7 @@
       </c>
       <c r="R20" s="22">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="5"/>
@@ -3374,7 +3378,7 @@
       </c>
       <c r="T20" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="U20" s="24">
         <v>1.9866670170786576</v>
@@ -3413,7 +3417,7 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L21" s="18">
         <v>9.69E-2</v>
@@ -3438,7 +3442,7 @@
       </c>
       <c r="R21" s="22">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="5"/>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="T21" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U21" s="24">
         <v>8.0826749208230453</v>
@@ -3485,7 +3489,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3510,7 +3514,7 @@
       </c>
       <c r="R22" s="22">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="5"/>
@@ -3518,7 +3522,7 @@
       </c>
       <c r="T22" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U22" s="24">
         <v>4.8861619889981514E-2</v>
@@ -3557,7 +3561,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L23" s="18">
         <v>0</v>
@@ -3582,7 +3586,7 @@
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="5"/>
@@ -3590,7 +3594,7 @@
       </c>
       <c r="T23" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U23" s="24">
         <v>0.22890573488117585</v>
@@ -3629,7 +3633,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
@@ -3654,7 +3658,7 @@
       </c>
       <c r="R24" s="22">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="5"/>
@@ -3662,7 +3666,7 @@
       </c>
       <c r="T24" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="U24" s="24">
         <v>7.4966605347794035E-2</v>
@@ -3701,7 +3705,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L25" s="18">
         <v>0</v>
@@ -3726,7 +3730,7 @@
       </c>
       <c r="R25" s="22">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="5"/>
@@ -3734,7 +3738,7 @@
       </c>
       <c r="T25" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U25" s="24">
         <v>0.4156489033720388</v>
@@ -3773,7 +3777,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L26" s="18">
         <v>0</v>
@@ -3798,7 +3802,7 @@
       </c>
       <c r="R26" s="22">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="5"/>
@@ -3806,7 +3810,7 @@
       </c>
       <c r="T26" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U26" s="24">
         <v>0.34221449233860612</v>
@@ -3845,7 +3849,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L27" s="18">
         <v>0.20930000000000001</v>
@@ -3870,7 +3874,7 @@
       </c>
       <c r="R27" s="22">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="5"/>
@@ -3878,7 +3882,7 @@
       </c>
       <c r="T27" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-139</v>
       </c>
       <c r="U27" s="24">
         <v>2.0404487343946266E-2</v>
@@ -3917,7 +3921,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L28" s="18">
         <v>0</v>
@@ -3942,7 +3946,7 @@
       </c>
       <c r="R28" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="5"/>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="T28" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U28" s="24">
         <v>2.3371433481226382E-2</v>
@@ -3989,7 +3993,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L29" s="18">
         <v>4.7800000000000002E-2</v>
@@ -4014,7 +4018,7 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="4"/>
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="5"/>
@@ -4022,7 +4026,7 @@
       </c>
       <c r="T29" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U29" s="24">
         <v>2.9187755059895788</v>
@@ -4061,7 +4065,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4086,7 +4090,7 @@
       </c>
       <c r="R30" s="22">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="5"/>
@@ -4094,7 +4098,7 @@
       </c>
       <c r="T30" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U30" s="24">
         <v>0.11596582079047627</v>
@@ -4133,7 +4137,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4158,7 +4162,7 @@
       </c>
       <c r="R31" s="22">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="5"/>
@@ -4166,7 +4170,7 @@
       </c>
       <c r="T31" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="U31" s="24">
         <v>8.1747544717989548E-2</v>
@@ -4205,7 +4209,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4230,7 +4234,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="5"/>
@@ -4238,7 +4242,7 @@
       </c>
       <c r="T32" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U32" s="24">
         <v>4.396791761852549E-2</v>
@@ -4277,7 +4281,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4302,7 +4306,7 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="5"/>
@@ -4310,7 +4314,7 @@
       </c>
       <c r="T33" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U33" s="24">
         <v>1.2091683970173784E-2</v>
@@ -4349,7 +4353,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L34" s="18">
         <v>0.1056</v>
@@ -4374,7 +4378,7 @@
       </c>
       <c r="R34" s="22">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="5"/>
@@ -4382,7 +4386,7 @@
       </c>
       <c r="T34" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-139</v>
       </c>
       <c r="U34" s="24">
         <v>2.2129086244257725</v>
@@ -4421,7 +4425,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L35" s="18">
         <v>0.21909999999999999</v>
@@ -4446,7 +4450,7 @@
       </c>
       <c r="R35" s="22">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="5"/>
@@ -4454,7 +4458,7 @@
       </c>
       <c r="T35" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U35" s="24">
         <v>0.7163956909384217</v>
@@ -4493,7 +4497,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4518,7 +4522,7 @@
       </c>
       <c r="R36" s="22">
         <f t="shared" si="4"/>
-        <v>-67</v>
+        <v>-63</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="5"/>
@@ -4526,7 +4530,7 @@
       </c>
       <c r="T36" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U36" s="24">
         <v>2.788276283922893</v>
@@ -4565,7 +4569,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L37" s="18">
         <v>0.84599999999999997</v>
@@ -4590,7 +4594,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="4"/>
-        <v>-67</v>
+        <v>-63</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="5"/>
@@ -4598,7 +4602,7 @@
       </c>
       <c r="T37" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U37" s="24">
         <v>0.24445340046690409</v>
@@ -4637,7 +4641,7 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L38" s="18">
         <v>0.2898</v>
@@ -4662,7 +4666,7 @@
       </c>
       <c r="R38" s="22">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="5"/>
@@ -4670,7 +4674,7 @@
       </c>
       <c r="T38" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="U38" s="24">
         <v>1.3834064445609398</v>
@@ -4709,7 +4713,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
@@ -4734,7 +4738,7 @@
       </c>
       <c r="R39" s="22">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="5"/>
@@ -4742,7 +4746,7 @@
       </c>
       <c r="T39" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U39" s="24">
         <v>0.39134230671971154</v>
@@ -4781,7 +4785,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L40" s="18">
         <v>4.4999999999999997E-3</v>
@@ -4806,7 +4810,7 @@
       </c>
       <c r="R40" s="22">
         <f t="shared" si="4"/>
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="5"/>
@@ -4814,7 +4818,7 @@
       </c>
       <c r="T40" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U40" s="24">
         <v>0.10777677087659648</v>
@@ -4853,7 +4857,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L41" s="18">
         <v>8.1500000000000003E-2</v>
@@ -4878,7 +4882,7 @@
       </c>
       <c r="R41" s="22">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="5"/>
@@ -4886,7 +4890,7 @@
       </c>
       <c r="T41" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U41" s="24">
         <v>8.2318386059768451E-3</v>
@@ -4925,7 +4929,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L42" s="18">
         <v>0.20580000000000001</v>
@@ -4950,7 +4954,7 @@
       </c>
       <c r="R42" s="22">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="5"/>
@@ -4958,7 +4962,7 @@
       </c>
       <c r="T42" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="U42" s="24">
         <v>6.3041469860199054E-2</v>
@@ -4997,7 +5001,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L43" s="18">
         <v>0.2019</v>
@@ -5022,7 +5026,7 @@
       </c>
       <c r="R43" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="5"/>
@@ -5030,7 +5034,7 @@
       </c>
       <c r="T43" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U43" s="24">
         <v>3.5386814494663736E-2</v>
@@ -5069,7 +5073,7 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L44" s="18">
         <v>0.16600000000000001</v>
@@ -5094,7 +5098,7 @@
       </c>
       <c r="R44" s="22">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="5"/>
@@ -5102,7 +5106,7 @@
       </c>
       <c r="T44" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U44" s="24">
         <v>0.58542108403682003</v>
@@ -5141,7 +5145,7 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L45" s="18">
         <v>0.28089999999999998</v>
@@ -5166,7 +5170,7 @@
       </c>
       <c r="R45" s="22">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="5"/>
@@ -5174,7 +5178,7 @@
       </c>
       <c r="T45" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="U45" s="24">
         <v>18.96429322855024</v>
@@ -5213,7 +5217,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L46" s="18">
         <v>7.6799999999999993E-2</v>
@@ -5238,7 +5242,7 @@
       </c>
       <c r="R46" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="5"/>
@@ -5246,7 +5250,7 @@
       </c>
       <c r="T46" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U46" s="24">
         <v>2.1882553326908354E-2</v>
@@ -5285,7 +5289,7 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L47" s="18">
         <v>0.25319999999999998</v>
@@ -5310,7 +5314,7 @@
       </c>
       <c r="R47" s="22">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="5"/>
@@ -5318,7 +5322,7 @@
       </c>
       <c r="T47" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U47" s="24">
         <v>0.10433791562790558</v>
@@ -5357,7 +5361,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
@@ -5382,7 +5386,7 @@
       </c>
       <c r="R48" s="22">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="5"/>
@@ -5390,7 +5394,7 @@
       </c>
       <c r="T48" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="U48" s="24">
         <v>1.6500421520262731</v>
@@ -5429,7 +5433,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L49" s="18">
         <v>0</v>
@@ -5454,7 +5458,7 @@
       </c>
       <c r="R49" s="22">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="5"/>
@@ -5462,7 +5466,7 @@
       </c>
       <c r="T49" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U49" s="24">
         <v>1.4876499045579906E-2</v>
@@ -5501,7 +5505,7 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L50" s="18">
         <v>0</v>
@@ -5526,7 +5530,7 @@
       </c>
       <c r="R50" s="22">
         <f t="shared" si="4"/>
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="5"/>
@@ -5534,7 +5538,7 @@
       </c>
       <c r="T50" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U50" s="24">
         <v>6.7954571404563111E-2</v>
@@ -5573,7 +5577,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L51" s="18">
         <v>9.7999999999999997E-3</v>
@@ -5598,7 +5602,7 @@
       </c>
       <c r="R51" s="22">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="5"/>
@@ -5606,7 +5610,7 @@
       </c>
       <c r="T51" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="U51" s="24">
         <v>0.24341470950651456</v>
@@ -5645,10 +5649,10 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L52" s="18">
-        <v>0.45950000000000002</v>
+        <v>0.46679999999999999</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>26</v>
@@ -5662,15 +5666,15 @@
       </c>
       <c r="P52" s="21">
         <f t="shared" si="2"/>
-        <v>195.74700000000001</v>
+        <v>198.85679999999999</v>
       </c>
       <c r="Q52" s="21">
         <f t="shared" si="3"/>
-        <v>230.25299999999999</v>
+        <v>227.14320000000001</v>
       </c>
       <c r="R52" s="22">
         <f t="shared" si="4"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="5"/>
@@ -5678,7 +5682,7 @@
       </c>
       <c r="T52" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U52" s="24">
         <v>0</v>
@@ -5717,7 +5721,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L53" s="18">
         <v>1</v>
@@ -5742,7 +5746,7 @@
       </c>
       <c r="R53" s="22">
         <f t="shared" si="4"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="5"/>
@@ -5750,7 +5754,7 @@
       </c>
       <c r="T53" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U53" s="24">
         <v>0</v>
@@ -5789,7 +5793,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
@@ -5814,7 +5818,7 @@
       </c>
       <c r="R54" s="22">
         <f t="shared" si="4"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="5"/>
@@ -5822,7 +5826,7 @@
       </c>
       <c r="T54" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U54" s="24">
         <v>0</v>
@@ -5861,10 +5865,10 @@
         <v>45728</v>
       </c>
       <c r="K55" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L55" s="18">
-        <v>0.69769999999999999</v>
+        <v>0.7036</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>26</v>
@@ -5878,15 +5882,15 @@
       </c>
       <c r="P55" s="21">
         <f t="shared" si="2"/>
-        <v>113.0274</v>
+        <v>113.9832</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="3"/>
-        <v>48.9726</v>
+        <v>48.016800000000003</v>
       </c>
       <c r="R55" s="22">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="5"/>
@@ -5894,7 +5898,7 @@
       </c>
       <c r="T55" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-89</v>
+        <v>-94</v>
       </c>
       <c r="U55" s="24">
         <v>7.3157389496987042</v>
@@ -5933,7 +5937,7 @@
         <v>45798</v>
       </c>
       <c r="K56" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L56" s="18">
         <v>0.35830000000000001</v>
@@ -5958,7 +5962,7 @@
       </c>
       <c r="R56" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="5"/>
@@ -5966,7 +5970,7 @@
       </c>
       <c r="T56" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="U56" s="24">
         <v>1.2678290518311721</v>
@@ -6005,7 +6009,7 @@
         <v>45761</v>
       </c>
       <c r="K57" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L57" s="18">
         <v>1</v>
@@ -6030,7 +6034,7 @@
       </c>
       <c r="R57" s="22">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="5"/>
@@ -6038,7 +6042,7 @@
       </c>
       <c r="T57" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="U57" s="24">
         <v>0.90362130154493769</v>
@@ -6077,10 +6081,10 @@
         <v>45791</v>
       </c>
       <c r="K58" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L58" s="18">
-        <v>0.92810000000000004</v>
+        <v>1</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>40</v>
@@ -6094,15 +6098,15 @@
       </c>
       <c r="P58" s="21">
         <f t="shared" si="2"/>
-        <v>86.313299999999998</v>
+        <v>93</v>
       </c>
       <c r="Q58" s="21">
         <f t="shared" si="3"/>
-        <v>6.6867000000000019</v>
+        <v>0</v>
       </c>
       <c r="R58" s="22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="5"/>
@@ -6110,7 +6114,7 @@
       </c>
       <c r="T58" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="U58" s="24">
         <v>0.90362130154493769</v>
@@ -6149,7 +6153,7 @@
         <v>45787</v>
       </c>
       <c r="K59" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L59" s="18">
         <v>0.28550700000000001</v>
@@ -6174,7 +6178,7 @@
       </c>
       <c r="R59" s="22">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="5"/>
@@ -6182,7 +6186,7 @@
       </c>
       <c r="T59" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="U59" s="24">
         <v>0.90362130154493769</v>
@@ -6221,7 +6225,7 @@
         <v>45738</v>
       </c>
       <c r="K60" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L60" s="18">
         <v>0.91279999999999994</v>
@@ -6246,7 +6250,7 @@
       </c>
       <c r="R60" s="22">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="5"/>
@@ -6254,7 +6258,7 @@
       </c>
       <c r="T60" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-79</v>
+        <v>-84</v>
       </c>
       <c r="U60" s="24">
         <v>1.5818776119585585</v>
@@ -6293,7 +6297,7 @@
         <v>45777</v>
       </c>
       <c r="K61" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L61" s="18">
         <v>7.1874999999999994E-2</v>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="R61" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="5"/>
@@ -6326,7 +6330,7 @@
       </c>
       <c r="T61" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="U61" s="24">
         <v>1.2842274814527748</v>
@@ -6365,10 +6369,10 @@
         <v>45647</v>
       </c>
       <c r="K62" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L62" s="18">
-        <v>0.95730000000000004</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>26</v>
@@ -6382,15 +6386,15 @@
       </c>
       <c r="P62" s="21">
         <f t="shared" si="2"/>
-        <v>77.541300000000007</v>
+        <v>77.727599999999995</v>
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="3"/>
-        <v>3.4586999999999932</v>
+        <v>3.2724000000000046</v>
       </c>
       <c r="R62" s="22">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="5"/>
@@ -6398,7 +6402,7 @@
       </c>
       <c r="T62" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-170</v>
+        <v>-175</v>
       </c>
       <c r="U62" s="24">
         <v>6.1841913050091657</v>
@@ -6437,7 +6441,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L63" s="18">
         <v>0</v>
@@ -6462,7 +6466,7 @@
       </c>
       <c r="R63" s="22">
         <f t="shared" si="4"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="5"/>
@@ -6470,7 +6474,7 @@
       </c>
       <c r="T63" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U63" s="24">
         <v>0</v>
@@ -6509,7 +6513,7 @@
         <v>45765</v>
       </c>
       <c r="K64" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L64" s="18">
         <v>0.64439999999999997</v>
@@ -6534,7 +6538,7 @@
       </c>
       <c r="R64" s="22">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="5"/>
@@ -6542,7 +6546,7 @@
       </c>
       <c r="T64" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-52</v>
+        <v>-57</v>
       </c>
       <c r="U64" s="24">
         <v>0.94074024135300072</v>
@@ -6572,7 +6576,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURDORMITORY FEMALE</v>
       </c>
       <c r="H65" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I65" s="27">
         <v>45566</v>
@@ -6581,10 +6585,10 @@
         <v>45737</v>
       </c>
       <c r="K65" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L65" s="18">
-        <v>0.58599999999999997</v>
+        <v>0.62329999999999997</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>26</v>
@@ -6598,15 +6602,15 @@
       </c>
       <c r="P65" s="21">
         <f t="shared" si="2"/>
-        <v>100.20599999999999</v>
+        <v>106.5843</v>
       </c>
       <c r="Q65" s="21">
         <f t="shared" si="3"/>
-        <v>70.794000000000011</v>
+        <v>64.415700000000001</v>
       </c>
       <c r="R65" s="22">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="5"/>
@@ -6614,7 +6618,7 @@
       </c>
       <c r="T65" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-80</v>
+        <v>-85</v>
       </c>
       <c r="U65" s="24">
         <v>1.2317038245452467</v>
@@ -6653,7 +6657,7 @@
         <v>45708</v>
       </c>
       <c r="K66" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L66" s="18">
         <v>0.15859999999999999</v>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="R66" s="22">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="5"/>
@@ -6686,7 +6690,7 @@
       </c>
       <c r="T66" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-109</v>
+        <v>-114</v>
       </c>
       <c r="U66" s="24">
         <v>4.341217820948339</v>
@@ -6725,7 +6729,7 @@
         <v>45683</v>
       </c>
       <c r="K67" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L67" s="18">
         <v>0.16839999999999999</v>
@@ -6750,7 +6754,7 @@
       </c>
       <c r="R67" s="22">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S67" s="21">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6758,7 +6762,7 @@
       </c>
       <c r="T67" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-139</v>
       </c>
       <c r="U67" s="24">
         <v>1.2874256064363331E-2</v>
@@ -6797,7 +6801,7 @@
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L68" s="18">
         <v>0.1241</v>
@@ -6822,7 +6826,7 @@
       </c>
       <c r="R68" s="22">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="11"/>
@@ -6830,7 +6834,7 @@
       </c>
       <c r="T68" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="U68" s="24">
         <v>0.87755848995820385</v>
@@ -6869,10 +6873,10 @@
         <v>45786</v>
       </c>
       <c r="K69" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L69" s="18">
-        <v>0.45169999999999999</v>
+        <v>0.46579999999999999</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>26</v>
@@ -6886,15 +6890,15 @@
       </c>
       <c r="P69" s="21">
         <f t="shared" si="8"/>
-        <v>42.911499999999997</v>
+        <v>44.250999999999998</v>
       </c>
       <c r="Q69" s="21">
         <f t="shared" si="9"/>
-        <v>52.088500000000003</v>
+        <v>50.749000000000002</v>
       </c>
       <c r="R69" s="22">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="11"/>
@@ -6902,7 +6906,7 @@
       </c>
       <c r="T69" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="U69" s="24">
         <v>5.6463899562994637</v>
@@ -6941,10 +6945,10 @@
         <v>45652</v>
       </c>
       <c r="K70" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L70" s="18">
-        <v>0.69679999999999997</v>
+        <v>0.78080000000000005</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>26</v>
@@ -6958,15 +6962,15 @@
       </c>
       <c r="P70" s="21">
         <f t="shared" si="8"/>
-        <v>59.924799999999998</v>
+        <v>67.148800000000008</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="9"/>
-        <v>26.075200000000002</v>
+        <v>18.851199999999992</v>
       </c>
       <c r="R70" s="22">
         <f t="shared" si="10"/>
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="11"/>
@@ -6974,7 +6978,7 @@
       </c>
       <c r="T70" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-165</v>
+        <v>-170</v>
       </c>
       <c r="U70" s="24">
         <v>3.3921463524873796</v>
@@ -7013,10 +7017,10 @@
         <v>45759</v>
       </c>
       <c r="K71" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L71" s="18">
-        <v>9.4700000000000006E-2</v>
+        <v>0.1244</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>26</v>
@@ -7030,15 +7034,15 @@
       </c>
       <c r="P71" s="21">
         <f t="shared" si="8"/>
-        <v>1.7993000000000001</v>
+        <v>2.3635999999999999</v>
       </c>
       <c r="Q71" s="21">
         <f t="shared" si="9"/>
-        <v>17.200700000000001</v>
+        <v>16.636400000000002</v>
       </c>
       <c r="R71" s="22">
         <f t="shared" si="10"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="11"/>
@@ -7046,7 +7050,7 @@
       </c>
       <c r="T71" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="U71" s="24">
         <v>1.1565364385446064</v>
@@ -7085,7 +7089,7 @@
         <v>45657</v>
       </c>
       <c r="K72" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L72" s="18">
         <v>0</v>
@@ -7110,7 +7114,7 @@
       </c>
       <c r="R72" s="22">
         <f t="shared" si="10"/>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="11"/>
@@ -7118,7 +7122,7 @@
       </c>
       <c r="T72" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-160</v>
+        <v>-165</v>
       </c>
       <c r="U72" s="24">
         <v>0.35948495436649136</v>
@@ -7157,7 +7161,7 @@
         <v>45942</v>
       </c>
       <c r="K73" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L73" s="18">
         <v>0</v>
@@ -7182,7 +7186,7 @@
       </c>
       <c r="R73" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="11"/>
@@ -7190,7 +7194,7 @@
       </c>
       <c r="T73" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U73" s="24">
         <v>0</v>
@@ -7229,7 +7233,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L74" s="18">
         <v>0</v>
@@ -7254,7 +7258,7 @@
       </c>
       <c r="R74" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="11"/>
@@ -7262,7 +7266,7 @@
       </c>
       <c r="T74" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U74" s="24">
         <v>0</v>
@@ -7301,7 +7305,7 @@
         <v>45788</v>
       </c>
       <c r="K75" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L75" s="18">
         <v>0.115</v>
@@ -7326,7 +7330,7 @@
       </c>
       <c r="R75" s="22">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="11"/>
@@ -7334,7 +7338,7 @@
       </c>
       <c r="T75" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U75" s="24">
         <v>7.3681118933140155</v>
@@ -7373,7 +7377,7 @@
         <v>45795</v>
       </c>
       <c r="K76" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L76" s="18">
         <v>8.1699999999999995E-2</v>
@@ -7398,7 +7402,7 @@
       </c>
       <c r="R76" s="22">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="11"/>
@@ -7406,7 +7410,7 @@
       </c>
       <c r="T76" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="U76" s="24">
         <v>1.9262225609604624</v>
@@ -7445,7 +7449,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L77" s="18">
         <v>0</v>
@@ -7470,7 +7474,7 @@
       </c>
       <c r="R77" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="11"/>
@@ -7478,7 +7482,7 @@
       </c>
       <c r="T77" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U77" s="24">
         <v>0</v>
@@ -7517,7 +7521,7 @@
         <v>45745</v>
       </c>
       <c r="K78" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L78" s="18">
         <v>0.14410000000000001</v>
@@ -7542,7 +7546,7 @@
       </c>
       <c r="R78" s="22">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="11"/>
@@ -7550,7 +7554,7 @@
       </c>
       <c r="T78" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-72</v>
+        <v>-77</v>
       </c>
       <c r="U78" s="24">
         <v>2.6947696149272917</v>
@@ -7589,7 +7593,7 @@
         <v>45665</v>
       </c>
       <c r="K79" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L79" s="18">
         <v>8.2199999999999995E-2</v>
@@ -7614,7 +7618,7 @@
       </c>
       <c r="R79" s="22">
         <f t="shared" si="10"/>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="11"/>
@@ -7622,7 +7626,7 @@
       </c>
       <c r="T79" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-152</v>
+        <v>-157</v>
       </c>
       <c r="U79" s="24">
         <v>7.1455552805644906</v>
@@ -7661,7 +7665,7 @@
         <v>45655</v>
       </c>
       <c r="K80" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L80" s="18">
         <v>0.39400000000000002</v>
@@ -7686,7 +7690,7 @@
       </c>
       <c r="R80" s="22">
         <f t="shared" si="10"/>
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="11"/>
@@ -7694,7 +7698,7 @@
       </c>
       <c r="T80" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-162</v>
+        <v>-167</v>
       </c>
       <c r="U80" s="24">
         <v>2.1250737260073151</v>
@@ -7724,7 +7728,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURWORKSHOP</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I81" s="27">
         <v>45600</v>
@@ -7733,10 +7737,10 @@
         <v>45620</v>
       </c>
       <c r="K81" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L81" s="18">
-        <v>0.4516</v>
+        <v>0.63170000000000004</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>40</v>
@@ -7750,15 +7754,15 @@
       </c>
       <c r="P81" s="21">
         <f t="shared" si="8"/>
-        <v>9.032</v>
+        <v>12.634</v>
       </c>
       <c r="Q81" s="21">
         <f t="shared" si="9"/>
-        <v>10.968</v>
+        <v>7.3659999999999997</v>
       </c>
       <c r="R81" s="22">
         <f t="shared" si="10"/>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="11"/>
@@ -7766,7 +7770,7 @@
       </c>
       <c r="T81" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-197</v>
+        <v>-202</v>
       </c>
       <c r="U81" s="24">
         <v>2.2141421850391501</v>
@@ -7805,7 +7809,7 @@
         <v>45634</v>
       </c>
       <c r="K82" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L82" s="18">
         <v>4.0500000000000001E-2</v>
@@ -7830,7 +7834,7 @@
       </c>
       <c r="R82" s="22">
         <f t="shared" si="10"/>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="11"/>
@@ -7838,7 +7842,7 @@
       </c>
       <c r="T82" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-183</v>
+        <v>-188</v>
       </c>
       <c r="U82" s="24">
         <v>2.1434231234710972</v>
@@ -7877,7 +7881,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L83" s="18">
         <v>0</v>
@@ -7902,7 +7906,7 @@
       </c>
       <c r="R83" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="11"/>
@@ -7910,7 +7914,7 @@
       </c>
       <c r="T83" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U83" s="24">
         <v>0</v>
@@ -7949,10 +7953,10 @@
         <v>45345</v>
       </c>
       <c r="K84" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L84" s="18">
-        <v>0.40949999999999998</v>
+        <v>0.4143</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>26</v>
@@ -7966,15 +7970,15 @@
       </c>
       <c r="P84" s="21">
         <f t="shared" si="8"/>
-        <v>-138.82049999999998</v>
+        <v>-140.4477</v>
       </c>
       <c r="Q84" s="21">
         <f t="shared" si="9"/>
-        <v>-200.17950000000002</v>
+        <v>-198.5523</v>
       </c>
       <c r="R84" s="22">
         <f t="shared" si="10"/>
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="11"/>
@@ -7982,7 +7986,7 @@
       </c>
       <c r="T84" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-472</v>
+        <v>-477</v>
       </c>
       <c r="U84" s="24">
         <v>4.2091892986185098</v>
@@ -8021,7 +8025,7 @@
         <v>45788</v>
       </c>
       <c r="K85" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L85" s="18">
         <v>0.21690000000000001</v>
@@ -8046,7 +8050,7 @@
       </c>
       <c r="R85" s="22">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="11"/>
@@ -8054,7 +8058,7 @@
       </c>
       <c r="T85" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U85" s="24">
         <v>0.67906690555318538</v>
@@ -8093,7 +8097,7 @@
         <v>45634</v>
       </c>
       <c r="K86" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L86" s="18">
         <v>0</v>
@@ -8118,7 +8122,7 @@
       </c>
       <c r="R86" s="22">
         <f t="shared" si="10"/>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="11"/>
@@ -8126,7 +8130,7 @@
       </c>
       <c r="T86" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-183</v>
+        <v>-188</v>
       </c>
       <c r="U86" s="24">
         <v>0.3705846265159719</v>
@@ -8165,7 +8169,7 @@
         <v>45697</v>
       </c>
       <c r="K87" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L87" s="18">
         <v>0.58789999999999998</v>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="R87" s="22">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="11"/>
@@ -8198,7 +8202,7 @@
       </c>
       <c r="T87" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U87" s="24">
         <v>0.46782862216660642</v>
@@ -8237,10 +8241,10 @@
         <v>45613</v>
       </c>
       <c r="K88" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L88" s="18">
-        <v>0.3851</v>
+        <v>0.4425</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>26</v>
@@ -8254,15 +8258,15 @@
       </c>
       <c r="P88" s="21">
         <f t="shared" si="8"/>
-        <v>10.3977</v>
+        <v>11.9475</v>
       </c>
       <c r="Q88" s="21">
         <f t="shared" si="9"/>
-        <v>16.6023</v>
+        <v>15.0525</v>
       </c>
       <c r="R88" s="22">
         <f t="shared" si="10"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="11"/>
@@ -8270,7 +8274,7 @@
       </c>
       <c r="T88" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-204</v>
+        <v>-209</v>
       </c>
       <c r="U88" s="24">
         <v>2.1434231234710972</v>
@@ -8309,7 +8313,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L89" s="18">
         <v>1</v>
@@ -8334,7 +8338,7 @@
       </c>
       <c r="R89" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="11"/>
@@ -8342,7 +8346,7 @@
       </c>
       <c r="T89" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U89" s="24">
         <v>0</v>
@@ -8381,7 +8385,7 @@
         <v>45704</v>
       </c>
       <c r="K90" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L90" s="18">
         <v>0.16259999999999999</v>
@@ -8406,7 +8410,7 @@
       </c>
       <c r="R90" s="22">
         <f t="shared" si="10"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="11"/>
@@ -8414,7 +8418,7 @@
       </c>
       <c r="T90" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-118</v>
       </c>
       <c r="U90" s="24">
         <v>0.66829826225735345</v>
@@ -8453,7 +8457,7 @@
         <v>45606</v>
       </c>
       <c r="K91" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L91" s="18">
         <v>0</v>
@@ -8478,7 +8482,7 @@
       </c>
       <c r="R91" s="22">
         <f t="shared" si="10"/>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="11"/>
@@ -8486,7 +8490,7 @@
       </c>
       <c r="T91" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-211</v>
+        <v>-216</v>
       </c>
       <c r="U91" s="24">
         <v>0.45089754003550009</v>
@@ -8525,7 +8529,7 @@
         <v>45620</v>
       </c>
       <c r="K92" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L92" s="18">
         <v>8.1199999999999994E-2</v>
@@ -8550,7 +8554,7 @@
       </c>
       <c r="R92" s="22">
         <f t="shared" si="10"/>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="11"/>
@@ -8558,7 +8562,7 @@
       </c>
       <c r="T92" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-197</v>
+        <v>-202</v>
       </c>
       <c r="U92" s="24">
         <v>0.47544300629915759</v>
@@ -8597,7 +8601,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L93" s="18">
         <v>0</v>
@@ -8622,7 +8626,7 @@
       </c>
       <c r="R93" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="11"/>
@@ -8630,7 +8634,7 @@
       </c>
       <c r="T93" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U93" s="24">
         <v>0</v>
@@ -8669,7 +8673,7 @@
         <v>45697</v>
       </c>
       <c r="K94" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L94" s="18">
         <v>9.1399999999999995E-2</v>
@@ -8694,7 +8698,7 @@
       </c>
       <c r="R94" s="22">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="11"/>
@@ -8702,7 +8706,7 @@
       </c>
       <c r="T94" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="U94" s="24">
         <v>7.4012273158472057</v>
@@ -8741,7 +8745,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L95" s="18">
         <v>0</v>
@@ -8766,7 +8770,7 @@
       </c>
       <c r="R95" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="11"/>
@@ -8774,7 +8778,7 @@
       </c>
       <c r="T95" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U95" s="24">
         <v>0</v>
@@ -8813,7 +8817,7 @@
         <v>45788</v>
       </c>
       <c r="K96" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L96" s="18">
         <v>0</v>
@@ -8838,7 +8842,7 @@
       </c>
       <c r="R96" s="22">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="11"/>
@@ -8846,7 +8850,7 @@
       </c>
       <c r="T96" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U96" s="24">
         <v>0.12529658962134113</v>
@@ -8885,7 +8889,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L97" s="18">
         <v>0</v>
@@ -8910,7 +8914,7 @@
       </c>
       <c r="R97" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="11"/>
@@ -8918,7 +8922,7 @@
       </c>
       <c r="T97" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U97" s="24">
         <v>0</v>
@@ -8957,7 +8961,7 @@
         <v>45592</v>
       </c>
       <c r="K98" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L98" s="18">
         <v>0</v>
@@ -8982,7 +8986,7 @@
       </c>
       <c r="R98" s="22">
         <f t="shared" si="10"/>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="11"/>
@@ -8990,7 +8994,7 @@
       </c>
       <c r="T98" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-225</v>
+        <v>-230</v>
       </c>
       <c r="U98" s="24">
         <v>0.53563667137898285</v>
@@ -9029,7 +9033,7 @@
         <v>45746</v>
       </c>
       <c r="K99" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L99" s="18">
         <v>0</v>
@@ -9054,7 +9058,7 @@
       </c>
       <c r="R99" s="22">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="11"/>
@@ -9062,7 +9066,7 @@
       </c>
       <c r="T99" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-76</v>
       </c>
       <c r="U99" s="24">
         <v>0.31365570942757215</v>
@@ -9101,7 +9105,7 @@
         <v>45746</v>
       </c>
       <c r="K100" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L100" s="18">
         <v>0</v>
@@ -9126,7 +9130,7 @@
       </c>
       <c r="R100" s="22">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="11"/>
@@ -9134,7 +9138,7 @@
       </c>
       <c r="T100" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-76</v>
       </c>
       <c r="U100" s="24">
         <v>0.1502798023901277</v>
@@ -9173,7 +9177,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L101" s="18">
         <v>0</v>
@@ -9198,7 +9202,7 @@
       </c>
       <c r="R101" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="11"/>
@@ -9206,7 +9210,7 @@
       </c>
       <c r="T101" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U101" s="24">
         <v>0</v>
@@ -9245,7 +9249,7 @@
         <v>45704</v>
       </c>
       <c r="K102" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L102" s="18">
         <v>0</v>
@@ -9270,7 +9274,7 @@
       </c>
       <c r="R102" s="22">
         <f t="shared" si="10"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="11"/>
@@ -9278,7 +9282,7 @@
       </c>
       <c r="T102" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-118</v>
       </c>
       <c r="U102" s="24">
         <v>0.1640586615913901</v>
@@ -9317,7 +9321,7 @@
         <v>45648</v>
       </c>
       <c r="K103" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L103" s="18">
         <v>0</v>
@@ -9342,7 +9346,7 @@
       </c>
       <c r="R103" s="22">
         <f t="shared" si="10"/>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="11"/>
@@ -9350,7 +9354,7 @@
       </c>
       <c r="T103" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-169</v>
+        <v>-174</v>
       </c>
       <c r="U103" s="24">
         <v>0.1502798023901277</v>
@@ -9389,7 +9393,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L104" s="18">
         <v>0</v>
@@ -9414,7 +9418,7 @@
       </c>
       <c r="R104" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="11"/>
@@ -9422,7 +9426,7 @@
       </c>
       <c r="T104" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U104" s="24">
         <v>0</v>
@@ -9461,7 +9465,7 @@
         <v>45726</v>
       </c>
       <c r="K105" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L105" s="18">
         <v>0</v>
@@ -9486,7 +9490,7 @@
       </c>
       <c r="R105" s="22">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="11"/>
@@ -9494,7 +9498,7 @@
       </c>
       <c r="T105" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-91</v>
+        <v>-96</v>
       </c>
       <c r="U105" s="24">
         <v>0.41311075421685678</v>
@@ -9533,7 +9537,7 @@
         <v>45726</v>
       </c>
       <c r="K106" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L106" s="18">
         <v>0</v>
@@ -9558,7 +9562,7 @@
       </c>
       <c r="R106" s="22">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="11"/>
@@ -9566,7 +9570,7 @@
       </c>
       <c r="T106" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-91</v>
+        <v>-96</v>
       </c>
       <c r="U106" s="24">
         <v>0.41311075421685678</v>
@@ -9605,7 +9609,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L107" s="18">
         <v>0</v>
@@ -9630,7 +9634,7 @@
       </c>
       <c r="R107" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="11"/>
@@ -9638,7 +9642,7 @@
       </c>
       <c r="T107" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U107" s="24">
         <v>0</v>
@@ -9677,7 +9681,7 @@
         <v>45767</v>
       </c>
       <c r="K108" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L108" s="18">
         <v>0</v>
@@ -9702,7 +9706,7 @@
       </c>
       <c r="R108" s="22">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="11"/>
@@ -9710,7 +9714,7 @@
       </c>
       <c r="T108" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U108" s="24">
         <v>0.71590581972999912</v>
@@ -9749,7 +9753,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L109" s="18">
         <v>0</v>
@@ -9774,7 +9778,7 @@
       </c>
       <c r="R109" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="11"/>
@@ -9782,7 +9786,7 @@
       </c>
       <c r="T109" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -9821,7 +9825,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L110" s="18">
         <v>0</v>
@@ -9846,7 +9850,7 @@
       </c>
       <c r="R110" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="11"/>
@@ -9854,7 +9858,7 @@
       </c>
       <c r="T110" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -9893,7 +9897,7 @@
         <v>45767</v>
       </c>
       <c r="K111" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L111" s="18">
         <v>0.24279999999999999</v>
@@ -9918,7 +9922,7 @@
       </c>
       <c r="R111" s="22">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="11"/>
@@ -9926,7 +9930,7 @@
       </c>
       <c r="T111" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U111" s="24">
         <v>1.1364470150796924</v>
@@ -9965,7 +9969,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L112" s="18">
         <v>0</v>
@@ -9990,7 +9994,7 @@
       </c>
       <c r="R112" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="11"/>
@@ -9998,7 +10002,7 @@
       </c>
       <c r="T112" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U112" s="24">
         <v>0</v>
@@ -10037,7 +10041,7 @@
         <v>45683</v>
       </c>
       <c r="K113" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L113" s="18">
         <v>0.2228</v>
@@ -10062,7 +10066,7 @@
       </c>
       <c r="R113" s="22">
         <f t="shared" si="10"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="11"/>
@@ -10070,7 +10074,7 @@
       </c>
       <c r="T113" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-139</v>
       </c>
       <c r="U113" s="24">
         <v>0.86888955106354271</v>
@@ -10109,7 +10113,7 @@
         <v>45698</v>
       </c>
       <c r="K114" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L114" s="18">
         <v>0.2702</v>
@@ -10134,7 +10138,7 @@
       </c>
       <c r="R114" s="22">
         <f t="shared" si="10"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="11"/>
@@ -10142,7 +10146,7 @@
       </c>
       <c r="T114" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-119</v>
+        <v>-124</v>
       </c>
       <c r="U114" s="24">
         <v>1.9101722387327178</v>
@@ -10181,10 +10185,10 @@
         <v>45788</v>
       </c>
       <c r="K115" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L115" s="18">
-        <v>0</v>
+        <v>0.20080000000000001</v>
       </c>
       <c r="M115" s="19" t="s">
         <v>42</v>
@@ -10198,15 +10202,15 @@
       </c>
       <c r="P115" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.016</v>
       </c>
       <c r="Q115" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>15.984</v>
       </c>
       <c r="R115" s="22">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="11"/>
@@ -10214,7 +10218,7 @@
       </c>
       <c r="T115" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="U115" s="24">
         <v>2.3615133681493417</v>
@@ -10253,7 +10257,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L116" s="18">
         <v>0</v>
@@ -10278,7 +10282,7 @@
       </c>
       <c r="R116" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="11"/>
@@ -10286,7 +10290,7 @@
       </c>
       <c r="T116" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U116" s="24">
         <v>0</v>
@@ -10325,7 +10329,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L117" s="18">
         <v>1</v>
@@ -10350,7 +10354,7 @@
       </c>
       <c r="R117" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="11"/>
@@ -10358,7 +10362,7 @@
       </c>
       <c r="T117" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U117" s="24">
         <v>0</v>
@@ -10397,7 +10401,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L118" s="18">
         <v>0</v>
@@ -10422,7 +10426,7 @@
       </c>
       <c r="R118" s="22">
         <f t="shared" si="10"/>
-        <v>-130</v>
+        <v>-126</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="11"/>
@@ -10430,7 +10434,7 @@
       </c>
       <c r="T118" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U118" s="24">
         <v>0</v>
@@ -10469,7 +10473,7 @@
         <v>45676</v>
       </c>
       <c r="K119" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L119" s="18">
         <v>0.25430000000000003</v>
@@ -10494,7 +10498,7 @@
       </c>
       <c r="R119" s="22">
         <f t="shared" si="10"/>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="11"/>
@@ -10502,7 +10506,7 @@
       </c>
       <c r="T119" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-141</v>
+        <v>-146</v>
       </c>
       <c r="U119" s="24">
         <v>1.2772542166873568</v>
@@ -10541,7 +10545,7 @@
         <v>45746</v>
       </c>
       <c r="K120" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L120" s="18">
         <v>0.26069999999999999</v>
@@ -10566,7 +10570,7 @@
       </c>
       <c r="R120" s="22">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="11"/>
@@ -10574,7 +10578,7 @@
       </c>
       <c r="T120" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-76</v>
       </c>
       <c r="U120" s="24">
         <v>1.3021928291029847</v>
@@ -10613,7 +10617,7 @@
         <v>45767</v>
       </c>
       <c r="K121" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L121" s="18">
         <v>0</v>
@@ -10638,7 +10642,7 @@
       </c>
       <c r="R121" s="22">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="11"/>
@@ -10646,7 +10650,7 @@
       </c>
       <c r="T121" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="U121" s="24">
         <v>2.2106399922458855</v>
@@ -10685,7 +10689,7 @@
         <v>45698</v>
       </c>
       <c r="K122" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L122" s="18">
         <v>0.25929999999999997</v>
@@ -10710,7 +10714,7 @@
       </c>
       <c r="R122" s="22">
         <f t="shared" si="10"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="11"/>
@@ -10718,7 +10722,7 @@
       </c>
       <c r="T122" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-119</v>
+        <v>-124</v>
       </c>
       <c r="U122" s="24">
         <v>0.94089880391742786</v>
@@ -10757,7 +10761,7 @@
         <v>45774</v>
       </c>
       <c r="K123" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L123" s="18">
         <v>0.3</v>
@@ -10782,7 +10786,7 @@
       </c>
       <c r="R123" s="22">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="11"/>
@@ -10790,7 +10794,7 @@
       </c>
       <c r="T123" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="U123" s="24">
         <v>0.83220228058553414</v>
@@ -10829,7 +10833,7 @@
         <v>45774</v>
       </c>
       <c r="K124" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L124" s="18">
         <v>0</v>
@@ -10854,7 +10858,7 @@
       </c>
       <c r="R124" s="22">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="11"/>
@@ -10862,7 +10866,7 @@
       </c>
       <c r="T124" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="U124" s="24">
         <v>1.1429745636452144</v>
@@ -10901,7 +10905,7 @@
         <v>45704</v>
       </c>
       <c r="K125" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L125" s="18">
         <v>0.24249999999999999</v>
@@ -10926,7 +10930,7 @@
       </c>
       <c r="R125" s="22">
         <f t="shared" si="10"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="11"/>
@@ -10934,7 +10938,7 @@
       </c>
       <c r="T125" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-113</v>
+        <v>-118</v>
       </c>
       <c r="U125" s="24">
         <v>0.65729302337862683</v>
@@ -10973,7 +10977,7 @@
         <v>45736</v>
       </c>
       <c r="K126" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L126" s="18">
         <v>0.24970000000000001</v>
@@ -10998,7 +11002,7 @@
       </c>
       <c r="R126" s="22">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="11"/>
@@ -11006,7 +11010,7 @@
       </c>
       <c r="T126" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-81</v>
+        <v>-86</v>
       </c>
       <c r="U126" s="24">
         <v>1.1353862689916343</v>
@@ -11045,7 +11049,7 @@
         <v>45802</v>
       </c>
       <c r="K127" s="17">
-        <v>45812</v>
+        <v>45816</v>
       </c>
       <c r="L127" s="38">
         <v>0.3</v>
@@ -11070,7 +11074,7 @@
       </c>
       <c r="R127" s="42">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="11"/>
@@ -11078,7 +11082,7 @@
       </c>
       <c r="T127" s="43">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="U127" s="43">
         <v>0.45616355925610708</v>
@@ -11086,13 +11090,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11105,7 +11109,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81B48B53-FD6E-4F29-BEF9-0EDBC69FBA90}</x14:id>
+          <x14:id>{6E6F0B08-9874-4F13-8C7C-427F556576F6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11119,7 +11123,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4A9D03C9-5E70-49A8-8B2A-AA3DD9F71D16}</x14:id>
+          <x14:id>{31C92F67-3566-4783-9682-215F2BBDFEC7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11133,13 +11137,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4747CF1D-2FFF-458D-BF84-FD79EDAB2F30}</x14:id>
+          <x14:id>{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{B2ED440F-B4F6-4F71-B256-233D723845E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{DA8C5721-CAEF-4A83-B7A8-FD8CD3E9444F}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11152,7 +11156,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81B48B53-FD6E-4F29-BEF9-0EDBC69FBA90}">
+          <x14:cfRule type="dataBar" id="{6E6F0B08-9874-4F13-8C7C-427F556576F6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11168,7 +11172,7 @@
           <xm:sqref>L2:L51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4A9D03C9-5E70-49A8-8B2A-AA3DD9F71D16}">
+          <x14:cfRule type="dataBar" id="{31C92F67-3566-4783-9682-215F2BBDFEC7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11184,7 +11188,7 @@
           <xm:sqref>L52:L127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{811B312F-4E84-4DDA-BA1E-902DB4CCBDF3}">
+          <x14:cfRule type="iconSet" priority="1" id="{E7761EC8-95F4-4CC2-A33A-40E2889416AE}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11197,7 +11201,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4747CF1D-2FFF-458D-BF84-FD79EDAB2F30}">
+          <x14:cfRule type="dataBar" id="{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4422FC2-1B39-4C83-9D8B-4749FF6F0B8A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB34E317-EA1C-4BC3-BFB1-480CE8361CA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DATA (wajib update)" sheetId="1" r:id="rId1"/>
@@ -772,6 +772,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color rgb="FF332D2D"/>
         <name val="Roboto"/>
         <scheme val="none"/>
@@ -866,71 +931,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1570,12 +1570,12 @@
     <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="20">
       <calculatedColumnFormula>B2&amp;D2&amp;F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="19"/>
     <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="4"/>
     <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="17"/>
     <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="16">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
@@ -1925,7 +1925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T24" sqref="T24"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,7 +2051,7 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L2" s="18">
         <v>0.72240000000000004</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="R2" s="22">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-87</v>
+        <v>-80</v>
       </c>
       <c r="S2" s="21">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="T2" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="U2" s="23">
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="T3" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-293</v>
+        <v>-302</v>
       </c>
       <c r="U3" s="24">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L4" s="18">
         <v>0.78769999999999996</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="R4" s="22">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="5"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="T4" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-162</v>
       </c>
       <c r="U4" s="24">
         <v>1.8586563945729366</v>
@@ -2265,7 +2265,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="5"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="T5" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-134</v>
       </c>
       <c r="U5" s="24">
         <v>0.79194964416177871</v>
@@ -2337,7 +2337,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L6" s="18">
         <v>0.1246</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="5"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="T6" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-67</v>
+        <v>-76</v>
       </c>
       <c r="U6" s="24">
         <v>1.8581913281290774</v>
@@ -2409,7 +2409,7 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L7" s="18">
         <v>0.28070000000000001</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="T7" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-50</v>
       </c>
       <c r="U7" s="24">
         <v>0.45069827803129847</v>
@@ -2481,7 +2481,7 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L8" s="18">
         <v>0.19450000000000001</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="R8" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="5"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="T8" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="U8" s="24">
         <v>6.4714074693689341</v>
@@ -2553,10 +2553,10 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L9" s="18">
-        <v>0.3276</v>
+        <v>0.3306</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>32</v>
@@ -2570,15 +2570,15 @@
       </c>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>82.227599999999995</v>
+        <v>82.980599999999995</v>
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="3"/>
-        <v>168.7724</v>
+        <v>168.01940000000002</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="5"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="T9" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-50</v>
       </c>
       <c r="U9" s="24">
         <v>2.1938359438979802</v>
@@ -2625,7 +2625,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L10" s="18">
         <v>0.4572</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="5"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="T10" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>-183</v>
       </c>
       <c r="U10" s="24">
         <v>1.4899400056670535</v>
@@ -2697,7 +2697,7 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L11" s="18">
         <v>1.21E-2</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="5"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="T11" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="U11" s="24">
         <v>33.058446215526629</v>
@@ -2769,7 +2769,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="5"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="T12" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="24">
         <v>1.8989416148357232</v>
@@ -2841,7 +2841,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="R13" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="5"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="T13" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-127</v>
       </c>
       <c r="U13" s="24">
         <v>0.61599151131979568</v>
@@ -2913,7 +2913,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="5"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="T14" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-71</v>
       </c>
       <c r="U14" s="24">
         <v>0.42275200889415104</v>
@@ -2985,7 +2985,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="R15" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="5"/>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="T15" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="U15" s="24">
         <v>5.4312137246679076E-2</v>
@@ -3057,10 +3057,10 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L16" s="18">
-        <v>0.42799999999999999</v>
+        <v>0.4385</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>26</v>
@@ -3074,15 +3074,15 @@
       </c>
       <c r="P16" s="21">
         <f t="shared" si="2"/>
-        <v>125.404</v>
+        <v>128.48050000000001</v>
       </c>
       <c r="Q16" s="21">
         <f t="shared" si="3"/>
-        <v>167.596</v>
+        <v>164.51949999999999</v>
       </c>
       <c r="R16" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="5"/>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="T16" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="U16" s="24">
         <v>0.74004960479265314</v>
@@ -3129,7 +3129,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="5"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="T17" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="U17" s="24">
         <v>0.17748202368678323</v>
@@ -3201,7 +3201,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L18" s="18">
         <v>0.99970000000000003</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="5"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="T18" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-134</v>
       </c>
       <c r="U18" s="24">
         <v>3.9250044561777282E-2</v>
@@ -3273,7 +3273,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="5"/>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="T19" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-134</v>
       </c>
       <c r="U19" s="24">
         <v>4.9777015190575383E-2</v>
@@ -3345,10 +3345,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L20" s="18">
-        <v>0.1221</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>32</v>
@@ -3362,15 +3362,15 @@
       </c>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>23.8095</v>
+        <v>28.977</v>
       </c>
       <c r="Q20" s="21">
         <f t="shared" si="3"/>
-        <v>171.19049999999999</v>
+        <v>166.023</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="5"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="T20" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-50</v>
       </c>
       <c r="U20" s="24">
         <v>1.9866670170786576</v>
@@ -3417,7 +3417,7 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L21" s="18">
         <v>9.69E-2</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="R21" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="5"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="T21" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="U21" s="24">
         <v>8.0826749208230453</v>
@@ -3489,7 +3489,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="R22" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="5"/>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="T22" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="U22" s="24">
         <v>4.8861619889981514E-2</v>
@@ -3561,7 +3561,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L23" s="18">
         <v>0</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="5"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="T23" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="U23" s="24">
         <v>0.22890573488117585</v>
@@ -3633,7 +3633,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="R24" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="5"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="T24" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-71</v>
       </c>
       <c r="U24" s="24">
         <v>7.4966605347794035E-2</v>
@@ -3705,7 +3705,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L25" s="18">
         <v>0</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="R25" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="5"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="T25" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="U25" s="24">
         <v>0.4156489033720388</v>
@@ -3777,7 +3777,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L26" s="18">
         <v>0</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="R26" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="5"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="T26" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="U26" s="24">
         <v>0.34221449233860612</v>
@@ -3849,7 +3849,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L27" s="18">
         <v>0.20930000000000001</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="R27" s="22">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="5"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="T27" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-148</v>
       </c>
       <c r="U27" s="24">
         <v>2.0404487343946266E-2</v>
@@ -3921,7 +3921,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L28" s="18">
         <v>0</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="R28" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="5"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="T28" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U28" s="24">
         <v>2.3371433481226382E-2</v>
@@ -3993,7 +3993,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L29" s="18">
         <v>4.7800000000000002E-2</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="5"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="T29" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U29" s="24">
         <v>2.9187755059895788</v>
@@ -4065,7 +4065,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="R30" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="5"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="T30" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="U30" s="24">
         <v>0.11596582079047627</v>
@@ -4137,7 +4137,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="R31" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="5"/>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="T31" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="U31" s="24">
         <v>8.1747544717989548E-2</v>
@@ -4209,7 +4209,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="5"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="T32" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U32" s="24">
         <v>4.396791761852549E-2</v>
@@ -4281,7 +4281,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="5"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="T33" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U33" s="24">
         <v>1.2091683970173784E-2</v>
@@ -4353,7 +4353,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L34" s="18">
         <v>0.1056</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="R34" s="22">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="5"/>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="T34" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-148</v>
       </c>
       <c r="U34" s="24">
         <v>2.2129086244257725</v>
@@ -4425,7 +4425,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L35" s="18">
         <v>0.21909999999999999</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="R35" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="5"/>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="T35" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="U35" s="24">
         <v>0.7163956909384217</v>
@@ -4497,7 +4497,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="R36" s="22">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-56</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="5"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="T36" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="U36" s="24">
         <v>2.788276283922893</v>
@@ -4569,7 +4569,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L37" s="18">
         <v>0.84599999999999997</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-56</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="5"/>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="T37" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="U37" s="24">
         <v>0.24445340046690409</v>
@@ -4641,7 +4641,7 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L38" s="18">
         <v>0.2898</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="R38" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="5"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="T38" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-50</v>
       </c>
       <c r="U38" s="24">
         <v>1.3834064445609398</v>
@@ -4713,7 +4713,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="R39" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="5"/>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="T39" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="U39" s="24">
         <v>0.39134230671971154</v>
@@ -4785,7 +4785,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L40" s="18">
         <v>4.4999999999999997E-3</v>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="R40" s="22">
         <f t="shared" si="4"/>
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="5"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="T40" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U40" s="24">
         <v>0.10777677087659648</v>
@@ -4857,7 +4857,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L41" s="18">
         <v>8.1500000000000003E-2</v>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="R41" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="5"/>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="T41" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="U41" s="24">
         <v>8.2318386059768451E-3</v>
@@ -4929,7 +4929,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L42" s="18">
         <v>0.20580000000000001</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="R42" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="5"/>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="T42" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="U42" s="24">
         <v>6.3041469860199054E-2</v>
@@ -5001,7 +5001,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L43" s="18">
         <v>0.2019</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="R43" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="5"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="T43" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U43" s="24">
         <v>3.5386814494663736E-2</v>
@@ -5073,7 +5073,7 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L44" s="18">
         <v>0.16600000000000001</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="R44" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="5"/>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="T44" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="U44" s="24">
         <v>0.58542108403682003</v>
@@ -5145,7 +5145,7 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L45" s="18">
         <v>0.28089999999999998</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="R45" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="5"/>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="T45" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="U45" s="24">
         <v>18.96429322855024</v>
@@ -5217,7 +5217,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L46" s="18">
         <v>7.6799999999999993E-2</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="R46" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="5"/>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="T46" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U46" s="24">
         <v>2.1882553326908354E-2</v>
@@ -5289,7 +5289,7 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L47" s="18">
         <v>0.25319999999999998</v>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="R47" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="5"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="T47" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-134</v>
       </c>
       <c r="U47" s="24">
         <v>0.10433791562790558</v>
@@ -5361,7 +5361,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="R48" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="5"/>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="T48" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="U48" s="24">
         <v>1.6500421520262731</v>
@@ -5433,7 +5433,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L49" s="18">
         <v>0</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="R49" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="5"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="T49" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="U49" s="24">
         <v>1.4876499045579906E-2</v>
@@ -5505,7 +5505,7 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L50" s="18">
         <v>0</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="R50" s="22">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="5"/>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="T50" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U50" s="24">
         <v>6.7954571404563111E-2</v>
@@ -5577,7 +5577,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L51" s="18">
         <v>9.7999999999999997E-3</v>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="R51" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="5"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="T51" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="U51" s="24">
         <v>0.24341470950651456</v>
@@ -5649,10 +5649,10 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L52" s="18">
-        <v>0.46679999999999999</v>
+        <v>0.48488199999999998</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>26</v>
@@ -5666,15 +5666,15 @@
       </c>
       <c r="P52" s="21">
         <f t="shared" si="2"/>
-        <v>198.85679999999999</v>
+        <v>206.559732</v>
       </c>
       <c r="Q52" s="21">
         <f t="shared" si="3"/>
-        <v>227.14320000000001</v>
+        <v>219.440268</v>
       </c>
       <c r="R52" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="5"/>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="T52" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U52" s="24">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L53" s="18">
         <v>1</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="R53" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="5"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="T53" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U53" s="24">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="R54" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="5"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="T54" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U54" s="24">
         <v>0</v>
@@ -5859,16 +5859,16 @@
         <v>25</v>
       </c>
       <c r="I55" s="27">
-        <v>45566</v>
+        <v>45762</v>
       </c>
       <c r="J55" s="28">
-        <v>45728</v>
+        <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L55" s="18">
-        <v>0.7036</v>
+        <v>0.89024099999999995</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>26</v>
@@ -5878,27 +5878,27 @@
       </c>
       <c r="O55" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="P55" s="21">
         <f t="shared" si="2"/>
-        <v>113.9832</v>
+        <v>48.073014000000001</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="3"/>
-        <v>48.016800000000003</v>
+        <v>5.9269859999999994</v>
       </c>
       <c r="R55" s="22">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="T55" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-94</v>
+        <v>-15</v>
       </c>
       <c r="U55" s="24">
         <v>7.3157389496987042</v>
@@ -5931,16 +5931,16 @@
         <v>117</v>
       </c>
       <c r="I56" s="27">
-        <v>45726</v>
+        <v>45762</v>
       </c>
       <c r="J56" s="28">
-        <v>45798</v>
+        <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L56" s="18">
-        <v>0.35830000000000001</v>
+        <v>0.47015099999999999</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>26</v>
@@ -5950,27 +5950,27 @@
       </c>
       <c r="O56" s="21">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="P56" s="21">
         <f t="shared" si="2"/>
-        <v>25.797599999999999</v>
+        <v>48.425553000000001</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" si="3"/>
-        <v>46.202399999999997</v>
+        <v>54.574446999999999</v>
       </c>
       <c r="R56" s="22">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>-42</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="T56" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>35</v>
       </c>
       <c r="U56" s="24">
         <v>1.2678290518311721</v>
@@ -6003,13 +6003,13 @@
         <v>25</v>
       </c>
       <c r="I57" s="27">
-        <v>45754</v>
+        <v>45782</v>
       </c>
       <c r="J57" s="28">
-        <v>45761</v>
+        <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L57" s="18">
         <v>1</v>
@@ -6022,11 +6022,11 @@
       </c>
       <c r="O57" s="21">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P57" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="21">
         <f t="shared" si="3"/>
@@ -6034,15 +6034,15 @@
       </c>
       <c r="R57" s="22">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T57" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-61</v>
+        <v>-29</v>
       </c>
       <c r="U57" s="24">
         <v>0.90362130154493769</v>
@@ -6075,13 +6075,13 @@
         <v>25</v>
       </c>
       <c r="I58" s="27">
-        <v>45698</v>
+        <v>45782</v>
       </c>
       <c r="J58" s="28">
-        <v>45791</v>
+        <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L58" s="18">
         <v>1</v>
@@ -6094,11 +6094,11 @@
       </c>
       <c r="O58" s="21">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="P58" s="21">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="21">
         <f t="shared" si="3"/>
@@ -6106,15 +6106,15 @@
       </c>
       <c r="R58" s="22">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="T58" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="U58" s="24">
         <v>0.90362130154493769</v>
@@ -6147,13 +6147,13 @@
         <v>117</v>
       </c>
       <c r="I59" s="27">
-        <v>45747</v>
+        <v>45768</v>
       </c>
       <c r="J59" s="28">
-        <v>45787</v>
+        <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L59" s="18">
         <v>0.28550700000000001</v>
@@ -6166,27 +6166,27 @@
       </c>
       <c r="O59" s="21">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="P59" s="21">
         <f t="shared" si="2"/>
-        <v>11.42028</v>
+        <v>15.702885</v>
       </c>
       <c r="Q59" s="21">
         <f t="shared" si="3"/>
-        <v>28.579720000000002</v>
+        <v>39.297114999999998</v>
       </c>
       <c r="R59" s="22">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T59" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="U59" s="24">
         <v>0.90362130154493769</v>
@@ -6219,16 +6219,16 @@
         <v>25</v>
       </c>
       <c r="I60" s="27">
-        <v>45579</v>
+        <v>45768</v>
       </c>
       <c r="J60" s="28">
-        <v>45738</v>
+        <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L60" s="18">
-        <v>0.91279999999999994</v>
+        <v>0.96841699999999997</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>26</v>
@@ -6238,27 +6238,27 @@
       </c>
       <c r="O60" s="21">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="P60" s="21">
         <f t="shared" si="2"/>
-        <v>145.1352</v>
+        <v>87.157529999999994</v>
       </c>
       <c r="Q60" s="21">
         <f t="shared" si="3"/>
-        <v>13.864800000000002</v>
+        <v>2.8424700000000058</v>
       </c>
       <c r="R60" s="22">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>-35</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="T60" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>28</v>
       </c>
       <c r="U60" s="24">
         <v>1.5818776119585585</v>
@@ -6291,13 +6291,13 @@
         <v>116</v>
       </c>
       <c r="I61" s="27">
-        <v>45712</v>
+        <v>45768</v>
       </c>
       <c r="J61" s="28">
-        <v>45777</v>
+        <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L61" s="18">
         <v>7.1874999999999994E-2</v>
@@ -6310,27 +6310,27 @@
       </c>
       <c r="O61" s="21">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="P61" s="21">
         <f t="shared" si="2"/>
-        <v>4.671875</v>
+        <v>8.984375</v>
       </c>
       <c r="Q61" s="21">
         <f t="shared" si="3"/>
-        <v>60.328125</v>
+        <v>116.015625</v>
       </c>
       <c r="R61" s="22">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>-70</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="T61" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>63</v>
       </c>
       <c r="U61" s="24">
         <v>1.2842274814527748</v>
@@ -6363,16 +6363,16 @@
         <v>25</v>
       </c>
       <c r="I62" s="27">
-        <v>45566</v>
+        <v>45775</v>
       </c>
       <c r="J62" s="28">
-        <v>45647</v>
+        <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L62" s="18">
-        <v>0.95960000000000001</v>
+        <v>0.97038800000000003</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>26</v>
@@ -6382,27 +6382,27 @@
       </c>
       <c r="O62" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="P62" s="21">
         <f t="shared" si="2"/>
-        <v>77.727599999999995</v>
+        <v>87.334919999999997</v>
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="3"/>
-        <v>3.2724000000000046</v>
+        <v>2.6650800000000032</v>
       </c>
       <c r="R62" s="22">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>-42</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T62" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-175</v>
+        <v>35</v>
       </c>
       <c r="U62" s="24">
         <v>6.1841913050091657</v>
@@ -6441,7 +6441,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L63" s="18">
         <v>0</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="R63" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="5"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="T63" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U63" s="24">
         <v>0</v>
@@ -6507,13 +6507,13 @@
         <v>25</v>
       </c>
       <c r="I64" s="27">
-        <v>45628</v>
+        <v>45782</v>
       </c>
       <c r="J64" s="28">
-        <v>45765</v>
+        <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L64" s="18">
         <v>0.64439999999999997</v>
@@ -6526,27 +6526,27 @@
       </c>
       <c r="O64" s="21">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="P64" s="21">
         <f t="shared" si="2"/>
-        <v>88.282799999999995</v>
+        <v>44.4636</v>
       </c>
       <c r="Q64" s="21">
         <f t="shared" si="3"/>
-        <v>48.717200000000005</v>
+        <v>24.5364</v>
       </c>
       <c r="R64" s="22">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>-28</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="T64" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>21</v>
       </c>
       <c r="U64" s="24">
         <v>0.94074024135300072</v>
@@ -6579,16 +6579,16 @@
         <v>25</v>
       </c>
       <c r="I65" s="27">
-        <v>45566</v>
+        <v>45775</v>
       </c>
       <c r="J65" s="28">
-        <v>45737</v>
+        <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L65" s="18">
-        <v>0.62329999999999997</v>
+        <v>0.62580199999999997</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>26</v>
@@ -6598,27 +6598,27 @@
       </c>
       <c r="O65" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="P65" s="21">
         <f t="shared" si="2"/>
-        <v>106.5843</v>
+        <v>69.464022</v>
       </c>
       <c r="Q65" s="21">
         <f t="shared" si="3"/>
-        <v>64.415700000000001</v>
+        <v>41.535978</v>
       </c>
       <c r="R65" s="22">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>-63</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T65" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>56</v>
       </c>
       <c r="U65" s="24">
         <v>1.2317038245452467</v>
@@ -6654,10 +6654,10 @@
         <v>45593</v>
       </c>
       <c r="J66" s="28">
-        <v>45708</v>
+        <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L66" s="18">
         <v>0.15859999999999999</v>
@@ -6674,23 +6674,23 @@
       </c>
       <c r="P66" s="21">
         <f t="shared" si="2"/>
-        <v>18.238999999999997</v>
+        <v>45.3596</v>
       </c>
       <c r="Q66" s="21">
         <f t="shared" si="3"/>
-        <v>96.760999999999996</v>
+        <v>240.6404</v>
       </c>
       <c r="R66" s="22">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>-56</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="T66" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-114</v>
+        <v>49</v>
       </c>
       <c r="U66" s="24">
         <v>4.341217820948339</v>
@@ -6720,19 +6720,19 @@
         <v xml:space="preserve">PROJECT 1 BPEKERJAAN STRUKTURGAZEBOO </v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I67" s="27">
-        <v>45663</v>
+        <v>45810</v>
       </c>
       <c r="J67" s="28">
-        <v>45683</v>
+        <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L67" s="18">
-        <v>0.16839999999999999</v>
+        <v>0.87442399999999998</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>40</v>
@@ -6742,19 +6742,19 @@
       </c>
       <c r="O67" s="21">
         <f t="shared" ref="O67:O127" si="7">IF(ISBLANK(I67),0,I67-N67)</f>
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="P67" s="21">
         <f t="shared" ref="P67:P127" si="8">$L67*$S67</f>
-        <v>3.3679999999999999</v>
+        <v>17.488479999999999</v>
       </c>
       <c r="Q67" s="21">
         <f t="shared" ref="Q67:Q127" si="9">S67-P67</f>
-        <v>16.632000000000001</v>
+        <v>2.5115200000000009</v>
       </c>
       <c r="R67" s="22">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>133</v>
+        <v>-7</v>
       </c>
       <c r="S67" s="21">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="T67" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-1</v>
       </c>
       <c r="U67" s="24">
         <v>1.2874256064363331E-2</v>
@@ -6795,13 +6795,13 @@
         <v>116</v>
       </c>
       <c r="I68" s="27">
-        <v>45747</v>
+        <v>45762</v>
       </c>
       <c r="J68" s="28">
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L68" s="18">
         <v>0.1241</v>
@@ -6814,27 +6814,27 @@
       </c>
       <c r="O68" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P68" s="21">
         <f t="shared" si="8"/>
-        <v>5.8327</v>
+        <v>3.9712000000000001</v>
       </c>
       <c r="Q68" s="21">
         <f t="shared" si="9"/>
-        <v>41.167299999999997</v>
+        <v>28.0288</v>
       </c>
       <c r="R68" s="22">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="T68" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-37</v>
       </c>
       <c r="U68" s="24">
         <v>0.87755848995820385</v>
@@ -6867,16 +6867,16 @@
         <v>117</v>
       </c>
       <c r="I69" s="27">
-        <v>45691</v>
+        <v>45782</v>
       </c>
       <c r="J69" s="28">
-        <v>45786</v>
+        <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L69" s="18">
-        <v>0.46579999999999999</v>
+        <v>0.54240900000000003</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>26</v>
@@ -6886,27 +6886,27 @@
       </c>
       <c r="O69" s="21">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="P69" s="21">
         <f t="shared" si="8"/>
-        <v>44.250999999999998</v>
+        <v>37.426221000000005</v>
       </c>
       <c r="Q69" s="21">
         <f t="shared" si="9"/>
-        <v>50.749000000000002</v>
+        <v>31.573778999999995</v>
       </c>
       <c r="R69" s="22">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>-28</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="T69" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>21</v>
       </c>
       <c r="U69" s="24">
         <v>5.6463899562994637</v>
@@ -6939,16 +6939,16 @@
         <v>25</v>
       </c>
       <c r="I70" s="27">
-        <v>45566</v>
+        <v>45762</v>
       </c>
       <c r="J70" s="28">
-        <v>45652</v>
+        <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L70" s="18">
-        <v>0.78080000000000005</v>
+        <v>0.88594799999999996</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>26</v>
@@ -6958,27 +6958,27 @@
       </c>
       <c r="O70" s="21">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="P70" s="21">
         <f t="shared" si="8"/>
-        <v>67.148800000000008</v>
+        <v>85.051007999999996</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="9"/>
-        <v>18.851199999999992</v>
+        <v>10.948992000000004</v>
       </c>
       <c r="R70" s="22">
         <f t="shared" si="10"/>
-        <v>164</v>
+        <v>-35</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="T70" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-170</v>
+        <v>28</v>
       </c>
       <c r="U70" s="24">
         <v>3.3921463524873796</v>
@@ -7011,16 +7011,16 @@
         <v>116</v>
       </c>
       <c r="I71" s="27">
-        <v>45740</v>
+        <v>45782</v>
       </c>
       <c r="J71" s="28">
-        <v>45759</v>
+        <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L71" s="18">
-        <v>0.1244</v>
+        <v>0.237344</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>26</v>
@@ -7030,27 +7030,27 @@
       </c>
       <c r="O71" s="21">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="P71" s="21">
         <f t="shared" si="8"/>
-        <v>2.3635999999999999</v>
+        <v>23.022368</v>
       </c>
       <c r="Q71" s="21">
         <f t="shared" si="9"/>
-        <v>16.636400000000002</v>
+        <v>73.977632</v>
       </c>
       <c r="R71" s="22">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>-56</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="T71" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>49</v>
       </c>
       <c r="U71" s="24">
         <v>1.1565364385446064</v>
@@ -7083,13 +7083,13 @@
         <v>116</v>
       </c>
       <c r="I72" s="27">
-        <v>45621</v>
+        <v>45775</v>
       </c>
       <c r="J72" s="28">
-        <v>45657</v>
+        <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L72" s="18">
         <v>0</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="O72" s="21">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="P72" s="21">
         <f t="shared" si="8"/>
@@ -7110,19 +7110,19 @@
       </c>
       <c r="Q72" s="21">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="R72" s="22">
         <f t="shared" si="10"/>
-        <v>159</v>
+        <v>-68</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="T72" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-165</v>
+        <v>61</v>
       </c>
       <c r="U72" s="24">
         <v>0.35948495436649136</v>
@@ -7158,10 +7158,10 @@
         <v>45516</v>
       </c>
       <c r="J73" s="28">
-        <v>45942</v>
+        <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L73" s="18">
         <v>0</v>
@@ -7182,19 +7182,19 @@
       </c>
       <c r="Q73" s="21">
         <f t="shared" si="9"/>
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="R73" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-28</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="11"/>
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T73" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="U73" s="24">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L74" s="18">
         <v>0</v>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="R74" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="11"/>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="T74" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U74" s="24">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>116</v>
       </c>
       <c r="I75" s="27">
-        <v>45656</v>
+        <v>45762</v>
       </c>
       <c r="J75" s="28">
-        <v>45788</v>
+        <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L75" s="18">
-        <v>0.115</v>
+        <v>0.115026</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>40</v>
@@ -7318,27 +7318,27 @@
       </c>
       <c r="O75" s="21">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="P75" s="21">
         <f t="shared" si="8"/>
-        <v>15.180000000000001</v>
+        <v>15.873588</v>
       </c>
       <c r="Q75" s="21">
         <f t="shared" si="9"/>
-        <v>116.82</v>
+        <v>122.126412</v>
       </c>
       <c r="R75" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-77</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="11"/>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="T75" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>70</v>
       </c>
       <c r="U75" s="24">
         <v>7.3681118933140155</v>
@@ -7371,16 +7371,16 @@
         <v>116</v>
       </c>
       <c r="I76" s="27">
-        <v>45761</v>
+        <v>45859</v>
       </c>
       <c r="J76" s="28">
-        <v>45795</v>
+        <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L76" s="18">
-        <v>8.1699999999999995E-2</v>
+        <v>8.1706000000000001E-2</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>42</v>
@@ -7390,19 +7390,19 @@
       </c>
       <c r="O76" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="P76" s="21">
         <f t="shared" si="8"/>
-        <v>2.7778</v>
+        <v>2.7780040000000001</v>
       </c>
       <c r="Q76" s="21">
         <f t="shared" si="9"/>
-        <v>31.222200000000001</v>
+        <v>31.221996000000001</v>
       </c>
       <c r="R76" s="22">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>-70</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="11"/>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="T76" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>63</v>
       </c>
       <c r="U76" s="24">
         <v>1.9262225609604624</v>
@@ -7449,7 +7449,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L77" s="18">
         <v>0</v>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="R77" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="11"/>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="T77" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U77" s="24">
         <v>0</v>
@@ -7515,13 +7515,13 @@
         <v>116</v>
       </c>
       <c r="I78" s="27">
-        <v>45712</v>
+        <v>45796</v>
       </c>
       <c r="J78" s="28">
-        <v>45745</v>
+        <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L78" s="18">
         <v>0.14410000000000001</v>
@@ -7534,27 +7534,27 @@
       </c>
       <c r="O78" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="P78" s="21">
         <f t="shared" si="8"/>
-        <v>4.7553000000000001</v>
+        <v>2.5937999999999999</v>
       </c>
       <c r="Q78" s="21">
         <f t="shared" si="9"/>
-        <v>28.244700000000002</v>
+        <v>15.4062</v>
       </c>
       <c r="R78" s="22">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T78" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-77</v>
+        <v>-17</v>
       </c>
       <c r="U78" s="24">
         <v>2.6947696149272917</v>
@@ -7587,16 +7587,16 @@
         <v>116</v>
       </c>
       <c r="I79" s="27">
-        <v>45642</v>
+        <v>45838</v>
       </c>
       <c r="J79" s="28">
-        <v>45665</v>
+        <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L79" s="18">
-        <v>8.2199999999999995E-2</v>
+        <v>8.2214999999999996E-2</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>40</v>
@@ -7606,27 +7606,27 @@
       </c>
       <c r="O79" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="P79" s="21">
         <f t="shared" si="8"/>
-        <v>1.8905999999999998</v>
+        <v>5.6728350000000001</v>
       </c>
       <c r="Q79" s="21">
         <f t="shared" si="9"/>
-        <v>21.109400000000001</v>
+        <v>63.327165000000001</v>
       </c>
       <c r="R79" s="22">
         <f t="shared" si="10"/>
-        <v>151</v>
+        <v>-84</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="T79" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-157</v>
+        <v>77</v>
       </c>
       <c r="U79" s="24">
         <v>7.1455552805644906</v>
@@ -7659,16 +7659,16 @@
         <v>117</v>
       </c>
       <c r="I80" s="27">
-        <v>45642</v>
+        <v>45824</v>
       </c>
       <c r="J80" s="28">
-        <v>45655</v>
+        <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L80" s="18">
-        <v>0.39400000000000002</v>
+        <v>0.39402100000000001</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>26</v>
@@ -7678,27 +7678,27 @@
       </c>
       <c r="O80" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="P80" s="21">
         <f t="shared" si="8"/>
-        <v>5.1219999999999999</v>
+        <v>24.429302</v>
       </c>
       <c r="Q80" s="21">
         <f t="shared" si="9"/>
-        <v>7.8780000000000001</v>
+        <v>37.570698</v>
       </c>
       <c r="R80" s="22">
         <f t="shared" si="10"/>
-        <v>161</v>
+        <v>-63</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="T80" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-167</v>
+        <v>56</v>
       </c>
       <c r="U80" s="24">
         <v>2.1250737260073151</v>
@@ -7731,16 +7731,16 @@
         <v>25</v>
       </c>
       <c r="I81" s="27">
-        <v>45600</v>
+        <v>45831</v>
       </c>
       <c r="J81" s="28">
-        <v>45620</v>
+        <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L81" s="18">
-        <v>0.63170000000000004</v>
+        <v>0.636575</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>40</v>
@@ -7750,27 +7750,27 @@
       </c>
       <c r="O81" s="21">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="P81" s="21">
         <f t="shared" si="8"/>
-        <v>12.634</v>
+        <v>-201.794275</v>
       </c>
       <c r="Q81" s="21">
         <f t="shared" si="9"/>
-        <v>7.3659999999999997</v>
+        <v>-115.205725</v>
       </c>
       <c r="R81" s="22">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>-317</v>
       </c>
       <c r="T81" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>-317</v>
       </c>
       <c r="U81" s="24">
         <v>2.2141421850391501</v>
@@ -7803,13 +7803,13 @@
         <v>116</v>
       </c>
       <c r="I82" s="27">
-        <v>45614</v>
+        <v>45845</v>
       </c>
       <c r="J82" s="28">
-        <v>45634</v>
+        <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L82" s="18">
         <v>4.0500000000000001E-2</v>
@@ -7822,27 +7822,27 @@
       </c>
       <c r="O82" s="21">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>340</v>
       </c>
       <c r="P82" s="21">
         <f t="shared" si="8"/>
-        <v>0.81</v>
+        <v>3.4424999999999999</v>
       </c>
       <c r="Q82" s="21">
         <f t="shared" si="9"/>
-        <v>19.190000000000001</v>
+        <v>81.557500000000005</v>
       </c>
       <c r="R82" s="22">
         <f t="shared" si="10"/>
-        <v>182</v>
+        <v>-107</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="T82" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>100</v>
       </c>
       <c r="U82" s="24">
         <v>2.1434231234710972</v>
@@ -7881,7 +7881,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L83" s="18">
         <v>0</v>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="R83" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="11"/>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="T83" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U83" s="24">
         <v>0</v>
@@ -7947,16 +7947,16 @@
         <v>117</v>
       </c>
       <c r="I84" s="27">
-        <v>45684</v>
+        <v>45824</v>
       </c>
       <c r="J84" s="28">
-        <v>45345</v>
+        <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L84" s="18">
-        <v>0.4143</v>
+        <v>0.43537500000000001</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>26</v>
@@ -7966,27 +7966,27 @@
       </c>
       <c r="O84" s="21">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="P84" s="21">
         <f t="shared" si="8"/>
-        <v>-140.4477</v>
+        <v>20.898</v>
       </c>
       <c r="Q84" s="21">
         <f t="shared" si="9"/>
-        <v>-198.5523</v>
+        <v>27.102</v>
       </c>
       <c r="R84" s="22">
         <f t="shared" si="10"/>
-        <v>471</v>
+        <v>-49</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="11"/>
-        <v>-339</v>
+        <v>48</v>
       </c>
       <c r="T84" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-477</v>
+        <v>42</v>
       </c>
       <c r="U84" s="24">
         <v>4.2091892986185098</v>
@@ -8019,13 +8019,13 @@
         <v>116</v>
       </c>
       <c r="I85" s="27">
-        <v>45761</v>
+        <v>45817</v>
       </c>
       <c r="J85" s="28">
-        <v>45788</v>
+        <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L85" s="18">
         <v>0.21690000000000001</v>
@@ -8038,27 +8038,27 @@
       </c>
       <c r="O85" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="P85" s="21">
         <f t="shared" si="8"/>
-        <v>5.8563000000000001</v>
+        <v>10.411200000000001</v>
       </c>
       <c r="Q85" s="21">
         <f t="shared" si="9"/>
-        <v>21.143699999999999</v>
+        <v>37.588799999999999</v>
       </c>
       <c r="R85" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-42</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="T85" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>35</v>
       </c>
       <c r="U85" s="24">
         <v>0.67906690555318538</v>
@@ -8091,13 +8091,13 @@
         <v>116</v>
       </c>
       <c r="I86" s="27">
-        <v>45628</v>
+        <v>45831</v>
       </c>
       <c r="J86" s="28">
-        <v>45634</v>
+        <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L86" s="18">
         <v>0</v>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="O86" s="21">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="P86" s="21">
         <f t="shared" si="8"/>
@@ -8118,19 +8118,19 @@
       </c>
       <c r="Q86" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R86" s="22">
         <f t="shared" si="10"/>
-        <v>182</v>
+        <v>-21</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T86" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>14</v>
       </c>
       <c r="U86" s="24">
         <v>0.3705846265159719</v>
@@ -8163,13 +8163,13 @@
         <v>117</v>
       </c>
       <c r="I87" s="27">
-        <v>45670</v>
+        <v>45796</v>
       </c>
       <c r="J87" s="28">
-        <v>45697</v>
+        <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L87" s="18">
         <v>0.58789999999999998</v>
@@ -8182,27 +8182,27 @@
       </c>
       <c r="O87" s="21">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="P87" s="21">
         <f t="shared" si="8"/>
-        <v>15.873299999999999</v>
+        <v>40.565100000000001</v>
       </c>
       <c r="Q87" s="21">
         <f t="shared" si="9"/>
-        <v>11.126700000000001</v>
+        <v>28.434899999999999</v>
       </c>
       <c r="R87" s="22">
         <f t="shared" si="10"/>
-        <v>119</v>
+        <v>-42</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="T87" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>35</v>
       </c>
       <c r="U87" s="24">
         <v>0.46782862216660642</v>
@@ -8235,16 +8235,16 @@
         <v>117</v>
       </c>
       <c r="I88" s="27">
-        <v>45586</v>
+        <v>45845</v>
       </c>
       <c r="J88" s="28">
-        <v>45613</v>
+        <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L88" s="18">
-        <v>0.4425</v>
+        <v>0.46493800000000002</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>26</v>
@@ -8254,27 +8254,27 @@
       </c>
       <c r="O88" s="21">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="P88" s="21">
         <f t="shared" si="8"/>
-        <v>11.9475</v>
+        <v>-17.202705999999999</v>
       </c>
       <c r="Q88" s="21">
         <f t="shared" si="9"/>
-        <v>15.0525</v>
+        <v>-19.797294000000001</v>
       </c>
       <c r="R88" s="22">
         <f t="shared" si="10"/>
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>-37</v>
       </c>
       <c r="T88" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-23</v>
       </c>
       <c r="U88" s="24">
         <v>2.1434231234710972</v>
@@ -8313,7 +8313,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L89" s="18">
         <v>1</v>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="R89" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="11"/>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="T89" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U89" s="24">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         <v>116</v>
       </c>
       <c r="I90" s="27">
-        <v>45677</v>
+        <v>45838</v>
       </c>
       <c r="J90" s="28">
-        <v>45704</v>
+        <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L90" s="18">
         <v>0.16259999999999999</v>
@@ -8398,27 +8398,27 @@
       </c>
       <c r="O90" s="21">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="P90" s="21">
         <f t="shared" si="8"/>
-        <v>4.3902000000000001</v>
+        <v>10.081199999999999</v>
       </c>
       <c r="Q90" s="21">
         <f t="shared" si="9"/>
-        <v>22.6098</v>
+        <v>51.918800000000005</v>
       </c>
       <c r="R90" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-77</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T90" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>70</v>
       </c>
       <c r="U90" s="24">
         <v>0.66829826225735345</v>
@@ -8451,13 +8451,13 @@
         <v>116</v>
       </c>
       <c r="I91" s="27">
-        <v>45579</v>
+        <v>45824</v>
       </c>
       <c r="J91" s="28">
-        <v>45606</v>
+        <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L91" s="18">
         <v>0</v>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="O91" s="21">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="P91" s="21">
         <f t="shared" si="8"/>
@@ -8478,19 +8478,19 @@
       </c>
       <c r="Q91" s="21">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R91" s="22">
         <f t="shared" si="10"/>
-        <v>210</v>
+        <v>-35</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T91" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-216</v>
+        <v>28</v>
       </c>
       <c r="U91" s="24">
         <v>0.45089754003550009</v>
@@ -8523,13 +8523,13 @@
         <v>116</v>
       </c>
       <c r="I92" s="27">
-        <v>45593</v>
+        <v>45810</v>
       </c>
       <c r="J92" s="28">
-        <v>45620</v>
+        <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L92" s="18">
         <v>8.1199999999999994E-2</v>
@@ -8542,27 +8542,27 @@
       </c>
       <c r="O92" s="21">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="P92" s="21">
         <f t="shared" si="8"/>
-        <v>2.1923999999999997</v>
+        <v>3.3291999999999997</v>
       </c>
       <c r="Q92" s="21">
         <f t="shared" si="9"/>
-        <v>24.807600000000001</v>
+        <v>37.6708</v>
       </c>
       <c r="R92" s="22">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>-28</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T92" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>21</v>
       </c>
       <c r="U92" s="24">
         <v>0.47544300629915759</v>
@@ -8601,7 +8601,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L93" s="18">
         <v>0</v>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="R93" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="11"/>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="T93" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U93" s="24">
         <v>0</v>
@@ -8667,13 +8667,13 @@
         <v>116</v>
       </c>
       <c r="I94" s="27">
-        <v>45642</v>
+        <v>45866</v>
       </c>
       <c r="J94" s="28">
-        <v>45697</v>
+        <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L94" s="18">
         <v>9.1399999999999995E-2</v>
@@ -8686,27 +8686,27 @@
       </c>
       <c r="O94" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="P94" s="21">
         <f t="shared" si="8"/>
-        <v>5.0270000000000001</v>
+        <v>5.8495999999999997</v>
       </c>
       <c r="Q94" s="21">
         <f t="shared" si="9"/>
-        <v>49.972999999999999</v>
+        <v>58.150399999999998</v>
       </c>
       <c r="R94" s="22">
         <f t="shared" si="10"/>
-        <v>119</v>
+        <v>-107</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T94" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>100</v>
       </c>
       <c r="U94" s="24">
         <v>7.4012273158472057</v>
@@ -8745,7 +8745,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L95" s="18">
         <v>0</v>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="R95" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="11"/>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="T95" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U95" s="24">
         <v>0</v>
@@ -8811,13 +8811,13 @@
         <v>116</v>
       </c>
       <c r="I96" s="27">
-        <v>45782</v>
+        <v>45866</v>
       </c>
       <c r="J96" s="28">
-        <v>45788</v>
+        <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L96" s="18">
         <v>0</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="O96" s="21">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="P96" s="21">
         <f t="shared" si="8"/>
@@ -8838,19 +8838,19 @@
       </c>
       <c r="Q96" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R96" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-84</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T96" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>77</v>
       </c>
       <c r="U96" s="24">
         <v>0.12529658962134113</v>
@@ -8889,7 +8889,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L97" s="18">
         <v>0</v>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="R97" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="11"/>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="T97" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U97" s="24">
         <v>0</v>
@@ -8955,13 +8955,13 @@
         <v>116</v>
       </c>
       <c r="I98" s="27">
-        <v>45579</v>
+        <v>45845</v>
       </c>
       <c r="J98" s="28">
-        <v>45592</v>
+        <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L98" s="18">
         <v>0</v>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="O98" s="21">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="P98" s="21">
         <f t="shared" si="8"/>
@@ -8982,19 +8982,19 @@
       </c>
       <c r="Q98" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R98" s="22">
         <f t="shared" si="10"/>
-        <v>224</v>
+        <v>-42</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T98" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-230</v>
+        <v>35</v>
       </c>
       <c r="U98" s="24">
         <v>0.53563667137898285</v>
@@ -9027,13 +9027,13 @@
         <v>116</v>
       </c>
       <c r="I99" s="27">
-        <v>45712</v>
+        <v>45852</v>
       </c>
       <c r="J99" s="28">
-        <v>45746</v>
+        <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L99" s="18">
         <v>0</v>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="O99" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="P99" s="21">
         <f t="shared" si="8"/>
@@ -9054,19 +9054,19 @@
       </c>
       <c r="Q99" s="21">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R99" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-49</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T99" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>42</v>
       </c>
       <c r="U99" s="24">
         <v>0.31365570942757215</v>
@@ -9099,13 +9099,13 @@
         <v>116</v>
       </c>
       <c r="I100" s="27">
-        <v>45747</v>
+        <v>45866</v>
       </c>
       <c r="J100" s="28">
-        <v>45746</v>
+        <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L100" s="18">
         <v>0</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="O100" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="P100" s="21">
         <f t="shared" si="8"/>
@@ -9126,19 +9126,19 @@
       </c>
       <c r="Q100" s="21">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="R100" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-63</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="T100" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>56</v>
       </c>
       <c r="U100" s="24">
         <v>0.1502798023901277</v>
@@ -9177,7 +9177,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L101" s="18">
         <v>0</v>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="R101" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="11"/>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="T101" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U101" s="24">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>116</v>
       </c>
       <c r="I102" s="27">
-        <v>45691</v>
+        <v>45831</v>
       </c>
       <c r="J102" s="28">
-        <v>45704</v>
+        <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L102" s="18">
         <v>0</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="O102" s="21">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="P102" s="21">
         <f t="shared" si="8"/>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="R102" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-21</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="11"/>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="T102" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>14</v>
       </c>
       <c r="U102" s="24">
         <v>0.1640586615913901</v>
@@ -9315,13 +9315,13 @@
         <v>116</v>
       </c>
       <c r="I103" s="27">
-        <v>45635</v>
+        <v>45852</v>
       </c>
       <c r="J103" s="28">
-        <v>45648</v>
+        <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L103" s="18">
         <v>0</v>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O103" s="21">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="P103" s="21">
         <f t="shared" si="8"/>
@@ -9342,19 +9342,19 @@
       </c>
       <c r="Q103" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R103" s="22">
         <f t="shared" si="10"/>
-        <v>168</v>
+        <v>-35</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T103" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>28</v>
       </c>
       <c r="U103" s="24">
         <v>0.1502798023901277</v>
@@ -9393,7 +9393,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L104" s="18">
         <v>0</v>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="R104" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="11"/>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="T104" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U104" s="24">
         <v>0</v>
@@ -9459,13 +9459,13 @@
         <v>116</v>
       </c>
       <c r="I105" s="27">
-        <v>45712</v>
+        <v>45803</v>
       </c>
       <c r="J105" s="28">
-        <v>45726</v>
+        <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L105" s="18">
         <v>0</v>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="O105" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="P105" s="21">
         <f t="shared" si="8"/>
@@ -9486,19 +9486,19 @@
       </c>
       <c r="Q105" s="21">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R105" s="22">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T105" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-96</v>
+        <v>-15</v>
       </c>
       <c r="U105" s="24">
         <v>0.41311075421685678</v>
@@ -9531,13 +9531,13 @@
         <v>116</v>
       </c>
       <c r="I106" s="27">
-        <v>45712</v>
+        <v>45803</v>
       </c>
       <c r="J106" s="28">
-        <v>45726</v>
+        <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L106" s="18">
         <v>0</v>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="O106" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="P106" s="21">
         <f t="shared" si="8"/>
@@ -9558,19 +9558,19 @@
       </c>
       <c r="Q106" s="21">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R106" s="22">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T106" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-96</v>
+        <v>-15</v>
       </c>
       <c r="U106" s="24">
         <v>0.41311075421685678</v>
@@ -9609,7 +9609,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L107" s="18">
         <v>0</v>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="R107" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="11"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="T107" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U107" s="24">
         <v>0</v>
@@ -9675,13 +9675,13 @@
         <v>116</v>
       </c>
       <c r="I108" s="27">
-        <v>45761</v>
+        <v>45873</v>
       </c>
       <c r="J108" s="28">
-        <v>45767</v>
+        <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L108" s="18">
         <v>0</v>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="O108" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="P108" s="21">
         <f t="shared" si="8"/>
@@ -9702,19 +9702,19 @@
       </c>
       <c r="Q108" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R108" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-70</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T108" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>63</v>
       </c>
       <c r="U108" s="24">
         <v>0.71590581972999912</v>
@@ -9753,7 +9753,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L109" s="18">
         <v>0</v>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="R109" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="11"/>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="T109" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L110" s="18">
         <v>0</v>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="R110" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="11"/>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="T110" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -9891,13 +9891,13 @@
         <v>116</v>
       </c>
       <c r="I111" s="27">
-        <v>45761</v>
+        <v>45901</v>
       </c>
       <c r="J111" s="28">
-        <v>45767</v>
+        <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L111" s="18">
         <v>0.24279999999999999</v>
@@ -9910,27 +9910,27 @@
       </c>
       <c r="O111" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>396</v>
       </c>
       <c r="P111" s="21">
         <f t="shared" si="8"/>
-        <v>1.4567999999999999</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="Q111" s="21">
         <f t="shared" si="9"/>
-        <v>4.5432000000000006</v>
+        <v>15.144</v>
       </c>
       <c r="R111" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-98</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T111" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>91</v>
       </c>
       <c r="U111" s="24">
         <v>1.1364470150796924</v>
@@ -9969,7 +9969,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L112" s="18">
         <v>0</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="R112" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="11"/>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="T112" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U112" s="24">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>116</v>
       </c>
       <c r="I113" s="27">
-        <v>45670</v>
+        <v>45894</v>
       </c>
       <c r="J113" s="28">
-        <v>45683</v>
+        <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L113" s="18">
         <v>0.2228</v>
@@ -10054,27 +10054,27 @@
       </c>
       <c r="O113" s="21">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="P113" s="21">
         <f t="shared" si="8"/>
-        <v>2.8963999999999999</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="Q113" s="21">
         <f t="shared" si="9"/>
-        <v>10.1036</v>
+        <v>15.544</v>
       </c>
       <c r="R113" s="22">
         <f t="shared" si="10"/>
-        <v>133</v>
+        <v>-91</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T113" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>84</v>
       </c>
       <c r="U113" s="24">
         <v>0.86888955106354271</v>
@@ -10107,13 +10107,13 @@
         <v>117</v>
       </c>
       <c r="I114" s="27">
-        <v>45684</v>
+        <v>45901</v>
       </c>
       <c r="J114" s="28">
-        <v>45698</v>
+        <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L114" s="18">
         <v>0.2702</v>
@@ -10126,27 +10126,27 @@
       </c>
       <c r="O114" s="21">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>396</v>
       </c>
       <c r="P114" s="21">
         <f t="shared" si="8"/>
-        <v>3.7827999999999999</v>
+        <v>7.8357999999999999</v>
       </c>
       <c r="Q114" s="21">
         <f t="shared" si="9"/>
-        <v>10.2172</v>
+        <v>21.164200000000001</v>
       </c>
       <c r="R114" s="22">
         <f t="shared" si="10"/>
-        <v>118</v>
+        <v>-107</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="T114" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-124</v>
+        <v>100</v>
       </c>
       <c r="U114" s="24">
         <v>1.9101722387327178</v>
@@ -10179,13 +10179,13 @@
         <v>116</v>
       </c>
       <c r="I115" s="27">
-        <v>45768</v>
+        <v>45845</v>
       </c>
       <c r="J115" s="28">
-        <v>45788</v>
+        <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L115" s="18">
         <v>0.20080000000000001</v>
@@ -10198,27 +10198,27 @@
       </c>
       <c r="O115" s="21">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="P115" s="21">
         <f t="shared" si="8"/>
-        <v>4.016</v>
+        <v>2.6104000000000003</v>
       </c>
       <c r="Q115" s="21">
         <f t="shared" si="9"/>
-        <v>15.984</v>
+        <v>10.3896</v>
       </c>
       <c r="R115" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-35</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T115" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>28</v>
       </c>
       <c r="U115" s="24">
         <v>2.3615133681493417</v>
@@ -10257,7 +10257,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L116" s="18">
         <v>0</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="R116" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="11"/>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="T116" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U116" s="24">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L117" s="18">
         <v>1</v>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="R117" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="11"/>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="T117" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U117" s="24">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L118" s="18">
         <v>0</v>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="R118" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-119</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="11"/>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="T118" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U118" s="24">
         <v>0</v>
@@ -10467,13 +10467,13 @@
         <v>117</v>
       </c>
       <c r="I119" s="27">
-        <v>45663</v>
+        <v>45880</v>
       </c>
       <c r="J119" s="28">
-        <v>45676</v>
+        <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L119" s="18">
         <v>0.25430000000000003</v>
@@ -10486,27 +10486,27 @@
       </c>
       <c r="O119" s="21">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>375</v>
       </c>
       <c r="P119" s="21">
         <f t="shared" si="8"/>
-        <v>3.3059000000000003</v>
+        <v>5.0860000000000003</v>
       </c>
       <c r="Q119" s="21">
         <f t="shared" si="9"/>
-        <v>9.6940999999999988</v>
+        <v>14.914</v>
       </c>
       <c r="R119" s="22">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>-77</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T119" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-146</v>
+        <v>70</v>
       </c>
       <c r="U119" s="24">
         <v>1.2772542166873568</v>
@@ -10539,13 +10539,13 @@
         <v>117</v>
       </c>
       <c r="I120" s="27">
-        <v>45733</v>
+        <v>45845</v>
       </c>
       <c r="J120" s="28">
-        <v>45746</v>
+        <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L120" s="18">
         <v>0.26069999999999999</v>
@@ -10558,27 +10558,27 @@
       </c>
       <c r="O120" s="21">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="P120" s="21">
         <f t="shared" si="8"/>
-        <v>3.3891</v>
+        <v>5.2139999999999995</v>
       </c>
       <c r="Q120" s="21">
         <f t="shared" si="9"/>
-        <v>9.6109000000000009</v>
+        <v>14.786000000000001</v>
       </c>
       <c r="R120" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-42</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T120" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>35</v>
       </c>
       <c r="U120" s="24">
         <v>1.3021928291029847</v>
@@ -10611,13 +10611,13 @@
         <v>116</v>
       </c>
       <c r="I121" s="27">
-        <v>45698</v>
+        <v>45901</v>
       </c>
       <c r="J121" s="28">
-        <v>45767</v>
+        <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L121" s="18">
         <v>0</v>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="O121" s="21">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="P121" s="21">
         <f t="shared" si="8"/>
@@ -10638,19 +10638,19 @@
       </c>
       <c r="Q121" s="21">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R121" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-107</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="T121" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>100</v>
       </c>
       <c r="U121" s="24">
         <v>2.2106399922458855</v>
@@ -10683,13 +10683,13 @@
         <v>117</v>
       </c>
       <c r="I122" s="27">
-        <v>45677</v>
+        <v>45824</v>
       </c>
       <c r="J122" s="28">
-        <v>45698</v>
+        <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L122" s="18">
         <v>0.25929999999999997</v>
@@ -10702,27 +10702,27 @@
       </c>
       <c r="O122" s="21">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="P122" s="21">
         <f t="shared" si="8"/>
-        <v>5.4452999999999996</v>
+        <v>3.3708999999999998</v>
       </c>
       <c r="Q122" s="21">
         <f t="shared" si="9"/>
-        <v>15.5547</v>
+        <v>9.6291000000000011</v>
       </c>
       <c r="R122" s="22">
         <f t="shared" si="10"/>
-        <v>118</v>
+        <v>-14</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T122" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-124</v>
+        <v>7</v>
       </c>
       <c r="U122" s="24">
         <v>0.94089880391742786</v>
@@ -10755,13 +10755,13 @@
         <v>117</v>
       </c>
       <c r="I123" s="27">
-        <v>45761</v>
+        <v>45845</v>
       </c>
       <c r="J123" s="28">
-        <v>45774</v>
+        <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L123" s="18">
         <v>0.3</v>
@@ -10774,27 +10774,27 @@
       </c>
       <c r="O123" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="P123" s="21">
         <f t="shared" si="8"/>
-        <v>3.9</v>
+        <v>8.1</v>
       </c>
       <c r="Q123" s="21">
         <f t="shared" si="9"/>
-        <v>9.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="R123" s="22">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>-49</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="T123" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>42</v>
       </c>
       <c r="U123" s="24">
         <v>0.83220228058553414</v>
@@ -10827,13 +10827,13 @@
         <v>116</v>
       </c>
       <c r="I124" s="27">
-        <v>45747</v>
+        <v>45922</v>
       </c>
       <c r="J124" s="28">
-        <v>45774</v>
+        <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L124" s="18">
         <v>0</v>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="O124" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="P124" s="21">
         <f t="shared" si="8"/>
@@ -10854,19 +10854,19 @@
       </c>
       <c r="Q124" s="21">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="R124" s="22">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>-107</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="T124" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>100</v>
       </c>
       <c r="U124" s="24">
         <v>1.1429745636452144</v>
@@ -10899,13 +10899,13 @@
         <v>116</v>
       </c>
       <c r="I125" s="27">
-        <v>45698</v>
+        <v>45901</v>
       </c>
       <c r="J125" s="28">
-        <v>45704</v>
+        <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L125" s="18">
         <v>0.24249999999999999</v>
@@ -10918,27 +10918,27 @@
       </c>
       <c r="O125" s="21">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="P125" s="21">
         <f t="shared" si="8"/>
-        <v>1.4550000000000001</v>
+        <v>-1.94</v>
       </c>
       <c r="Q125" s="21">
         <f t="shared" si="9"/>
-        <v>4.5449999999999999</v>
+        <v>-6.0600000000000005</v>
       </c>
       <c r="R125" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-70</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="T125" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>63</v>
       </c>
       <c r="U125" s="24">
         <v>0.65729302337862683</v>
@@ -10971,13 +10971,13 @@
         <v>116</v>
       </c>
       <c r="I126" s="27">
-        <v>45368</v>
+        <v>45866</v>
       </c>
       <c r="J126" s="28">
-        <v>45736</v>
+        <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L126" s="18">
         <v>0.24970000000000001</v>
@@ -10990,27 +10990,27 @@
       </c>
       <c r="O126" s="21">
         <f t="shared" si="7"/>
-        <v>-137</v>
+        <v>361</v>
       </c>
       <c r="P126" s="21">
         <f t="shared" si="8"/>
-        <v>91.889600000000002</v>
+        <v>6.7419000000000002</v>
       </c>
       <c r="Q126" s="21">
         <f t="shared" si="9"/>
-        <v>276.11040000000003</v>
+        <v>20.258099999999999</v>
       </c>
       <c r="R126" s="22">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>-70</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="11"/>
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="T126" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-86</v>
+        <v>63</v>
       </c>
       <c r="U126" s="24">
         <v>1.1353862689916343</v>
@@ -11043,13 +11043,13 @@
         <v>117</v>
       </c>
       <c r="I127" s="36">
-        <v>45761</v>
+        <v>45838</v>
       </c>
       <c r="J127" s="37">
-        <v>45802</v>
+        <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="L127" s="38">
         <v>0.3</v>
@@ -11062,46 +11062,35 @@
       </c>
       <c r="O127" s="41">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="P127" s="41">
         <f t="shared" si="8"/>
-        <v>12.299999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="Q127" s="41">
         <f t="shared" si="9"/>
-        <v>28.700000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="R127" s="42">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>-28</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T127" s="43">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="U127" s="43">
         <v>0.45616355925610708</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="LOW">
-      <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="MEDIUM">
-      <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="HIGH">
-      <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L2:L51">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11109,13 +11098,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E6F0B08-9874-4F13-8C7C-427F556576F6}</x14:id>
+          <x14:id>{577D4703-565B-400D-9752-F6DFE351BFEE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L127">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11123,13 +11112,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31C92F67-3566-4783-9682-215F2BBDFEC7}</x14:id>
+          <x14:id>{B9EDB2B0-E3BF-4D58-83B8-2DAF23D8BDA9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M127">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11137,13 +11126,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}</x14:id>
+          <x14:id>{EBD89812-5976-4842-BC6A-A908C57A37FE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H127">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{DA8C5721-CAEF-4A83-B7A8-FD8CD3E9444F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{AD7422B6-08CD-4573-AE97-AD61EA57038F}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11156,7 +11156,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E6F0B08-9874-4F13-8C7C-427F556576F6}">
+          <x14:cfRule type="dataBar" id="{577D4703-565B-400D-9752-F6DFE351BFEE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11172,7 +11172,7 @@
           <xm:sqref>L2:L51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31C92F67-3566-4783-9682-215F2BBDFEC7}">
+          <x14:cfRule type="dataBar" id="{B9EDB2B0-E3BF-4D58-83B8-2DAF23D8BDA9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11188,7 +11188,7 @@
           <xm:sqref>L52:L127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{E7761EC8-95F4-4CC2-A33A-40E2889416AE}">
+          <x14:cfRule type="iconSet" priority="4" id="{D1C7181D-35A2-41AC-8C28-460B4BF95A6E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11201,7 +11201,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}">
+          <x14:cfRule type="dataBar" id="{EBD89812-5976-4842-BC6A-A908C57A37FE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldyn\OneDrive\Documents\INCA NUSA AQUA\MASTER DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB34E317-EA1C-4BC3-BFB1-480CE8361CA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EF4AB-D76C-426C-8EED-78903ED601DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -759,179 +759,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF332D2D"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1265,6 +1093,113 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF332D2D"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1287,6 +1222,41 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1553,49 +1523,45 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:U127" xr:uid="{EA8E0BFA-7E16-439B-A6A0-85575A1D2FBB}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="17">
       <calculatedColumnFormula>B2&amp;D2&amp;F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1925,7 +1891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,7 +2017,7 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L2" s="18">
         <v>0.72240000000000004</v>
@@ -2076,7 +2042,7 @@
       </c>
       <c r="R2" s="22">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-80</v>
+        <v>-52</v>
       </c>
       <c r="S2" s="21">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2084,7 +2050,7 @@
       </c>
       <c r="T2" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="U2" s="23">
         <v>5</v>
@@ -2123,7 +2089,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -2146,7 +2112,7 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2154,7 +2120,7 @@
       </c>
       <c r="T3" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-302</v>
+        <v>-328</v>
       </c>
       <c r="U3" s="24">
         <v>0</v>
@@ -2193,10 +2159,10 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L4" s="18">
-        <v>0.78769999999999996</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>26</v>
@@ -2210,15 +2176,15 @@
       </c>
       <c r="P4" s="21">
         <f t="shared" si="2"/>
-        <v>121.30579999999999</v>
+        <v>121.32119999999999</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="3"/>
-        <v>32.694200000000009</v>
+        <v>32.67880000000001</v>
       </c>
       <c r="R4" s="22">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="5"/>
@@ -2226,7 +2192,7 @@
       </c>
       <c r="T4" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-162</v>
+        <v>-188</v>
       </c>
       <c r="U4" s="24">
         <v>1.8586563945729366</v>
@@ -2265,7 +2231,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -2290,7 +2256,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="5"/>
@@ -2298,7 +2264,7 @@
       </c>
       <c r="T5" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-160</v>
       </c>
       <c r="U5" s="24">
         <v>0.79194964416177871</v>
@@ -2337,7 +2303,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L6" s="18">
         <v>0.1246</v>
@@ -2362,7 +2328,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="5"/>
@@ -2370,7 +2336,7 @@
       </c>
       <c r="T6" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-102</v>
       </c>
       <c r="U6" s="24">
         <v>1.8581913281290774</v>
@@ -2409,10 +2375,10 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L7" s="18">
-        <v>0.28070000000000001</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>26</v>
@@ -2426,15 +2392,15 @@
       </c>
       <c r="P7" s="21">
         <f t="shared" si="2"/>
-        <v>7.5789</v>
+        <v>9.6092999999999993</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="3"/>
-        <v>19.421099999999999</v>
+        <v>17.390700000000002</v>
       </c>
       <c r="R7" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
@@ -2442,7 +2408,7 @@
       </c>
       <c r="T7" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-76</v>
       </c>
       <c r="U7" s="24">
         <v>0.45069827803129847</v>
@@ -2481,10 +2447,10 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L8" s="18">
-        <v>0.19450000000000001</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>32</v>
@@ -2498,15 +2464,15 @@
       </c>
       <c r="P8" s="21">
         <f t="shared" si="2"/>
-        <v>5.2515000000000001</v>
+        <v>5.3648999999999996</v>
       </c>
       <c r="Q8" s="21">
         <f t="shared" si="3"/>
-        <v>21.7485</v>
+        <v>21.635100000000001</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="5"/>
@@ -2514,7 +2480,7 @@
       </c>
       <c r="T8" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-22</v>
+        <v>-48</v>
       </c>
       <c r="U8" s="24">
         <v>6.4714074693689341</v>
@@ -2553,10 +2519,10 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L9" s="18">
-        <v>0.3306</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>32</v>
@@ -2570,15 +2536,15 @@
       </c>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>82.980599999999995</v>
+        <v>129.6164</v>
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="3"/>
-        <v>168.01940000000002</v>
+        <v>121.3836</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="5"/>
@@ -2586,7 +2552,7 @@
       </c>
       <c r="T9" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-76</v>
       </c>
       <c r="U9" s="24">
         <v>2.1938359438979802</v>
@@ -2625,7 +2591,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L10" s="18">
         <v>0.4572</v>
@@ -2650,7 +2616,7 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="5"/>
@@ -2658,7 +2624,7 @@
       </c>
       <c r="T10" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-183</v>
+        <v>-209</v>
       </c>
       <c r="U10" s="24">
         <v>1.4899400056670535</v>
@@ -2697,10 +2663,10 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L11" s="18">
-        <v>1.21E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>40</v>
@@ -2714,15 +2680,15 @@
       </c>
       <c r="P11" s="21">
         <f t="shared" si="2"/>
-        <v>4.0534999999999997</v>
+        <v>12.73</v>
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="3"/>
-        <v>330.94650000000001</v>
+        <v>322.27</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="5"/>
@@ -2730,7 +2696,7 @@
       </c>
       <c r="T11" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U11" s="24">
         <v>33.058446215526629</v>
@@ -2769,7 +2735,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -2794,7 +2760,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="5"/>
@@ -2802,7 +2768,7 @@
       </c>
       <c r="T12" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U12" s="24">
         <v>1.8989416148357232</v>
@@ -2841,7 +2807,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -2866,7 +2832,7 @@
       </c>
       <c r="R13" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="5"/>
@@ -2874,7 +2840,7 @@
       </c>
       <c r="T13" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-127</v>
+        <v>-153</v>
       </c>
       <c r="U13" s="24">
         <v>0.61599151131979568</v>
@@ -2913,7 +2879,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2938,7 +2904,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="5"/>
@@ -2946,7 +2912,7 @@
       </c>
       <c r="T14" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-97</v>
       </c>
       <c r="U14" s="24">
         <v>0.42275200889415104</v>
@@ -2985,7 +2951,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3010,7 +2976,7 @@
       </c>
       <c r="R15" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="5"/>
@@ -3018,7 +2984,7 @@
       </c>
       <c r="T15" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-90</v>
       </c>
       <c r="U15" s="24">
         <v>5.4312137246679076E-2</v>
@@ -3057,7 +3023,7 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L16" s="18">
         <v>0.4385</v>
@@ -3082,7 +3048,7 @@
       </c>
       <c r="R16" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="5"/>
@@ -3090,7 +3056,7 @@
       </c>
       <c r="T16" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-69</v>
       </c>
       <c r="U16" s="24">
         <v>0.74004960479265314</v>
@@ -3129,7 +3095,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3154,7 +3120,7 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="5"/>
@@ -3162,7 +3128,7 @@
       </c>
       <c r="T17" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-69</v>
       </c>
       <c r="U17" s="24">
         <v>0.17748202368678323</v>
@@ -3201,7 +3167,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L18" s="18">
         <v>0.99970000000000003</v>
@@ -3226,7 +3192,7 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="5"/>
@@ -3234,7 +3200,7 @@
       </c>
       <c r="T18" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-160</v>
       </c>
       <c r="U18" s="24">
         <v>3.9250044561777282E-2</v>
@@ -3273,7 +3239,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
@@ -3298,7 +3264,7 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="5"/>
@@ -3306,7 +3272,7 @@
       </c>
       <c r="T19" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-160</v>
       </c>
       <c r="U19" s="24">
         <v>4.9777015190575383E-2</v>
@@ -3345,10 +3311,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L20" s="18">
-        <v>0.14860000000000001</v>
+        <v>0.1507</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>32</v>
@@ -3362,15 +3328,15 @@
       </c>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>28.977</v>
+        <v>29.386500000000002</v>
       </c>
       <c r="Q20" s="21">
         <f t="shared" si="3"/>
-        <v>166.023</v>
+        <v>165.61349999999999</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="5"/>
@@ -3378,7 +3344,7 @@
       </c>
       <c r="T20" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-76</v>
       </c>
       <c r="U20" s="24">
         <v>1.9866670170786576</v>
@@ -3417,10 +3383,10 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L21" s="18">
-        <v>9.69E-2</v>
+        <v>0.129</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>42</v>
@@ -3434,15 +3400,15 @@
       </c>
       <c r="P21" s="21">
         <f t="shared" si="2"/>
-        <v>17.538900000000002</v>
+        <v>23.349</v>
       </c>
       <c r="Q21" s="21">
         <f t="shared" si="3"/>
-        <v>163.46109999999999</v>
+        <v>157.65100000000001</v>
       </c>
       <c r="R21" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="5"/>
@@ -3450,7 +3416,7 @@
       </c>
       <c r="T21" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="U21" s="24">
         <v>8.0826749208230453</v>
@@ -3489,7 +3455,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3514,7 +3480,7 @@
       </c>
       <c r="R22" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="5"/>
@@ -3522,7 +3488,7 @@
       </c>
       <c r="T22" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="U22" s="24">
         <v>4.8861619889981514E-2</v>
@@ -3561,7 +3527,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L23" s="18">
         <v>0</v>
@@ -3586,7 +3552,7 @@
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="5"/>
@@ -3594,7 +3560,7 @@
       </c>
       <c r="T23" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-90</v>
       </c>
       <c r="U23" s="24">
         <v>0.22890573488117585</v>
@@ -3633,7 +3599,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
@@ -3658,7 +3624,7 @@
       </c>
       <c r="R24" s="22">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="5"/>
@@ -3666,7 +3632,7 @@
       </c>
       <c r="T24" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-71</v>
+        <v>-97</v>
       </c>
       <c r="U24" s="24">
         <v>7.4966605347794035E-2</v>
@@ -3705,7 +3671,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L25" s="18">
         <v>0</v>
@@ -3730,7 +3696,7 @@
       </c>
       <c r="R25" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="5"/>
@@ -3738,7 +3704,7 @@
       </c>
       <c r="T25" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="U25" s="24">
         <v>0.4156489033720388</v>
@@ -3777,7 +3743,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L26" s="18">
         <v>0</v>
@@ -3802,7 +3768,7 @@
       </c>
       <c r="R26" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="5"/>
@@ -3810,7 +3776,7 @@
       </c>
       <c r="T26" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U26" s="24">
         <v>0.34221449233860612</v>
@@ -3849,7 +3815,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L27" s="18">
         <v>0.20930000000000001</v>
@@ -3874,7 +3840,7 @@
       </c>
       <c r="R27" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="5"/>
@@ -3882,7 +3848,7 @@
       </c>
       <c r="T27" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-148</v>
+        <v>-174</v>
       </c>
       <c r="U27" s="24">
         <v>2.0404487343946266E-2</v>
@@ -3921,7 +3887,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L28" s="18">
         <v>0</v>
@@ -3946,7 +3912,7 @@
       </c>
       <c r="R28" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="5"/>
@@ -3954,7 +3920,7 @@
       </c>
       <c r="T28" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U28" s="24">
         <v>2.3371433481226382E-2</v>
@@ -3993,7 +3959,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L29" s="18">
         <v>4.7800000000000002E-2</v>
@@ -4018,7 +3984,7 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="5"/>
@@ -4026,7 +3992,7 @@
       </c>
       <c r="T29" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="U29" s="24">
         <v>2.9187755059895788</v>
@@ -4065,7 +4031,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4090,7 +4056,7 @@
       </c>
       <c r="R30" s="22">
         <f t="shared" si="4"/>
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="5"/>
@@ -4098,7 +4064,7 @@
       </c>
       <c r="T30" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="U30" s="24">
         <v>0.11596582079047627</v>
@@ -4137,7 +4103,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4162,7 +4128,7 @@
       </c>
       <c r="R31" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="5"/>
@@ -4170,7 +4136,7 @@
       </c>
       <c r="T31" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>-83</v>
       </c>
       <c r="U31" s="24">
         <v>8.1747544717989548E-2</v>
@@ -4209,7 +4175,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4234,7 +4200,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="5"/>
@@ -4242,7 +4208,7 @@
       </c>
       <c r="T32" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U32" s="24">
         <v>4.396791761852549E-2</v>
@@ -4281,7 +4247,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4306,7 +4272,7 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="5"/>
@@ -4314,7 +4280,7 @@
       </c>
       <c r="T33" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U33" s="24">
         <v>1.2091683970173784E-2</v>
@@ -4353,7 +4319,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L34" s="18">
         <v>0.1056</v>
@@ -4378,7 +4344,7 @@
       </c>
       <c r="R34" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="5"/>
@@ -4386,7 +4352,7 @@
       </c>
       <c r="T34" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-148</v>
+        <v>-174</v>
       </c>
       <c r="U34" s="24">
         <v>2.2129086244257725</v>
@@ -4425,7 +4391,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L35" s="18">
         <v>0.21909999999999999</v>
@@ -4450,7 +4416,7 @@
       </c>
       <c r="R35" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="5"/>
@@ -4458,7 +4424,7 @@
       </c>
       <c r="T35" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-43</v>
+        <v>-69</v>
       </c>
       <c r="U35" s="24">
         <v>0.7163956909384217</v>
@@ -4497,7 +4463,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4522,7 +4488,7 @@
       </c>
       <c r="R36" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-28</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="5"/>
@@ -4530,7 +4496,7 @@
       </c>
       <c r="T36" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="U36" s="24">
         <v>2.788276283922893</v>
@@ -4569,7 +4535,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L37" s="18">
         <v>0.84599999999999997</v>
@@ -4594,7 +4560,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-28</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="5"/>
@@ -4602,7 +4568,7 @@
       </c>
       <c r="T37" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="U37" s="24">
         <v>0.24445340046690409</v>
@@ -4641,10 +4607,10 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L38" s="18">
-        <v>0.2898</v>
+        <v>0.33679999999999999</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>42</v>
@@ -4658,15 +4624,15 @@
       </c>
       <c r="P38" s="21">
         <f t="shared" si="2"/>
-        <v>7.8246000000000002</v>
+        <v>9.0936000000000003</v>
       </c>
       <c r="Q38" s="21">
         <f t="shared" si="3"/>
-        <v>19.1754</v>
+        <v>17.906399999999998</v>
       </c>
       <c r="R38" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="5"/>
@@ -4674,7 +4640,7 @@
       </c>
       <c r="T38" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-50</v>
+        <v>-76</v>
       </c>
       <c r="U38" s="24">
         <v>1.3834064445609398</v>
@@ -4713,7 +4679,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
@@ -4738,7 +4704,7 @@
       </c>
       <c r="R39" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="5"/>
@@ -4746,7 +4712,7 @@
       </c>
       <c r="T39" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-64</v>
+        <v>-90</v>
       </c>
       <c r="U39" s="24">
         <v>0.39134230671971154</v>
@@ -4785,7 +4751,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L40" s="18">
         <v>4.4999999999999997E-3</v>
@@ -4810,7 +4776,7 @@
       </c>
       <c r="R40" s="22">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="5"/>
@@ -4818,7 +4784,7 @@
       </c>
       <c r="T40" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>1</v>
+        <v>-26</v>
       </c>
       <c r="U40" s="24">
         <v>0.10777677087659648</v>
@@ -4857,7 +4823,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L41" s="18">
         <v>8.1500000000000003E-2</v>
@@ -4882,7 +4848,7 @@
       </c>
       <c r="R41" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="5"/>
@@ -4890,7 +4856,7 @@
       </c>
       <c r="T41" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U41" s="24">
         <v>8.2318386059768451E-3</v>
@@ -4929,7 +4895,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L42" s="18">
         <v>0.20580000000000001</v>
@@ -4954,7 +4920,7 @@
       </c>
       <c r="R42" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="5"/>
@@ -4962,7 +4928,7 @@
       </c>
       <c r="T42" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>-83</v>
       </c>
       <c r="U42" s="24">
         <v>6.3041469860199054E-2</v>
@@ -5001,7 +4967,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L43" s="18">
         <v>0.2019</v>
@@ -5026,7 +4992,7 @@
       </c>
       <c r="R43" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="5"/>
@@ -5034,7 +5000,7 @@
       </c>
       <c r="T43" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U43" s="24">
         <v>3.5386814494663736E-2</v>
@@ -5073,10 +5039,10 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L44" s="18">
-        <v>0.16600000000000001</v>
+        <v>0.2301</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>42</v>
@@ -5090,15 +5056,15 @@
       </c>
       <c r="P44" s="21">
         <f t="shared" si="2"/>
-        <v>31.208000000000002</v>
+        <v>43.258800000000001</v>
       </c>
       <c r="Q44" s="21">
         <f t="shared" si="3"/>
-        <v>156.792</v>
+        <v>144.74119999999999</v>
       </c>
       <c r="R44" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="5"/>
@@ -5106,7 +5072,7 @@
       </c>
       <c r="T44" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U44" s="24">
         <v>0.58542108403682003</v>
@@ -5145,10 +5111,10 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L45" s="18">
-        <v>0.28089999999999998</v>
+        <v>0.3216</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>42</v>
@@ -5162,15 +5128,15 @@
       </c>
       <c r="P45" s="21">
         <f t="shared" si="2"/>
-        <v>94.101499999999987</v>
+        <v>107.736</v>
       </c>
       <c r="Q45" s="21">
         <f t="shared" si="3"/>
-        <v>240.89850000000001</v>
+        <v>227.26400000000001</v>
       </c>
       <c r="R45" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="5"/>
@@ -5178,7 +5144,7 @@
       </c>
       <c r="T45" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-41</v>
       </c>
       <c r="U45" s="24">
         <v>18.96429322855024</v>
@@ -5217,7 +5183,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L46" s="18">
         <v>7.6799999999999993E-2</v>
@@ -5242,7 +5208,7 @@
       </c>
       <c r="R46" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="5"/>
@@ -5250,7 +5216,7 @@
       </c>
       <c r="T46" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U46" s="24">
         <v>2.1882553326908354E-2</v>
@@ -5289,10 +5255,10 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L47" s="18">
-        <v>0.25319999999999998</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>42</v>
@@ -5306,15 +5272,15 @@
       </c>
       <c r="P47" s="21">
         <f t="shared" si="2"/>
-        <v>6.8363999999999994</v>
+        <v>12.050099999999999</v>
       </c>
       <c r="Q47" s="21">
         <f t="shared" si="3"/>
-        <v>20.163600000000002</v>
+        <v>14.949900000000001</v>
       </c>
       <c r="R47" s="22">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="5"/>
@@ -5322,7 +5288,7 @@
       </c>
       <c r="T47" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-134</v>
+        <v>-160</v>
       </c>
       <c r="U47" s="24">
         <v>0.10433791562790558</v>
@@ -5361,7 +5327,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
@@ -5386,7 +5352,7 @@
       </c>
       <c r="R48" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="5"/>
@@ -5394,7 +5360,7 @@
       </c>
       <c r="T48" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>-83</v>
       </c>
       <c r="U48" s="24">
         <v>1.6500421520262731</v>
@@ -5433,7 +5399,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L49" s="18">
         <v>0</v>
@@ -5458,7 +5424,7 @@
       </c>
       <c r="R49" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="5"/>
@@ -5466,7 +5432,7 @@
       </c>
       <c r="T49" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="U49" s="24">
         <v>1.4876499045579906E-2</v>
@@ -5505,10 +5471,10 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L50" s="18">
-        <v>0</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>42</v>
@@ -5522,15 +5488,15 @@
       </c>
       <c r="P50" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9984999999999999</v>
       </c>
       <c r="Q50" s="21">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>51.0015</v>
       </c>
       <c r="R50" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="5"/>
@@ -5538,7 +5504,7 @@
       </c>
       <c r="T50" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="U50" s="24">
         <v>6.7954571404563111E-2</v>
@@ -5577,7 +5543,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L51" s="18">
         <v>9.7999999999999997E-3</v>
@@ -5602,7 +5568,7 @@
       </c>
       <c r="R51" s="22">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="5"/>
@@ -5610,7 +5576,7 @@
       </c>
       <c r="T51" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-106</v>
+        <v>-132</v>
       </c>
       <c r="U51" s="24">
         <v>0.24341470950651456</v>
@@ -5649,10 +5615,10 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L52" s="18">
-        <v>0.48488199999999998</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>26</v>
@@ -5666,15 +5632,15 @@
       </c>
       <c r="P52" s="21">
         <f t="shared" si="2"/>
-        <v>206.559732</v>
+        <v>234.21479999999997</v>
       </c>
       <c r="Q52" s="21">
         <f t="shared" si="3"/>
-        <v>219.440268</v>
+        <v>191.78520000000003</v>
       </c>
       <c r="R52" s="22">
         <f t="shared" si="4"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="5"/>
@@ -5682,7 +5648,7 @@
       </c>
       <c r="T52" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U52" s="24">
         <v>0</v>
@@ -5721,7 +5687,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L53" s="18">
         <v>1</v>
@@ -5746,7 +5712,7 @@
       </c>
       <c r="R53" s="22">
         <f t="shared" si="4"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="5"/>
@@ -5754,7 +5720,7 @@
       </c>
       <c r="T53" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U53" s="24">
         <v>0</v>
@@ -5793,7 +5759,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
@@ -5818,7 +5784,7 @@
       </c>
       <c r="R54" s="22">
         <f t="shared" si="4"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="5"/>
@@ -5826,7 +5792,7 @@
       </c>
       <c r="T54" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U54" s="24">
         <v>0</v>
@@ -5865,10 +5831,10 @@
         <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L55" s="18">
-        <v>0.89024099999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>26</v>
@@ -5882,15 +5848,15 @@
       </c>
       <c r="P55" s="21">
         <f t="shared" si="2"/>
-        <v>48.073014000000001</v>
+        <v>52.595999999999997</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="3"/>
-        <v>5.9269859999999994</v>
+        <v>1.4040000000000035</v>
       </c>
       <c r="R55" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="5"/>
@@ -5898,7 +5864,7 @@
       </c>
       <c r="T55" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-41</v>
       </c>
       <c r="U55" s="24">
         <v>7.3157389496987042</v>
@@ -5928,7 +5894,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURLABORATORIUM</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I56" s="27">
         <v>45762</v>
@@ -5937,10 +5903,10 @@
         <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L56" s="18">
-        <v>0.47015099999999999</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>26</v>
@@ -5954,15 +5920,15 @@
       </c>
       <c r="P56" s="21">
         <f t="shared" si="2"/>
-        <v>48.425553000000001</v>
+        <v>65.837599999999995</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" si="3"/>
-        <v>54.574446999999999</v>
+        <v>37.162400000000005</v>
       </c>
       <c r="R56" s="22">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="5"/>
@@ -5970,7 +5936,7 @@
       </c>
       <c r="T56" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U56" s="24">
         <v>1.2678290518311721</v>
@@ -6009,7 +5975,7 @@
         <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L57" s="18">
         <v>1</v>
@@ -6034,7 +6000,7 @@
       </c>
       <c r="R57" s="22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="5"/>
@@ -6042,7 +6008,7 @@
       </c>
       <c r="T57" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-55</v>
       </c>
       <c r="U57" s="24">
         <v>0.90362130154493769</v>
@@ -6081,7 +6047,7 @@
         <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L58" s="18">
         <v>1</v>
@@ -6106,7 +6072,7 @@
       </c>
       <c r="R58" s="22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="5"/>
@@ -6114,7 +6080,7 @@
       </c>
       <c r="T58" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-29</v>
+        <v>-55</v>
       </c>
       <c r="U58" s="24">
         <v>0.90362130154493769</v>
@@ -6153,10 +6119,10 @@
         <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L59" s="18">
-        <v>0.28550700000000001</v>
+        <v>0.29820000000000002</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>26</v>
@@ -6170,15 +6136,15 @@
       </c>
       <c r="P59" s="21">
         <f t="shared" si="2"/>
-        <v>15.702885</v>
+        <v>16.401</v>
       </c>
       <c r="Q59" s="21">
         <f t="shared" si="3"/>
-        <v>39.297114999999998</v>
+        <v>38.599000000000004</v>
       </c>
       <c r="R59" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="5"/>
@@ -6186,7 +6152,7 @@
       </c>
       <c r="T59" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="U59" s="24">
         <v>0.90362130154493769</v>
@@ -6225,10 +6191,10 @@
         <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L60" s="18">
-        <v>0.96841699999999997</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>26</v>
@@ -6242,15 +6208,15 @@
       </c>
       <c r="P60" s="21">
         <f t="shared" si="2"/>
-        <v>87.157529999999994</v>
+        <v>88.866</v>
       </c>
       <c r="Q60" s="21">
         <f t="shared" si="3"/>
-        <v>2.8424700000000058</v>
+        <v>1.1340000000000003</v>
       </c>
       <c r="R60" s="22">
         <f t="shared" si="4"/>
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="5"/>
@@ -6258,7 +6224,7 @@
       </c>
       <c r="T60" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U60" s="24">
         <v>1.5818776119585585</v>
@@ -6288,7 +6254,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURFAMILY STAFF HOUSE</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" s="27">
         <v>45768</v>
@@ -6297,10 +6263,10 @@
         <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L61" s="18">
-        <v>7.1874999999999994E-2</v>
+        <v>0.25729999999999997</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>26</v>
@@ -6314,15 +6280,15 @@
       </c>
       <c r="P61" s="21">
         <f t="shared" si="2"/>
-        <v>8.984375</v>
+        <v>32.162499999999994</v>
       </c>
       <c r="Q61" s="21">
         <f t="shared" si="3"/>
-        <v>116.015625</v>
+        <v>92.837500000000006</v>
       </c>
       <c r="R61" s="22">
         <f t="shared" si="4"/>
-        <v>-70</v>
+        <v>-42</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="5"/>
@@ -6330,7 +6296,7 @@
       </c>
       <c r="T61" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="U61" s="24">
         <v>1.2842274814527748</v>
@@ -6369,10 +6335,10 @@
         <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L62" s="18">
-        <v>0.97038800000000003</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>26</v>
@@ -6386,15 +6352,15 @@
       </c>
       <c r="P62" s="21">
         <f t="shared" si="2"/>
-        <v>87.334919999999997</v>
+        <v>87.75</v>
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="3"/>
-        <v>2.6650800000000032</v>
+        <v>2.25</v>
       </c>
       <c r="R62" s="22">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="5"/>
@@ -6402,7 +6368,7 @@
       </c>
       <c r="T62" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U62" s="24">
         <v>6.1841913050091657</v>
@@ -6441,7 +6407,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L63" s="18">
         <v>0</v>
@@ -6466,7 +6432,7 @@
       </c>
       <c r="R63" s="22">
         <f t="shared" si="4"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="5"/>
@@ -6474,7 +6440,7 @@
       </c>
       <c r="T63" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U63" s="24">
         <v>0</v>
@@ -6513,10 +6479,10 @@
         <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L64" s="18">
-        <v>0.64439999999999997</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>26</v>
@@ -6530,15 +6496,15 @@
       </c>
       <c r="P64" s="21">
         <f t="shared" si="2"/>
-        <v>44.4636</v>
+        <v>59.222699999999996</v>
       </c>
       <c r="Q64" s="21">
         <f t="shared" si="3"/>
-        <v>24.5364</v>
+        <v>9.7773000000000039</v>
       </c>
       <c r="R64" s="22">
         <f t="shared" si="4"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="5"/>
@@ -6546,7 +6512,7 @@
       </c>
       <c r="T64" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="U64" s="24">
         <v>0.94074024135300072</v>
@@ -6585,10 +6551,10 @@
         <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L65" s="18">
-        <v>0.62580199999999997</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>26</v>
@@ -6602,15 +6568,15 @@
       </c>
       <c r="P65" s="21">
         <f t="shared" si="2"/>
-        <v>69.464022</v>
+        <v>108.10290000000001</v>
       </c>
       <c r="Q65" s="21">
         <f t="shared" si="3"/>
-        <v>41.535978</v>
+        <v>2.8970999999999947</v>
       </c>
       <c r="R65" s="22">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-35</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="5"/>
@@ -6618,7 +6584,7 @@
       </c>
       <c r="T65" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="U65" s="24">
         <v>1.2317038245452467</v>
@@ -6657,10 +6623,10 @@
         <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L66" s="18">
-        <v>0.15859999999999999</v>
+        <v>0.1716</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>26</v>
@@ -6674,15 +6640,15 @@
       </c>
       <c r="P66" s="21">
         <f t="shared" si="2"/>
-        <v>45.3596</v>
+        <v>49.077600000000004</v>
       </c>
       <c r="Q66" s="21">
         <f t="shared" si="3"/>
-        <v>240.6404</v>
+        <v>236.92239999999998</v>
       </c>
       <c r="R66" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-28</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="5"/>
@@ -6690,7 +6656,7 @@
       </c>
       <c r="T66" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="U66" s="24">
         <v>4.341217820948339</v>
@@ -6729,10 +6695,10 @@
         <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L67" s="18">
-        <v>0.87442399999999998</v>
+        <v>1</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>40</v>
@@ -6746,15 +6712,15 @@
       </c>
       <c r="P67" s="21">
         <f t="shared" ref="P67:P127" si="8">$L67*$S67</f>
-        <v>17.488479999999999</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="21">
         <f t="shared" ref="Q67:Q127" si="9">S67-P67</f>
-        <v>2.5115200000000009</v>
+        <v>0</v>
       </c>
       <c r="R67" s="22">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="S67" s="21">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6762,7 +6728,7 @@
       </c>
       <c r="T67" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="U67" s="24">
         <v>1.2874256064363331E-2</v>
@@ -6801,7 +6767,7 @@
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L68" s="18">
         <v>0.1241</v>
@@ -6826,7 +6792,7 @@
       </c>
       <c r="R68" s="22">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="11"/>
@@ -6834,7 +6800,7 @@
       </c>
       <c r="T68" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-37</v>
+        <v>-63</v>
       </c>
       <c r="U68" s="24">
         <v>0.87755848995820385</v>
@@ -6864,7 +6830,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURWEIGHT HOUSE</v>
       </c>
       <c r="H69" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I69" s="27">
         <v>45782</v>
@@ -6873,10 +6839,10 @@
         <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L69" s="18">
-        <v>0.54240900000000003</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>26</v>
@@ -6890,15 +6856,15 @@
       </c>
       <c r="P69" s="21">
         <f t="shared" si="8"/>
-        <v>37.426221000000005</v>
+        <v>60.0852</v>
       </c>
       <c r="Q69" s="21">
         <f t="shared" si="9"/>
-        <v>31.573778999999995</v>
+        <v>8.9147999999999996</v>
       </c>
       <c r="R69" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="11"/>
@@ -6906,7 +6872,7 @@
       </c>
       <c r="T69" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="U69" s="24">
         <v>5.6463899562994637</v>
@@ -6945,10 +6911,10 @@
         <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L70" s="18">
-        <v>0.88594799999999996</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>26</v>
@@ -6962,15 +6928,15 @@
       </c>
       <c r="P70" s="21">
         <f t="shared" si="8"/>
-        <v>85.051007999999996</v>
+        <v>95.894400000000005</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="9"/>
-        <v>10.948992000000004</v>
+        <v>0.10559999999999548</v>
       </c>
       <c r="R70" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="11"/>
@@ -6978,7 +6944,7 @@
       </c>
       <c r="T70" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U70" s="24">
         <v>3.3921463524873796</v>
@@ -7008,7 +6974,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURTPS</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I71" s="27">
         <v>45782</v>
@@ -7017,10 +6983,10 @@
         <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L71" s="18">
-        <v>0.237344</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>26</v>
@@ -7034,15 +7000,15 @@
       </c>
       <c r="P71" s="21">
         <f t="shared" si="8"/>
-        <v>23.022368</v>
+        <v>42.8643</v>
       </c>
       <c r="Q71" s="21">
         <f t="shared" si="9"/>
-        <v>73.977632</v>
+        <v>54.1357</v>
       </c>
       <c r="R71" s="22">
         <f t="shared" si="10"/>
-        <v>-56</v>
+        <v>-28</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="11"/>
@@ -7050,7 +7016,7 @@
       </c>
       <c r="T71" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="U71" s="24">
         <v>1.1565364385446064</v>
@@ -7089,10 +7055,10 @@
         <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L72" s="18">
-        <v>0</v>
+        <v>3.225E-3</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>26</v>
@@ -7106,15 +7072,15 @@
       </c>
       <c r="P72" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="Q72" s="21">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>115.6259</v>
       </c>
       <c r="R72" s="22">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>-40</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="11"/>
@@ -7122,7 +7088,7 @@
       </c>
       <c r="T72" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="U72" s="24">
         <v>0.35948495436649136</v>
@@ -7161,7 +7127,7 @@
         <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L73" s="18">
         <v>0</v>
@@ -7186,7 +7152,7 @@
       </c>
       <c r="R73" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="11"/>
@@ -7194,7 +7160,7 @@
       </c>
       <c r="T73" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="U73" s="24">
         <v>0</v>
@@ -7233,7 +7199,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L74" s="18">
         <v>0</v>
@@ -7258,7 +7224,7 @@
       </c>
       <c r="R74" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="11"/>
@@ -7266,7 +7232,7 @@
       </c>
       <c r="T74" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U74" s="24">
         <v>0</v>
@@ -7305,10 +7271,10 @@
         <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L75" s="18">
-        <v>0.115026</v>
+        <v>0.126</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>40</v>
@@ -7322,15 +7288,15 @@
       </c>
       <c r="P75" s="21">
         <f t="shared" si="8"/>
-        <v>15.873588</v>
+        <v>17.388000000000002</v>
       </c>
       <c r="Q75" s="21">
         <f t="shared" si="9"/>
-        <v>122.126412</v>
+        <v>120.61199999999999</v>
       </c>
       <c r="R75" s="22">
         <f t="shared" si="10"/>
-        <v>-77</v>
+        <v>-49</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="11"/>
@@ -7338,7 +7304,7 @@
       </c>
       <c r="T75" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="U75" s="24">
         <v>7.3681118933140155</v>
@@ -7368,7 +7334,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURLABORATORIUM</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I76" s="27">
         <v>45859</v>
@@ -7377,10 +7343,10 @@
         <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L76" s="18">
-        <v>8.1706000000000001E-2</v>
+        <v>0.5071</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>42</v>
@@ -7394,15 +7360,15 @@
       </c>
       <c r="P76" s="21">
         <f t="shared" si="8"/>
-        <v>2.7780040000000001</v>
+        <v>17.241399999999999</v>
       </c>
       <c r="Q76" s="21">
         <f t="shared" si="9"/>
-        <v>31.221996000000001</v>
+        <v>16.758600000000001</v>
       </c>
       <c r="R76" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-42</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="11"/>
@@ -7410,7 +7376,7 @@
       </c>
       <c r="T76" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="U76" s="24">
         <v>1.9262225609604624</v>
@@ -7449,7 +7415,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L77" s="18">
         <v>0</v>
@@ -7474,7 +7440,7 @@
       </c>
       <c r="R77" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="11"/>
@@ -7482,7 +7448,7 @@
       </c>
       <c r="T77" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U77" s="24">
         <v>0</v>
@@ -7512,7 +7478,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURFEED WAREHOUSE</v>
       </c>
       <c r="H78" s="48" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I78" s="27">
         <v>45796</v>
@@ -7521,10 +7487,10 @@
         <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L78" s="18">
-        <v>0.14410000000000001</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>40</v>
@@ -7538,15 +7504,15 @@
       </c>
       <c r="P78" s="21">
         <f t="shared" si="8"/>
-        <v>2.5937999999999999</v>
+        <v>12.819600000000001</v>
       </c>
       <c r="Q78" s="21">
         <f t="shared" si="9"/>
-        <v>15.4062</v>
+        <v>5.1803999999999988</v>
       </c>
       <c r="R78" s="22">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="11"/>
@@ -7554,7 +7520,7 @@
       </c>
       <c r="T78" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-43</v>
       </c>
       <c r="U78" s="24">
         <v>2.6947696149272917</v>
@@ -7593,10 +7559,10 @@
         <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L79" s="18">
-        <v>8.2214999999999996E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>40</v>
@@ -7610,15 +7576,15 @@
       </c>
       <c r="P79" s="21">
         <f t="shared" si="8"/>
-        <v>5.6728350000000001</v>
+        <v>7.8728999999999996</v>
       </c>
       <c r="Q79" s="21">
         <f t="shared" si="9"/>
-        <v>63.327165000000001</v>
+        <v>61.127099999999999</v>
       </c>
       <c r="R79" s="22">
         <f t="shared" si="10"/>
-        <v>-84</v>
+        <v>-56</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="11"/>
@@ -7626,7 +7592,7 @@
       </c>
       <c r="T79" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="U79" s="24">
         <v>7.1455552805644906</v>
@@ -7656,7 +7622,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURKANTIN</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I80" s="27">
         <v>45824</v>
@@ -7665,10 +7631,10 @@
         <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L80" s="18">
-        <v>0.39402100000000001</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>26</v>
@@ -7682,15 +7648,15 @@
       </c>
       <c r="P80" s="21">
         <f t="shared" si="8"/>
-        <v>24.429302</v>
+        <v>40.275199999999998</v>
       </c>
       <c r="Q80" s="21">
         <f t="shared" si="9"/>
-        <v>37.570698</v>
+        <v>21.724800000000002</v>
       </c>
       <c r="R80" s="22">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-35</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="11"/>
@@ -7698,7 +7664,7 @@
       </c>
       <c r="T80" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="U80" s="24">
         <v>2.1250737260073151</v>
@@ -7737,10 +7703,10 @@
         <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L81" s="18">
-        <v>0.636575</v>
+        <v>0.872</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>40</v>
@@ -7754,15 +7720,15 @@
       </c>
       <c r="P81" s="21">
         <f t="shared" si="8"/>
-        <v>-201.794275</v>
+        <v>-276.42399999999998</v>
       </c>
       <c r="Q81" s="21">
         <f t="shared" si="9"/>
-        <v>-115.205725</v>
+        <v>-40.576000000000022</v>
       </c>
       <c r="R81" s="22">
         <f t="shared" si="10"/>
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="11"/>
@@ -7770,7 +7736,7 @@
       </c>
       <c r="T81" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-317</v>
+        <v>-343</v>
       </c>
       <c r="U81" s="24">
         <v>2.2141421850391501</v>
@@ -7809,10 +7775,10 @@
         <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L82" s="18">
-        <v>4.0500000000000001E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>40</v>
@@ -7826,15 +7792,15 @@
       </c>
       <c r="P82" s="21">
         <f t="shared" si="8"/>
-        <v>3.4424999999999999</v>
+        <v>6.4430000000000005</v>
       </c>
       <c r="Q82" s="21">
         <f t="shared" si="9"/>
-        <v>81.557500000000005</v>
+        <v>78.557000000000002</v>
       </c>
       <c r="R82" s="22">
         <f t="shared" si="10"/>
-        <v>-107</v>
+        <v>-79</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="11"/>
@@ -7842,7 +7808,7 @@
       </c>
       <c r="T82" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U82" s="24">
         <v>2.1434231234710972</v>
@@ -7881,7 +7847,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L83" s="18">
         <v>0</v>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="R83" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="11"/>
@@ -7914,7 +7880,7 @@
       </c>
       <c r="T83" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U83" s="24">
         <v>0</v>
@@ -7944,7 +7910,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTUROFFICE</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I84" s="27">
         <v>45824</v>
@@ -7953,10 +7919,10 @@
         <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L84" s="18">
-        <v>0.43537500000000001</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>26</v>
@@ -7970,15 +7936,15 @@
       </c>
       <c r="P84" s="21">
         <f t="shared" si="8"/>
-        <v>20.898</v>
+        <v>33.576000000000001</v>
       </c>
       <c r="Q84" s="21">
         <f t="shared" si="9"/>
-        <v>27.102</v>
+        <v>14.423999999999999</v>
       </c>
       <c r="R84" s="22">
         <f t="shared" si="10"/>
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="11"/>
@@ -7986,7 +7952,7 @@
       </c>
       <c r="T84" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="U84" s="24">
         <v>4.2091892986185098</v>
@@ -8016,7 +7982,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURWEIGHT HOUSE</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I85" s="27">
         <v>45817</v>
@@ -8025,10 +7991,10 @@
         <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L85" s="18">
-        <v>0.21690000000000001</v>
+        <v>0.26379999999999998</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>42</v>
@@ -8042,15 +8008,15 @@
       </c>
       <c r="P85" s="21">
         <f t="shared" si="8"/>
-        <v>10.411200000000001</v>
+        <v>12.662399999999998</v>
       </c>
       <c r="Q85" s="21">
         <f t="shared" si="9"/>
-        <v>37.588799999999999</v>
+        <v>35.337600000000002</v>
       </c>
       <c r="R85" s="22">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="11"/>
@@ -8058,7 +8024,7 @@
       </c>
       <c r="T85" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U85" s="24">
         <v>0.67906690555318538</v>
@@ -8097,7 +8063,7 @@
         <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L86" s="18">
         <v>0</v>
@@ -8122,7 +8088,7 @@
       </c>
       <c r="R86" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="11"/>
@@ -8130,7 +8096,7 @@
       </c>
       <c r="T86" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="U86" s="24">
         <v>0.3705846265159719</v>
@@ -8160,7 +8126,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURPUMP HOUSE</v>
       </c>
       <c r="H87" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I87" s="27">
         <v>45796</v>
@@ -8169,10 +8135,10 @@
         <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L87" s="18">
-        <v>0.58789999999999998</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="M87" s="19" t="s">
         <v>40</v>
@@ -8186,15 +8152,15 @@
       </c>
       <c r="P87" s="21">
         <f t="shared" si="8"/>
-        <v>40.565100000000001</v>
+        <v>57.235500000000002</v>
       </c>
       <c r="Q87" s="21">
         <f t="shared" si="9"/>
-        <v>28.434899999999999</v>
+        <v>11.764499999999998</v>
       </c>
       <c r="R87" s="22">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="11"/>
@@ -8202,7 +8168,7 @@
       </c>
       <c r="T87" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U87" s="24">
         <v>0.46782862216660642</v>
@@ -8241,10 +8207,10 @@
         <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L88" s="18">
-        <v>0.46493800000000002</v>
+        <v>0.59109999999999996</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>26</v>
@@ -8258,15 +8224,15 @@
       </c>
       <c r="P88" s="21">
         <f t="shared" si="8"/>
-        <v>-17.202705999999999</v>
+        <v>-21.870699999999999</v>
       </c>
       <c r="Q88" s="21">
         <f t="shared" si="9"/>
-        <v>-19.797294000000001</v>
+        <v>-15.129300000000001</v>
       </c>
       <c r="R88" s="22">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="11"/>
@@ -8274,7 +8240,7 @@
       </c>
       <c r="T88" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-23</v>
+        <v>-49</v>
       </c>
       <c r="U88" s="24">
         <v>2.1434231234710972</v>
@@ -8313,7 +8279,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L89" s="18">
         <v>1</v>
@@ -8338,7 +8304,7 @@
       </c>
       <c r="R89" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="11"/>
@@ -8346,7 +8312,7 @@
       </c>
       <c r="T89" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U89" s="24">
         <v>0</v>
@@ -8385,10 +8351,10 @@
         <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L90" s="18">
-        <v>0.16259999999999999</v>
+        <v>0.2069</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>40</v>
@@ -8402,15 +8368,15 @@
       </c>
       <c r="P90" s="21">
         <f t="shared" si="8"/>
-        <v>10.081199999999999</v>
+        <v>12.8278</v>
       </c>
       <c r="Q90" s="21">
         <f t="shared" si="9"/>
-        <v>51.918800000000005</v>
+        <v>49.172200000000004</v>
       </c>
       <c r="R90" s="22">
         <f t="shared" si="10"/>
-        <v>-77</v>
+        <v>-49</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="11"/>
@@ -8418,7 +8384,7 @@
       </c>
       <c r="T90" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="U90" s="24">
         <v>0.66829826225735345</v>
@@ -8457,10 +8423,10 @@
         <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L91" s="18">
-        <v>0</v>
+        <v>2.934E-3</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>26</v>
@@ -8474,15 +8440,15 @@
       </c>
       <c r="P91" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.9755999999999997E-2</v>
       </c>
       <c r="Q91" s="21">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>33.900244000000001</v>
       </c>
       <c r="R91" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="11"/>
@@ -8490,7 +8456,7 @@
       </c>
       <c r="T91" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U91" s="24">
         <v>0.45089754003550009</v>
@@ -8529,7 +8495,7 @@
         <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L92" s="18">
         <v>8.1199999999999994E-2</v>
@@ -8554,7 +8520,7 @@
       </c>
       <c r="R92" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="11"/>
@@ -8562,7 +8528,7 @@
       </c>
       <c r="T92" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="U92" s="24">
         <v>0.47544300629915759</v>
@@ -8601,7 +8567,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L93" s="18">
         <v>0</v>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="R93" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="11"/>
@@ -8634,7 +8600,7 @@
       </c>
       <c r="T93" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U93" s="24">
         <v>0</v>
@@ -8673,10 +8639,10 @@
         <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L94" s="18">
-        <v>9.1399999999999995E-2</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="M94" s="19" t="s">
         <v>40</v>
@@ -8690,15 +8656,15 @@
       </c>
       <c r="P94" s="21">
         <f t="shared" si="8"/>
-        <v>5.8495999999999997</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="Q94" s="21">
         <f t="shared" si="9"/>
-        <v>58.150399999999998</v>
+        <v>57.695999999999998</v>
       </c>
       <c r="R94" s="22">
         <f t="shared" si="10"/>
-        <v>-107</v>
+        <v>-79</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="11"/>
@@ -8706,7 +8672,7 @@
       </c>
       <c r="T94" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U94" s="24">
         <v>7.4012273158472057</v>
@@ -8745,7 +8711,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L95" s="18">
         <v>0</v>
@@ -8770,7 +8736,7 @@
       </c>
       <c r="R95" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="11"/>
@@ -8778,7 +8744,7 @@
       </c>
       <c r="T95" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U95" s="24">
         <v>0</v>
@@ -8817,10 +8783,10 @@
         <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L96" s="18">
-        <v>0</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>42</v>
@@ -8834,15 +8800,15 @@
       </c>
       <c r="P96" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.9684000000000004</v>
       </c>
       <c r="Q96" s="21">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>38.031599999999997</v>
       </c>
       <c r="R96" s="22">
         <f t="shared" si="10"/>
-        <v>-84</v>
+        <v>-56</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="11"/>
@@ -8850,7 +8816,7 @@
       </c>
       <c r="T96" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="U96" s="24">
         <v>0.12529658962134113</v>
@@ -8889,7 +8855,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L97" s="18">
         <v>0</v>
@@ -8914,7 +8880,7 @@
       </c>
       <c r="R97" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="11"/>
@@ -8922,7 +8888,7 @@
       </c>
       <c r="T97" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U97" s="24">
         <v>0</v>
@@ -8961,10 +8927,10 @@
         <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L98" s="18">
-        <v>0</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="M98" s="19" t="s">
         <v>40</v>
@@ -8978,15 +8944,15 @@
       </c>
       <c r="P98" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.3980000000000001</v>
       </c>
       <c r="Q98" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>18.602</v>
       </c>
       <c r="R98" s="22">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="11"/>
@@ -8994,7 +8960,7 @@
       </c>
       <c r="T98" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U98" s="24">
         <v>0.53563667137898285</v>
@@ -9033,10 +8999,10 @@
         <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L99" s="18">
-        <v>0</v>
+        <v>0.12470000000000001</v>
       </c>
       <c r="M99" s="19" t="s">
         <v>40</v>
@@ -9050,15 +9016,15 @@
       </c>
       <c r="P99" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.4940000000000002</v>
       </c>
       <c r="Q99" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>17.506</v>
       </c>
       <c r="R99" s="22">
         <f t="shared" si="10"/>
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="11"/>
@@ -9066,7 +9032,7 @@
       </c>
       <c r="T99" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="U99" s="24">
         <v>0.31365570942757215</v>
@@ -9105,10 +9071,10 @@
         <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L100" s="18">
-        <v>0</v>
+        <v>0.18659999999999999</v>
       </c>
       <c r="M100" s="19" t="s">
         <v>40</v>
@@ -9122,15 +9088,15 @@
       </c>
       <c r="P100" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.7319999999999998</v>
       </c>
       <c r="Q100" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>16.268000000000001</v>
       </c>
       <c r="R100" s="22">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-35</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="11"/>
@@ -9138,7 +9104,7 @@
       </c>
       <c r="T100" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="U100" s="24">
         <v>0.1502798023901277</v>
@@ -9177,7 +9143,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L101" s="18">
         <v>0</v>
@@ -9202,7 +9168,7 @@
       </c>
       <c r="R101" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="11"/>
@@ -9210,7 +9176,7 @@
       </c>
       <c r="T101" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U101" s="24">
         <v>0</v>
@@ -9249,10 +9215,10 @@
         <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L102" s="18">
-        <v>0</v>
+        <v>0.1449</v>
       </c>
       <c r="M102" s="19" t="s">
         <v>40</v>
@@ -9266,15 +9232,15 @@
       </c>
       <c r="P102" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8836999999999999</v>
       </c>
       <c r="Q102" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.116300000000001</v>
       </c>
       <c r="R102" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="11"/>
@@ -9282,7 +9248,7 @@
       </c>
       <c r="T102" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="U102" s="24">
         <v>0.1640586615913901</v>
@@ -9321,10 +9287,10 @@
         <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L103" s="18">
-        <v>0</v>
+        <v>0.18640000000000001</v>
       </c>
       <c r="M103" s="19" t="s">
         <v>40</v>
@@ -9338,15 +9304,15 @@
       </c>
       <c r="P103" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1184000000000001</v>
       </c>
       <c r="Q103" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>4.8815999999999997</v>
       </c>
       <c r="R103" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="11"/>
@@ -9354,7 +9320,7 @@
       </c>
       <c r="T103" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U103" s="24">
         <v>0.1502798023901277</v>
@@ -9393,7 +9359,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L104" s="18">
         <v>0</v>
@@ -9418,7 +9384,7 @@
       </c>
       <c r="R104" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="11"/>
@@ -9426,7 +9392,7 @@
       </c>
       <c r="T104" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U104" s="24">
         <v>0</v>
@@ -9465,10 +9431,10 @@
         <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L105" s="18">
-        <v>0</v>
+        <v>8.48E-2</v>
       </c>
       <c r="M105" s="19" t="s">
         <v>40</v>
@@ -9482,15 +9448,15 @@
       </c>
       <c r="P105" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1024</v>
       </c>
       <c r="Q105" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.897600000000001</v>
       </c>
       <c r="R105" s="22">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="11"/>
@@ -9498,7 +9464,7 @@
       </c>
       <c r="T105" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-41</v>
       </c>
       <c r="U105" s="24">
         <v>0.41311075421685678</v>
@@ -9537,10 +9503,10 @@
         <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L106" s="18">
-        <v>0</v>
+        <v>8.48E-2</v>
       </c>
       <c r="M106" s="19" t="s">
         <v>40</v>
@@ -9554,15 +9520,15 @@
       </c>
       <c r="P106" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1024</v>
       </c>
       <c r="Q106" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.897600000000001</v>
       </c>
       <c r="R106" s="22">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="11"/>
@@ -9570,7 +9536,7 @@
       </c>
       <c r="T106" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>-41</v>
       </c>
       <c r="U106" s="24">
         <v>0.41311075421685678</v>
@@ -9609,7 +9575,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L107" s="18">
         <v>0</v>
@@ -9634,7 +9600,7 @@
       </c>
       <c r="R107" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="11"/>
@@ -9642,7 +9608,7 @@
       </c>
       <c r="T107" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U107" s="24">
         <v>0</v>
@@ -9681,10 +9647,10 @@
         <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L108" s="18">
-        <v>0</v>
+        <v>0.23980000000000001</v>
       </c>
       <c r="M108" s="19" t="s">
         <v>42</v>
@@ -9698,15 +9664,15 @@
       </c>
       <c r="P108" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.7960000000000003</v>
       </c>
       <c r="Q108" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>15.204000000000001</v>
       </c>
       <c r="R108" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-42</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="11"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="T108" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="U108" s="24">
         <v>0.71590581972999912</v>
@@ -9753,7 +9719,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L109" s="18">
         <v>0</v>
@@ -9778,7 +9744,7 @@
       </c>
       <c r="R109" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="11"/>
@@ -9786,7 +9752,7 @@
       </c>
       <c r="T109" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -9825,7 +9791,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L110" s="18">
         <v>0</v>
@@ -9850,7 +9816,7 @@
       </c>
       <c r="R110" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="11"/>
@@ -9858,7 +9824,7 @@
       </c>
       <c r="T110" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -9888,7 +9854,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALVVIP HOUSE</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I111" s="27">
         <v>45901</v>
@@ -9897,10 +9863,10 @@
         <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L111" s="18">
-        <v>0.24279999999999999</v>
+        <v>0.4491</v>
       </c>
       <c r="M111" s="19" t="s">
         <v>42</v>
@@ -9914,15 +9880,15 @@
       </c>
       <c r="P111" s="21">
         <f t="shared" si="8"/>
-        <v>4.8559999999999999</v>
+        <v>8.9819999999999993</v>
       </c>
       <c r="Q111" s="21">
         <f t="shared" si="9"/>
-        <v>15.144</v>
+        <v>11.018000000000001</v>
       </c>
       <c r="R111" s="22">
         <f t="shared" si="10"/>
-        <v>-98</v>
+        <v>-70</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="11"/>
@@ -9930,7 +9896,7 @@
       </c>
       <c r="T111" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="U111" s="24">
         <v>1.1364470150796924</v>
@@ -9969,7 +9935,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L112" s="18">
         <v>0</v>
@@ -9994,7 +9960,7 @@
       </c>
       <c r="R112" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="11"/>
@@ -10002,7 +9968,7 @@
       </c>
       <c r="T112" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U112" s="24">
         <v>0</v>
@@ -10032,7 +9998,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALKANTIN</v>
       </c>
       <c r="H113" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I113" s="27">
         <v>45894</v>
@@ -10041,10 +10007,10 @@
         <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L113" s="18">
-        <v>0.2228</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="M113" s="19" t="s">
         <v>40</v>
@@ -10058,15 +10024,15 @@
       </c>
       <c r="P113" s="21">
         <f t="shared" si="8"/>
-        <v>4.4559999999999995</v>
+        <v>7.734</v>
       </c>
       <c r="Q113" s="21">
         <f t="shared" si="9"/>
-        <v>15.544</v>
+        <v>12.266</v>
       </c>
       <c r="R113" s="22">
         <f t="shared" si="10"/>
-        <v>-91</v>
+        <v>-63</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="11"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="T113" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="U113" s="24">
         <v>0.86888955106354271</v>
@@ -10113,10 +10079,10 @@
         <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L114" s="18">
-        <v>0.2702</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="M114" s="19" t="s">
         <v>40</v>
@@ -10130,15 +10096,15 @@
       </c>
       <c r="P114" s="21">
         <f t="shared" si="8"/>
-        <v>7.8357999999999999</v>
+        <v>17.214400000000001</v>
       </c>
       <c r="Q114" s="21">
         <f t="shared" si="9"/>
-        <v>21.164200000000001</v>
+        <v>11.785599999999999</v>
       </c>
       <c r="R114" s="22">
         <f t="shared" si="10"/>
-        <v>-107</v>
+        <v>-79</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="11"/>
@@ -10146,7 +10112,7 @@
       </c>
       <c r="T114" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U114" s="24">
         <v>1.9101722387327178</v>
@@ -10176,7 +10142,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALOFFICE</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I115" s="27">
         <v>45845</v>
@@ -10185,10 +10151,10 @@
         <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L115" s="18">
-        <v>0.20080000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="M115" s="19" t="s">
         <v>42</v>
@@ -10202,15 +10168,15 @@
       </c>
       <c r="P115" s="21">
         <f t="shared" si="8"/>
-        <v>2.6104000000000003</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="Q115" s="21">
         <f t="shared" si="9"/>
-        <v>10.3896</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="R115" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="11"/>
@@ -10218,7 +10184,7 @@
       </c>
       <c r="T115" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U115" s="24">
         <v>2.3615133681493417</v>
@@ -10257,7 +10223,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L116" s="18">
         <v>0</v>
@@ -10282,7 +10248,7 @@
       </c>
       <c r="R116" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="11"/>
@@ -10290,7 +10256,7 @@
       </c>
       <c r="T116" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U116" s="24">
         <v>0</v>
@@ -10329,7 +10295,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L117" s="18">
         <v>1</v>
@@ -10354,7 +10320,7 @@
       </c>
       <c r="R117" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="11"/>
@@ -10362,7 +10328,7 @@
       </c>
       <c r="T117" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U117" s="24">
         <v>0</v>
@@ -10401,7 +10367,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L118" s="18">
         <v>0</v>
@@ -10426,7 +10392,7 @@
       </c>
       <c r="R118" s="22">
         <f t="shared" si="10"/>
-        <v>-119</v>
+        <v>-91</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="11"/>
@@ -10434,7 +10400,7 @@
       </c>
       <c r="T118" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="U118" s="24">
         <v>0</v>
@@ -10473,10 +10439,10 @@
         <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L119" s="18">
-        <v>0.25430000000000003</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>40</v>
@@ -10490,15 +10456,15 @@
       </c>
       <c r="P119" s="21">
         <f t="shared" si="8"/>
-        <v>5.0860000000000003</v>
+        <v>10.364000000000001</v>
       </c>
       <c r="Q119" s="21">
         <f t="shared" si="9"/>
-        <v>14.914</v>
+        <v>9.6359999999999992</v>
       </c>
       <c r="R119" s="22">
         <f t="shared" si="10"/>
-        <v>-77</v>
+        <v>-49</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="11"/>
@@ -10506,7 +10472,7 @@
       </c>
       <c r="T119" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="U119" s="24">
         <v>1.2772542166873568</v>
@@ -10545,10 +10511,10 @@
         <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L120" s="18">
-        <v>0.26069999999999999</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="M120" s="19" t="s">
         <v>40</v>
@@ -10562,15 +10528,15 @@
       </c>
       <c r="P120" s="21">
         <f t="shared" si="8"/>
-        <v>5.2139999999999995</v>
+        <v>10.722000000000001</v>
       </c>
       <c r="Q120" s="21">
         <f t="shared" si="9"/>
-        <v>14.786000000000001</v>
+        <v>9.2779999999999987</v>
       </c>
       <c r="R120" s="22">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="11"/>
@@ -10578,7 +10544,7 @@
       </c>
       <c r="T120" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="U120" s="24">
         <v>1.3021928291029847</v>
@@ -10617,7 +10583,7 @@
         <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L121" s="18">
         <v>0</v>
@@ -10642,7 +10608,7 @@
       </c>
       <c r="R121" s="22">
         <f t="shared" si="10"/>
-        <v>-107</v>
+        <v>-79</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="11"/>
@@ -10650,7 +10616,7 @@
       </c>
       <c r="T121" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U121" s="24">
         <v>2.2106399922458855</v>
@@ -10689,10 +10655,10 @@
         <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L122" s="18">
-        <v>0.25929999999999997</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="M122" s="19" t="s">
         <v>40</v>
@@ -10706,15 +10672,15 @@
       </c>
       <c r="P122" s="21">
         <f t="shared" si="8"/>
-        <v>3.3708999999999998</v>
+        <v>6.8003</v>
       </c>
       <c r="Q122" s="21">
         <f t="shared" si="9"/>
-        <v>9.6291000000000011</v>
+        <v>6.1997</v>
       </c>
       <c r="R122" s="22">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="11"/>
@@ -10722,7 +10688,7 @@
       </c>
       <c r="T122" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="U122" s="24">
         <v>0.94089880391742786</v>
@@ -10761,7 +10727,7 @@
         <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L123" s="18">
         <v>0.3</v>
@@ -10786,7 +10752,7 @@
       </c>
       <c r="R123" s="22">
         <f t="shared" si="10"/>
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="11"/>
@@ -10794,7 +10760,7 @@
       </c>
       <c r="T123" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="U123" s="24">
         <v>0.83220228058553414</v>
@@ -10833,7 +10799,7 @@
         <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L124" s="18">
         <v>0</v>
@@ -10858,7 +10824,7 @@
       </c>
       <c r="R124" s="22">
         <f t="shared" si="10"/>
-        <v>-107</v>
+        <v>-79</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="11"/>
@@ -10866,7 +10832,7 @@
       </c>
       <c r="T124" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U124" s="24">
         <v>1.1429745636452144</v>
@@ -10896,7 +10862,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALDORMITORY FEMALE</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I125" s="27">
         <v>45901</v>
@@ -10905,10 +10871,10 @@
         <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L125" s="18">
-        <v>0.24249999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="M125" s="19" t="s">
         <v>40</v>
@@ -10922,15 +10888,15 @@
       </c>
       <c r="P125" s="21">
         <f t="shared" si="8"/>
-        <v>-1.94</v>
+        <v>-3.7368000000000001</v>
       </c>
       <c r="Q125" s="21">
         <f t="shared" si="9"/>
-        <v>-6.0600000000000005</v>
+        <v>-4.2631999999999994</v>
       </c>
       <c r="R125" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-42</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="11"/>
@@ -10938,7 +10904,7 @@
       </c>
       <c r="T125" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="U125" s="24">
         <v>0.65729302337862683</v>
@@ -10968,7 +10934,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALPUMP HOUSE</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I126" s="27">
         <v>45866</v>
@@ -10977,10 +10943,10 @@
         <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L126" s="18">
-        <v>0.24970000000000001</v>
+        <v>0.5161</v>
       </c>
       <c r="M126" s="19" t="s">
         <v>40</v>
@@ -10994,15 +10960,15 @@
       </c>
       <c r="P126" s="21">
         <f t="shared" si="8"/>
-        <v>6.7419000000000002</v>
+        <v>13.934699999999999</v>
       </c>
       <c r="Q126" s="21">
         <f t="shared" si="9"/>
-        <v>20.258099999999999</v>
+        <v>13.065300000000001</v>
       </c>
       <c r="R126" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-42</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="11"/>
@@ -11010,7 +10976,7 @@
       </c>
       <c r="T126" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="U126" s="24">
         <v>1.1353862689916343</v>
@@ -11049,7 +11015,7 @@
         <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45823</v>
+        <v>45851</v>
       </c>
       <c r="L127" s="38">
         <v>0.3</v>
@@ -11074,7 +11040,7 @@
       </c>
       <c r="R127" s="42">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="11"/>
@@ -11082,15 +11048,26 @@
       </c>
       <c r="T127" s="43">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="U127" s="43">
         <v>0.45616355925610708</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H127">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L2:L51">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11098,13 +11075,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{577D4703-565B-400D-9752-F6DFE351BFEE}</x14:id>
+          <x14:id>{B13953C5-2322-4FDD-8DAA-BBEE6B45E58D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L127">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11112,13 +11089,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B9EDB2B0-E3BF-4D58-83B8-2DAF23D8BDA9}</x14:id>
+          <x14:id>{98D7C4DA-FCC7-4326-8AA2-CFAFF61A3229}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M127">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11126,20 +11103,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBD89812-5976-4842-BC6A-A908C57A37FE}</x14:id>
+          <x14:id>{9075A0EC-3137-4FEE-AD86-1BE5C149F7E6}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="LOW">
-      <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="MEDIUM">
-      <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="HIGH">
-      <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11156,7 +11122,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{577D4703-565B-400D-9752-F6DFE351BFEE}">
+          <x14:cfRule type="dataBar" id="{B13953C5-2322-4FDD-8DAA-BBEE6B45E58D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11172,7 +11138,7 @@
           <xm:sqref>L2:L51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B9EDB2B0-E3BF-4D58-83B8-2DAF23D8BDA9}">
+          <x14:cfRule type="dataBar" id="{98D7C4DA-FCC7-4326-8AA2-CFAFF61A3229}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11188,7 +11154,7 @@
           <xm:sqref>L52:L127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{D1C7181D-35A2-41AC-8C28-460B4BF95A6E}">
+          <x14:cfRule type="iconSet" priority="1" id="{58F65729-369F-46F7-8E5B-D24E452C5360}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11201,7 +11167,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{EBD89812-5976-4842-BC6A-A908C57A37FE}">
+          <x14:cfRule type="dataBar" id="{9075A0EC-3137-4FEE-AD86-1BE5C149F7E6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/00. REPORT/MASTER DASHBOARD/OKTOBER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AD3AD8C-2844-43EA-92D6-AA61D177E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E26B4-9234-0D4D-BF80-F4B538B7C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
+    <workbookView xWindow="12620" yWindow="9240" windowWidth="27660" windowHeight="22440" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DATA (wajib update)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="171">
   <si>
     <t>NO</t>
   </si>
@@ -554,12 +554,6 @@
   </si>
   <si>
     <t>09/22/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      -  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        -  </t>
   </si>
 </sst>
 </file>
@@ -571,7 +565,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -796,7 +790,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -941,125 +935,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1805,22 +1680,141 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleDark1 2" pivot="0" table="0" count="2" xr9:uid="{18EA131E-A64C-43DD-8A1E-D90CB41DB2B6}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{12F2D83B-935F-4258-B668-B83CED7B92A5}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1835,32 +1829,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:U127" xr:uid="{EA8E0BFA-7E16-439B-A6A0-85575A1D2FBB}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="17">
       <calculatedColumnFormula>B2&amp;D2&amp;F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2188,37 +2182,37 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="96" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="43" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2349,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2394,8 +2388,8 @@
       <c r="O3" s="19">
         <v>0</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>171</v>
+      <c r="P3" s="19">
+        <v>0</v>
       </c>
       <c r="Q3" s="19">
         <v>51</v>
@@ -2413,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2479,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2526,8 +2520,8 @@
       <c r="O5" s="19">
         <v>87</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>171</v>
+      <c r="P5" s="19">
+        <v>0</v>
       </c>
       <c r="Q5" s="19">
         <v>132</v>
@@ -2545,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -2611,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -2677,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -2809,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2875,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2988,8 +2982,8 @@
       <c r="O12" s="19">
         <v>164</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>171</v>
+      <c r="P12" s="19">
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
         <v>188</v>
@@ -3007,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -3054,8 +3048,8 @@
       <c r="O13" s="19">
         <v>108</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>171</v>
+      <c r="P13" s="19">
+        <v>0</v>
       </c>
       <c r="Q13" s="19">
         <v>118</v>
@@ -3073,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -3120,8 +3114,8 @@
       <c r="O14" s="19">
         <v>220</v>
       </c>
-      <c r="P14" s="19" t="s">
-        <v>171</v>
+      <c r="P14" s="19">
+        <v>0</v>
       </c>
       <c r="Q14" s="19">
         <v>62</v>
@@ -3139,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -3186,8 +3180,8 @@
       <c r="O15" s="19">
         <v>220</v>
       </c>
-      <c r="P15" s="19" t="s">
-        <v>171</v>
+      <c r="P15" s="19">
+        <v>0</v>
       </c>
       <c r="Q15" s="19">
         <v>69</v>
@@ -3205,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -3271,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -3318,8 +3312,8 @@
       <c r="O17" s="19">
         <v>297</v>
       </c>
-      <c r="P17" s="19" t="s">
-        <v>171</v>
+      <c r="P17" s="19">
+        <v>0</v>
       </c>
       <c r="Q17" s="19">
         <v>13</v>
@@ -3337,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -3535,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -3601,7 +3595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -3648,8 +3642,8 @@
       <c r="O22" s="19">
         <v>325</v>
       </c>
-      <c r="P22" s="19" t="s">
-        <v>171</v>
+      <c r="P22" s="19">
+        <v>0</v>
       </c>
       <c r="Q22" s="19">
         <v>20</v>
@@ -3667,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -3714,8 +3708,8 @@
       <c r="O23" s="19">
         <v>234</v>
       </c>
-      <c r="P23" s="19" t="s">
-        <v>171</v>
+      <c r="P23" s="19">
+        <v>0</v>
       </c>
       <c r="Q23" s="19">
         <v>55</v>
@@ -3733,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -3780,8 +3774,8 @@
       <c r="O24" s="19">
         <v>171</v>
       </c>
-      <c r="P24" s="19" t="s">
-        <v>171</v>
+      <c r="P24" s="19">
+        <v>0</v>
       </c>
       <c r="Q24" s="19">
         <v>111</v>
@@ -3799,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -3846,8 +3840,8 @@
       <c r="O25" s="19">
         <v>199</v>
       </c>
-      <c r="P25" s="19" t="s">
-        <v>171</v>
+      <c r="P25" s="19">
+        <v>0</v>
       </c>
       <c r="Q25" s="19">
         <v>146</v>
@@ -3865,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -3912,8 +3906,8 @@
       <c r="O26" s="19">
         <v>311</v>
       </c>
-      <c r="P26" s="19" t="s">
-        <v>171</v>
+      <c r="P26" s="19">
+        <v>0</v>
       </c>
       <c r="Q26" s="19">
         <v>41</v>
@@ -3931,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>2</v>
       </c>
@@ -3997,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>2</v>
       </c>
@@ -4063,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>3</v>
       </c>
@@ -4129,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>3</v>
       </c>
@@ -4176,8 +4170,8 @@
       <c r="O30" s="19">
         <v>255</v>
       </c>
-      <c r="P30" s="19" t="s">
-        <v>171</v>
+      <c r="P30" s="19">
+        <v>0</v>
       </c>
       <c r="Q30" s="19">
         <v>139</v>
@@ -4195,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>3</v>
       </c>
@@ -4242,8 +4236,8 @@
       <c r="O31" s="19">
         <v>234</v>
       </c>
-      <c r="P31" s="19" t="s">
-        <v>171</v>
+      <c r="P31" s="19">
+        <v>0</v>
       </c>
       <c r="Q31" s="19">
         <v>62</v>
@@ -4261,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>3</v>
       </c>
@@ -4308,8 +4302,8 @@
       <c r="O32" s="19">
         <v>227</v>
       </c>
-      <c r="P32" s="19" t="s">
-        <v>171</v>
+      <c r="P32" s="19">
+        <v>0</v>
       </c>
       <c r="Q32" s="19">
         <v>20</v>
@@ -4327,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>3</v>
       </c>
@@ -4393,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>3</v>
       </c>
@@ -4459,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>3</v>
       </c>
@@ -4525,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>3</v>
       </c>
@@ -4572,8 +4566,8 @@
       <c r="O36" s="19">
         <v>164</v>
       </c>
-      <c r="P36" s="19" t="s">
-        <v>171</v>
+      <c r="P36" s="19">
+        <v>0</v>
       </c>
       <c r="Q36" s="19">
         <v>237</v>
@@ -4591,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>4</v>
       </c>
@@ -4657,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>4</v>
       </c>
@@ -4723,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>4</v>
       </c>
@@ -4770,8 +4764,8 @@
       <c r="O39" s="19">
         <v>276</v>
       </c>
-      <c r="P39" s="19" t="s">
-        <v>171</v>
+      <c r="P39" s="19">
+        <v>0</v>
       </c>
       <c r="Q39" s="19">
         <v>13</v>
@@ -4789,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>4</v>
       </c>
@@ -4855,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>4</v>
       </c>
@@ -4921,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -4987,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>4</v>
       </c>
@@ -5053,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>4</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>4</v>
       </c>
@@ -5185,7 +5179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>4</v>
       </c>
@@ -5251,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>4</v>
       </c>
@@ -5317,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>4</v>
       </c>
@@ -5364,8 +5358,8 @@
       <c r="O48" s="19">
         <v>220</v>
       </c>
-      <c r="P48" s="19" t="s">
-        <v>171</v>
+      <c r="P48" s="19">
+        <v>0</v>
       </c>
       <c r="Q48" s="19">
         <v>76</v>
@@ -5383,7 +5377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -5430,8 +5424,8 @@
       <c r="O49" s="19">
         <v>276</v>
       </c>
-      <c r="P49" s="19" t="s">
-        <v>171</v>
+      <c r="P49" s="19">
+        <v>0</v>
       </c>
       <c r="Q49" s="19">
         <v>69</v>
@@ -5449,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>4</v>
       </c>
@@ -5515,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>1</v>
       </c>
@@ -5647,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -5697,8 +5691,8 @@
       <c r="P53" s="19">
         <v>426</v>
       </c>
-      <c r="Q53" s="19" t="s">
-        <v>172</v>
+      <c r="Q53" s="19">
+        <v>0</v>
       </c>
       <c r="R53" s="20">
         <v>-21</v>
@@ -5713,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>1</v>
       </c>
@@ -5760,8 +5754,8 @@
       <c r="O54" s="19">
         <v>11</v>
       </c>
-      <c r="P54" s="19" t="s">
-        <v>171</v>
+      <c r="P54" s="19">
+        <v>0</v>
       </c>
       <c r="Q54" s="19">
         <v>426</v>
@@ -5779,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>1</v>
       </c>
@@ -5829,8 +5823,8 @@
       <c r="P55" s="19">
         <v>54</v>
       </c>
-      <c r="Q55" s="19" t="s">
-        <v>172</v>
+      <c r="Q55" s="19">
+        <v>0</v>
       </c>
       <c r="R55" s="20">
         <v>105</v>
@@ -5845,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -5961,8 +5955,8 @@
       <c r="P57" s="19">
         <v>20</v>
       </c>
-      <c r="Q57" s="19" t="s">
-        <v>172</v>
+      <c r="Q57" s="19">
+        <v>0</v>
       </c>
       <c r="R57" s="20">
         <v>119</v>
@@ -5977,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>1</v>
       </c>
@@ -6027,8 +6021,8 @@
       <c r="P58" s="19">
         <v>20</v>
       </c>
-      <c r="Q58" s="19" t="s">
-        <v>172</v>
+      <c r="Q58" s="19">
+        <v>0</v>
       </c>
       <c r="R58" s="20">
         <v>119</v>
@@ -6043,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>1</v>
       </c>
@@ -6109,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -6175,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>1</v>
       </c>
@@ -6241,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -6291,8 +6285,8 @@
       <c r="P62" s="19">
         <v>90</v>
       </c>
-      <c r="Q62" s="19" t="s">
-        <v>172</v>
+      <c r="Q62" s="19">
+        <v>0</v>
       </c>
       <c r="R62" s="20">
         <v>56</v>
@@ -6307,7 +6301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>1</v>
       </c>
@@ -6354,8 +6348,8 @@
       <c r="O63" s="19">
         <v>11</v>
       </c>
-      <c r="P63" s="19" t="s">
-        <v>171</v>
+      <c r="P63" s="19">
+        <v>0</v>
       </c>
       <c r="Q63" s="19">
         <v>426</v>
@@ -6373,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -6439,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>1</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>1</v>
       </c>
@@ -6571,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>1</v>
       </c>
@@ -6621,8 +6615,8 @@
       <c r="P67" s="19">
         <v>20</v>
       </c>
-      <c r="Q67" s="19" t="s">
-        <v>172</v>
+      <c r="Q67" s="19">
+        <v>0</v>
       </c>
       <c r="R67" s="20">
         <v>91</v>
@@ -6637,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>1</v>
       </c>
@@ -6703,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>1</v>
       </c>
@@ -6769,7 +6763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>1</v>
       </c>
@@ -6819,8 +6813,8 @@
       <c r="P70" s="19">
         <v>96</v>
       </c>
-      <c r="Q70" s="19" t="s">
-        <v>172</v>
+      <c r="Q70" s="19">
+        <v>0</v>
       </c>
       <c r="R70" s="20">
         <v>63</v>
@@ -6835,7 +6829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>1</v>
       </c>
@@ -6901,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>1</v>
       </c>
@@ -6967,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>1</v>
       </c>
@@ -7014,8 +7008,8 @@
       <c r="O73" s="19">
         <v>11</v>
       </c>
-      <c r="P73" s="19" t="s">
-        <v>171</v>
+      <c r="P73" s="19">
+        <v>0</v>
       </c>
       <c r="Q73" s="19">
         <v>335</v>
@@ -7033,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>1</v>
       </c>
@@ -7080,8 +7074,8 @@
       <c r="O74" s="19">
         <v>11</v>
       </c>
-      <c r="P74" s="19" t="s">
-        <v>171</v>
+      <c r="P74" s="19">
+        <v>0</v>
       </c>
       <c r="Q74" s="19">
         <v>426</v>
@@ -7099,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>1</v>
       </c>
@@ -7165,7 +7159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>2</v>
       </c>
@@ -7231,7 +7225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>2</v>
       </c>
@@ -7278,8 +7272,8 @@
       <c r="O77" s="19">
         <v>11</v>
       </c>
-      <c r="P77" s="19" t="s">
-        <v>171</v>
+      <c r="P77" s="19">
+        <v>0</v>
       </c>
       <c r="Q77" s="19">
         <v>426</v>
@@ -7297,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>2</v>
       </c>
@@ -7363,7 +7357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>2</v>
       </c>
@@ -7429,7 +7423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>2</v>
       </c>
@@ -7495,7 +7489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>2</v>
       </c>
@@ -7561,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>2</v>
       </c>
@@ -7627,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>2</v>
       </c>
@@ -7674,8 +7668,8 @@
       <c r="O83" s="19">
         <v>11</v>
       </c>
-      <c r="P83" s="19" t="s">
-        <v>171</v>
+      <c r="P83" s="19">
+        <v>0</v>
       </c>
       <c r="Q83" s="19">
         <v>426</v>
@@ -7693,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>2</v>
       </c>
@@ -7759,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>2</v>
       </c>
@@ -7825,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>2</v>
       </c>
@@ -7872,8 +7866,8 @@
       <c r="O86" s="19">
         <v>326</v>
       </c>
-      <c r="P86" s="19" t="s">
-        <v>171</v>
+      <c r="P86" s="19">
+        <v>0</v>
       </c>
       <c r="Q86" s="19">
         <v>13</v>
@@ -7891,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>2</v>
       </c>
@@ -7957,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>2</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>2</v>
       </c>
@@ -8073,8 +8067,8 @@
       <c r="P89" s="19">
         <v>426</v>
       </c>
-      <c r="Q89" s="19" t="s">
-        <v>172</v>
+      <c r="Q89" s="19">
+        <v>0</v>
       </c>
       <c r="R89" s="20">
         <v>-21</v>
@@ -8089,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>2</v>
       </c>
@@ -8155,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>2</v>
       </c>
@@ -8221,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>2</v>
       </c>
@@ -8287,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>2</v>
       </c>
@@ -8334,8 +8328,8 @@
       <c r="O93" s="19">
         <v>11</v>
       </c>
-      <c r="P93" s="19" t="s">
-        <v>171</v>
+      <c r="P93" s="19">
+        <v>0</v>
       </c>
       <c r="Q93" s="19">
         <v>426</v>
@@ -8353,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>2</v>
       </c>
@@ -8419,7 +8413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>2</v>
       </c>
@@ -8466,8 +8460,8 @@
       <c r="O95" s="19">
         <v>11</v>
       </c>
-      <c r="P95" s="19" t="s">
-        <v>171</v>
+      <c r="P95" s="19">
+        <v>0</v>
       </c>
       <c r="Q95" s="19">
         <v>426</v>
@@ -8485,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>3</v>
       </c>
@@ -8551,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>3</v>
       </c>
@@ -8598,8 +8592,8 @@
       <c r="O97" s="19">
         <v>11</v>
       </c>
-      <c r="P97" s="19" t="s">
-        <v>171</v>
+      <c r="P97" s="19">
+        <v>0</v>
       </c>
       <c r="Q97" s="19">
         <v>426</v>
@@ -8617,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>3</v>
       </c>
@@ -8683,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>3</v>
       </c>
@@ -8749,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>3</v>
       </c>
@@ -8815,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>3</v>
       </c>
@@ -8862,8 +8856,8 @@
       <c r="O101" s="19">
         <v>11</v>
       </c>
-      <c r="P101" s="19" t="s">
-        <v>171</v>
+      <c r="P101" s="19">
+        <v>0</v>
       </c>
       <c r="Q101" s="19">
         <v>426</v>
@@ -8881,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>3</v>
       </c>
@@ -8947,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>3</v>
       </c>
@@ -9013,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>3</v>
       </c>
@@ -9060,8 +9054,8 @@
       <c r="O104" s="19">
         <v>11</v>
       </c>
-      <c r="P104" s="19" t="s">
-        <v>171</v>
+      <c r="P104" s="19">
+        <v>0</v>
       </c>
       <c r="Q104" s="19">
         <v>426</v>
@@ -9079,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>3</v>
       </c>
@@ -9145,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>3</v>
       </c>
@@ -9211,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>3</v>
       </c>
@@ -9258,8 +9252,8 @@
       <c r="O107" s="19">
         <v>11</v>
       </c>
-      <c r="P107" s="19" t="s">
-        <v>171</v>
+      <c r="P107" s="19">
+        <v>0</v>
       </c>
       <c r="Q107" s="19">
         <v>426</v>
@@ -9277,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>3</v>
       </c>
@@ -9343,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>3</v>
       </c>
@@ -9390,8 +9384,8 @@
       <c r="O109" s="19">
         <v>11</v>
       </c>
-      <c r="P109" s="19" t="s">
-        <v>171</v>
+      <c r="P109" s="19">
+        <v>0</v>
       </c>
       <c r="Q109" s="19">
         <v>426</v>
@@ -9409,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>4</v>
       </c>
@@ -9456,8 +9450,8 @@
       <c r="O110" s="19">
         <v>11</v>
       </c>
-      <c r="P110" s="19" t="s">
-        <v>171</v>
+      <c r="P110" s="19">
+        <v>0</v>
       </c>
       <c r="Q110" s="19">
         <v>426</v>
@@ -9475,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>4</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>4</v>
       </c>
@@ -9588,8 +9582,8 @@
       <c r="O112" s="19">
         <v>11</v>
       </c>
-      <c r="P112" s="19" t="s">
-        <v>171</v>
+      <c r="P112" s="19">
+        <v>0</v>
       </c>
       <c r="Q112" s="19">
         <v>426</v>
@@ -9607,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>4</v>
       </c>
@@ -9673,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>4</v>
       </c>
@@ -9739,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>4</v>
       </c>
@@ -9805,7 +9799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>4</v>
       </c>
@@ -9852,8 +9846,8 @@
       <c r="O116" s="19">
         <v>11</v>
       </c>
-      <c r="P116" s="19" t="s">
-        <v>171</v>
+      <c r="P116" s="19">
+        <v>0</v>
       </c>
       <c r="Q116" s="19">
         <v>426</v>
@@ -9871,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>4</v>
       </c>
@@ -9921,8 +9915,8 @@
       <c r="P117" s="19">
         <v>426</v>
       </c>
-      <c r="Q117" s="19" t="s">
-        <v>172</v>
+      <c r="Q117" s="19">
+        <v>0</v>
       </c>
       <c r="R117" s="20">
         <v>-21</v>
@@ -9937,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>4</v>
       </c>
@@ -9984,8 +9978,8 @@
       <c r="O118" s="19">
         <v>11</v>
       </c>
-      <c r="P118" s="19" t="s">
-        <v>171</v>
+      <c r="P118" s="19">
+        <v>0</v>
       </c>
       <c r="Q118" s="19">
         <v>426</v>
@@ -10003,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>4</v>
       </c>
@@ -10069,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>4</v>
       </c>
@@ -10135,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>4</v>
       </c>
@@ -10182,8 +10176,8 @@
       <c r="O121" s="19">
         <v>396</v>
       </c>
-      <c r="P121" s="19" t="s">
-        <v>171</v>
+      <c r="P121" s="19">
+        <v>0</v>
       </c>
       <c r="Q121" s="19">
         <v>29</v>
@@ -10201,7 +10195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>4</v>
       </c>
@@ -10267,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>4</v>
       </c>
@@ -10333,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>4</v>
       </c>
@@ -10380,8 +10374,8 @@
       <c r="O124" s="19">
         <v>417</v>
       </c>
-      <c r="P124" s="19" t="s">
-        <v>171</v>
+      <c r="P124" s="19">
+        <v>0</v>
       </c>
       <c r="Q124" s="19">
         <v>8</v>
@@ -10399,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>4</v>
       </c>
@@ -10465,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>4</v>
       </c>
@@ -10531,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="28">
         <v>4</v>
       </c>
@@ -10599,13 +10593,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldyn\OneDrive\Documents\INCA NUSA AQUA\MASTER DASHBOARD\AGUSTUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/AGUSTUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1959CD-EC2D-44BF-A672-BA966A9D31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B07605-6FED-4A79-A5CD-7F0D00340FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DATA (wajib update)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="118">
   <si>
     <t>NO</t>
   </si>
@@ -763,6 +763,108 @@
   <dxfs count="27">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF332D2D"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1078,108 +1180,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF332D2D"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1535,29 +1535,29 @@
     <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="11">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="10">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="7">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1885,9 +1885,9 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:M127"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,10 +2013,10 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L2" s="48">
-        <v>0.75339999999999996</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>26</v>
@@ -2030,15 +2030,15 @@
       </c>
       <c r="P2" s="20">
         <f>$L2*$S2</f>
-        <v>320.19499999999999</v>
+        <v>313.39500000000004</v>
       </c>
       <c r="Q2" s="20">
         <f>S2-P2</f>
-        <v>104.80500000000001</v>
+        <v>111.60499999999996</v>
       </c>
       <c r="R2" s="21">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="S2" s="20">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="T2" s="22">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="U2" s="22">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="18" t="s">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="R3" s="21">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="T3" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-377</v>
+        <v>-357</v>
       </c>
       <c r="U3" s="23">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L4" s="48">
         <v>0.78779999999999994</v>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="R4" s="21">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="5"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="T4" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-237</v>
+        <v>-217</v>
       </c>
       <c r="U4" s="23">
         <v>1.8586563945729366</v>
@@ -2227,7 +2227,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L5" s="48">
         <v>0</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="R5" s="21">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="5"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="T5" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-189</v>
       </c>
       <c r="U5" s="23">
         <v>0.79194964416177871</v>
@@ -2299,7 +2299,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L6" s="48">
         <v>0.1246</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="R6" s="21">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="5"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="T6" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-151</v>
+        <v>-131</v>
       </c>
       <c r="U6" s="23">
         <v>1.8581913281290774</v>
@@ -2371,7 +2371,7 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L7" s="48">
         <v>0.35589999999999999</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="R7" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="5"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="T7" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-105</v>
       </c>
       <c r="U7" s="23">
         <v>0.45069827803129847</v>
@@ -2443,7 +2443,7 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L8" s="48">
         <v>0.19869999999999999</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="R8" s="21">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="5"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="T8" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-77</v>
       </c>
       <c r="U8" s="23">
         <v>6.4714074693689341</v>
@@ -2515,7 +2515,7 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L9" s="48">
         <v>0.51639999999999997</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="R9" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="5"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="T9" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-105</v>
       </c>
       <c r="U9" s="23">
         <v>2.1938359438979802</v>
@@ -2587,7 +2587,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L10" s="48">
         <v>0.4572</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="5"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="T10" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-258</v>
+        <v>-238</v>
       </c>
       <c r="U10" s="23">
         <v>1.4899400056670535</v>
@@ -2659,10 +2659,10 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L11" s="48">
-        <v>9.4600000000000004E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>40</v>
@@ -2676,15 +2676,15 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" si="2"/>
-        <v>31.691000000000003</v>
+        <v>16.013000000000002</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="3"/>
-        <v>303.30899999999997</v>
+        <v>318.98700000000002</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="5"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="T11" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U11" s="23">
         <v>33.058446215526629</v>
@@ -2731,7 +2731,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L12" s="48">
         <v>0</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="5"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="T12" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U12" s="23">
         <v>1.8989416148357232</v>
@@ -2803,7 +2803,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L13" s="48">
         <v>0</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="5"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="T13" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>-182</v>
       </c>
       <c r="U13" s="23">
         <v>0.61599151131979568</v>
@@ -2875,7 +2875,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L14" s="48">
         <v>0</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="5"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="T14" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-146</v>
+        <v>-126</v>
       </c>
       <c r="U14" s="23">
         <v>0.42275200889415104</v>
@@ -2947,7 +2947,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L15" s="48">
         <v>0</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="5"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="T15" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-119</v>
       </c>
       <c r="U15" s="23">
         <v>5.4312137246679076E-2</v>
@@ -3019,7 +3019,7 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L16" s="48">
         <v>0.4385</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="R16" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="5"/>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="T16" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-98</v>
       </c>
       <c r="U16" s="23">
         <v>0.74004960479265314</v>
@@ -3091,7 +3091,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L17" s="48">
         <v>0</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="R17" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="5"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="T17" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-98</v>
       </c>
       <c r="U17" s="23">
         <v>0.17748202368678323</v>
@@ -3163,7 +3163,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L18" s="48">
         <v>0.99970000000000003</v>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="5"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="T18" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-189</v>
       </c>
       <c r="U18" s="23">
         <v>3.9250044561777282E-2</v>
@@ -3235,7 +3235,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L19" s="48">
         <v>0</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="R19" s="21">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="5"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="T19" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-189</v>
       </c>
       <c r="U19" s="23">
         <v>4.9777015190575383E-2</v>
@@ -3307,10 +3307,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L20" s="48">
-        <v>0.15770000000000001</v>
+        <v>0.1507</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>32</v>
@@ -3324,15 +3324,15 @@
       </c>
       <c r="P20" s="20">
         <f t="shared" si="2"/>
-        <v>30.7515</v>
+        <v>29.386500000000002</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="3"/>
-        <v>164.24850000000001</v>
+        <v>165.61349999999999</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="S20" s="20">
         <f t="shared" si="5"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="T20" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-105</v>
       </c>
       <c r="U20" s="23">
         <v>1.9866670170786576</v>
@@ -3379,7 +3379,7 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L21" s="48">
         <v>0.129</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="R21" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="S21" s="20">
         <f t="shared" si="5"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="T21" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-63</v>
       </c>
       <c r="U21" s="23">
         <v>8.0826749208230453</v>
@@ -3451,7 +3451,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L22" s="48">
         <v>0</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="R22" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="S22" s="20">
         <f t="shared" si="5"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="T22" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-63</v>
       </c>
       <c r="U22" s="23">
         <v>4.8861619889981514E-2</v>
@@ -3523,7 +3523,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L23" s="48">
         <v>0</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="R23" s="21">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="S23" s="20">
         <f t="shared" si="5"/>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="T23" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-119</v>
       </c>
       <c r="U23" s="23">
         <v>0.22890573488117585</v>
@@ -3595,7 +3595,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L24" s="48">
         <v>0</v>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="R24" s="21">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="S24" s="20">
         <f t="shared" si="5"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="T24" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-146</v>
+        <v>-126</v>
       </c>
       <c r="U24" s="23">
         <v>7.4966605347794035E-2</v>
@@ -3667,7 +3667,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L25" s="48">
         <v>0</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="R25" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="S25" s="20">
         <f t="shared" si="5"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="T25" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-63</v>
       </c>
       <c r="U25" s="23">
         <v>0.4156489033720388</v>
@@ -3739,7 +3739,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L26" s="48">
         <v>0</v>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="R26" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S26" s="20">
         <f t="shared" si="5"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="T26" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U26" s="23">
         <v>0.34221449233860612</v>
@@ -3811,7 +3811,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L27" s="48">
         <v>0.20930000000000001</v>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="R27" s="21">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="S27" s="20">
         <f t="shared" si="5"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="T27" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-223</v>
+        <v>-203</v>
       </c>
       <c r="U27" s="23">
         <v>2.0404487343946266E-2</v>
@@ -3883,7 +3883,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L28" s="48">
         <v>0</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="R28" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S28" s="20">
         <f t="shared" si="5"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="T28" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U28" s="23">
         <v>2.3371433481226382E-2</v>
@@ -3955,7 +3955,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L29" s="48">
         <v>4.7800000000000002E-2</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="R29" s="21">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="S29" s="20">
         <f t="shared" si="5"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="T29" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-49</v>
       </c>
       <c r="U29" s="23">
         <v>2.9187755059895788</v>
@@ -4027,7 +4027,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L30" s="48">
         <v>0</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="R30" s="21">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S30" s="20">
         <f t="shared" si="5"/>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="T30" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-14</v>
       </c>
       <c r="U30" s="23">
         <v>0.11596582079047627</v>
@@ -4099,7 +4099,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L31" s="48">
         <v>0</v>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="R31" s="21">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="S31" s="20">
         <f t="shared" si="5"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="T31" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-132</v>
+        <v>-112</v>
       </c>
       <c r="U31" s="23">
         <v>8.1747544717989548E-2</v>
@@ -4171,7 +4171,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L32" s="48">
         <v>0</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="R32" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S32" s="20">
         <f t="shared" si="5"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="T32" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U32" s="23">
         <v>4.396791761852549E-2</v>
@@ -4243,7 +4243,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L33" s="48">
         <v>0</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="R33" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S33" s="20">
         <f t="shared" si="5"/>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="T33" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U33" s="23">
         <v>1.2091683970173784E-2</v>
@@ -4315,7 +4315,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L34" s="48">
         <v>0.1056</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="R34" s="21">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="S34" s="20">
         <f t="shared" si="5"/>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="T34" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-223</v>
+        <v>-203</v>
       </c>
       <c r="U34" s="23">
         <v>2.2129086244257725</v>
@@ -4387,7 +4387,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L35" s="48">
         <v>0.21909999999999999</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="R35" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="S35" s="20">
         <f t="shared" si="5"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="T35" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-98</v>
       </c>
       <c r="U35" s="23">
         <v>0.7163956909384217</v>
@@ -4459,7 +4459,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L36" s="48">
         <v>0</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="R36" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S36" s="20">
         <f t="shared" si="5"/>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="T36" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="U36" s="23">
         <v>2.788276283922893</v>
@@ -4531,7 +4531,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L37" s="48">
         <v>0.84599999999999997</v>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="R37" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S37" s="20">
         <f t="shared" si="5"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="T37" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="U37" s="23">
         <v>0.24445340046690409</v>
@@ -4603,7 +4603,7 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L38" s="48">
         <v>0.33679999999999999</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="R38" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="S38" s="20">
         <f t="shared" si="5"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="T38" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-105</v>
       </c>
       <c r="U38" s="23">
         <v>1.3834064445609398</v>
@@ -4675,7 +4675,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L39" s="48">
         <v>0</v>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="R39" s="21">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="S39" s="20">
         <f t="shared" si="5"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="T39" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-119</v>
       </c>
       <c r="U39" s="23">
         <v>0.39134230671971154</v>
@@ -4747,7 +4747,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L40" s="48">
         <v>4.4999999999999997E-3</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="R40" s="21">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="S40" s="20">
         <f t="shared" si="5"/>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="T40" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-75</v>
+        <v>-55</v>
       </c>
       <c r="U40" s="23">
         <v>0.10777677087659648</v>
@@ -4819,7 +4819,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L41" s="48">
         <v>8.1500000000000003E-2</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="R41" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S41" s="20">
         <f t="shared" si="5"/>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="T41" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U41" s="23">
         <v>8.2318386059768451E-3</v>
@@ -4891,7 +4891,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L42" s="48">
         <v>0.20580000000000001</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="R42" s="21">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="S42" s="20">
         <f t="shared" si="5"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="T42" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-132</v>
+        <v>-112</v>
       </c>
       <c r="U42" s="23">
         <v>6.3041469860199054E-2</v>
@@ -4963,7 +4963,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L43" s="48">
         <v>0.2019</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="R43" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S43" s="20">
         <f t="shared" si="5"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="T43" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U43" s="23">
         <v>3.5386814494663736E-2</v>
@@ -5035,7 +5035,7 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L44" s="48">
         <v>0.2301</v>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="R44" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S44" s="20">
         <f t="shared" si="5"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="T44" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U44" s="23">
         <v>0.58542108403682003</v>
@@ -5107,10 +5107,10 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L45" s="48">
-        <v>0.37669999999999998</v>
+        <v>0.3216</v>
       </c>
       <c r="M45" s="18" t="s">
         <v>42</v>
@@ -5124,15 +5124,15 @@
       </c>
       <c r="P45" s="20">
         <f t="shared" si="2"/>
-        <v>126.19449999999999</v>
+        <v>107.736</v>
       </c>
       <c r="Q45" s="20">
         <f t="shared" si="3"/>
-        <v>208.80549999999999</v>
+        <v>227.26400000000001</v>
       </c>
       <c r="R45" s="21">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="S45" s="20">
         <f t="shared" si="5"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="T45" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-70</v>
       </c>
       <c r="U45" s="23">
         <v>18.96429322855024</v>
@@ -5179,7 +5179,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L46" s="48">
         <v>7.6799999999999993E-2</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="R46" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S46" s="20">
         <f t="shared" si="5"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="T46" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U46" s="23">
         <v>2.1882553326908354E-2</v>
@@ -5251,7 +5251,7 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L47" s="48">
         <v>0.44629999999999997</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="R47" s="21">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="S47" s="20">
         <f t="shared" si="5"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="T47" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-189</v>
       </c>
       <c r="U47" s="23">
         <v>0.10433791562790558</v>
@@ -5323,7 +5323,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L48" s="48">
         <v>0</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="R48" s="21">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="S48" s="20">
         <f t="shared" si="5"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="T48" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-132</v>
+        <v>-112</v>
       </c>
       <c r="U48" s="23">
         <v>1.6500421520262731</v>
@@ -5395,7 +5395,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L49" s="48">
         <v>0</v>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="R49" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="S49" s="20">
         <f t="shared" si="5"/>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="T49" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-63</v>
       </c>
       <c r="U49" s="23">
         <v>1.4876499045579906E-2</v>
@@ -5467,7 +5467,7 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L50" s="48">
         <v>7.2700000000000001E-2</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="R50" s="21">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="S50" s="20">
         <f t="shared" si="5"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="T50" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-49</v>
       </c>
       <c r="U50" s="23">
         <v>6.7954571404563111E-2</v>
@@ -5539,7 +5539,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L51" s="48">
         <v>9.7999999999999997E-3</v>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="R51" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="S51" s="20">
         <f t="shared" si="5"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="T51" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-181</v>
+        <v>-161</v>
       </c>
       <c r="U51" s="23">
         <v>0.24341470950651456</v>
@@ -5611,7 +5611,7 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L52" s="48">
         <v>0.58089999999999997</v>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="R52" s="21">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S52" s="20">
         <f t="shared" si="5"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="T52" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U52" s="23">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L53" s="48">
         <v>1</v>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="R53" s="21">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S53" s="20">
         <f t="shared" si="5"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="T53" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U53" s="23">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L54" s="48">
         <v>0</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="R54" s="21">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S54" s="20">
         <f t="shared" si="5"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="T54" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U54" s="23">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L55" s="48">
         <v>1</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="R55" s="21">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="S55" s="20">
         <f t="shared" si="5"/>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="T55" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-70</v>
       </c>
       <c r="U55" s="23">
         <v>7.3157389496987042</v>
@@ -5899,7 +5899,7 @@
         <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L56" s="48">
         <v>0.85970000000000002</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="R56" s="21">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S56" s="20">
         <f t="shared" si="5"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="T56" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U56" s="23">
         <v>1.2678290518311721</v>
@@ -5971,7 +5971,7 @@
         <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L57" s="48">
         <v>1</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="R57" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="S57" s="20">
         <f t="shared" si="5"/>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="T57" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-84</v>
       </c>
       <c r="U57" s="23">
         <v>0.90362130154493769</v>
@@ -6043,7 +6043,7 @@
         <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L58" s="48">
         <v>1</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="R58" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="S58" s="20">
         <f t="shared" si="5"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="T58" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-104</v>
+        <v>-84</v>
       </c>
       <c r="U58" s="23">
         <v>0.90362130154493769</v>
@@ -6115,7 +6115,7 @@
         <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L59" s="48">
         <v>0.29820000000000002</v>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="R59" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="S59" s="20">
         <f t="shared" si="5"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="T59" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-83</v>
+        <v>-63</v>
       </c>
       <c r="U59" s="23">
         <v>0.90362130154493769</v>
@@ -6187,7 +6187,7 @@
         <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L60" s="48">
         <v>0.99270000000000003</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="R60" s="21">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S60" s="20">
         <f t="shared" si="5"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="T60" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="U60" s="23">
         <v>1.5818776119585585</v>
@@ -6259,7 +6259,7 @@
         <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L61" s="48">
         <v>0.25729999999999997</v>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="R61" s="21">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="S61" s="20">
         <f t="shared" si="5"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="T61" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="U61" s="23">
         <v>1.2842274814527748</v>
@@ -6331,7 +6331,7 @@
         <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L62" s="48">
         <v>1</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="R62" s="21">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S62" s="20">
         <f t="shared" si="5"/>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="T62" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U62" s="23">
         <v>6.1841913050091657</v>
@@ -6403,7 +6403,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L63" s="48">
         <v>0</v>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="R63" s="21">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S63" s="20">
         <f t="shared" si="5"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="T63" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L64" s="48">
         <v>0.85829999999999995</v>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="R64" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S64" s="20">
         <f t="shared" si="5"/>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="T64" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="U64" s="23">
         <v>0.94074024135300072</v>
@@ -6547,7 +6547,7 @@
         <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L65" s="48">
         <v>0.9879</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="R65" s="21">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="S65" s="20">
         <f t="shared" si="5"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="T65" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="U65" s="23">
         <v>1.2317038245452467</v>
@@ -6619,10 +6619,10 @@
         <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L66" s="48">
-        <v>0.17519999999999999</v>
+        <v>0.1716</v>
       </c>
       <c r="M66" s="18" t="s">
         <v>26</v>
@@ -6636,15 +6636,15 @@
       </c>
       <c r="P66" s="20">
         <f t="shared" si="2"/>
-        <v>50.107199999999999</v>
+        <v>49.077600000000004</v>
       </c>
       <c r="Q66" s="20">
         <f t="shared" si="3"/>
-        <v>235.89279999999999</v>
+        <v>236.92239999999998</v>
       </c>
       <c r="R66" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S66" s="20">
         <f t="shared" si="5"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="T66" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="U66" s="23">
         <v>4.341217820948339</v>
@@ -6691,7 +6691,7 @@
         <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L67" s="48">
         <v>1</v>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="R67" s="21">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S67" s="20">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="T67" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>-56</v>
       </c>
       <c r="U67" s="23">
         <v>1.2874256064363331E-2</v>
@@ -6763,7 +6763,7 @@
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L68" s="48">
         <v>0.1241</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="R68" s="21">
         <f t="shared" si="10"/>
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="S68" s="20">
         <f t="shared" si="11"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="T68" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-92</v>
       </c>
       <c r="U68" s="23">
         <v>0.87755848995820385</v>
@@ -6835,10 +6835,10 @@
         <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L69" s="48">
-        <v>0.91180000000000005</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="M69" s="18" t="s">
         <v>26</v>
@@ -6852,15 +6852,15 @@
       </c>
       <c r="P69" s="20">
         <f t="shared" si="8"/>
-        <v>62.914200000000001</v>
+        <v>62.141399999999997</v>
       </c>
       <c r="Q69" s="20">
         <f t="shared" si="9"/>
-        <v>6.085799999999999</v>
+        <v>6.8586000000000027</v>
       </c>
       <c r="R69" s="21">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S69" s="20">
         <f t="shared" si="11"/>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="T69" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="U69" s="23">
         <v>5.6463899562994637</v>
@@ -6907,10 +6907,10 @@
         <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L70" s="48">
-        <v>0.99999199999999999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="M70" s="18" t="s">
         <v>26</v>
@@ -6924,15 +6924,15 @@
       </c>
       <c r="P70" s="20">
         <f t="shared" si="8"/>
-        <v>95.999232000000006</v>
+        <v>95.894400000000005</v>
       </c>
       <c r="Q70" s="20">
         <f t="shared" si="9"/>
-        <v>7.6799999999366264E-4</v>
+        <v>0.10559999999999548</v>
       </c>
       <c r="R70" s="21">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S70" s="20">
         <f t="shared" si="11"/>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="T70" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="U70" s="23">
         <v>3.3921463524873796</v>
@@ -6979,7 +6979,7 @@
         <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L71" s="48">
         <v>0.76270000000000004</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="R71" s="21">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S71" s="20">
         <f t="shared" si="11"/>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="T71" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="U71" s="23">
         <v>1.1565364385446064</v>
@@ -7051,7 +7051,7 @@
         <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L72" s="48">
         <v>3.225E-3</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="R72" s="21">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="S72" s="20">
         <f t="shared" si="11"/>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="T72" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="U72" s="23">
         <v>0.35948495436649136</v>
@@ -7123,7 +7123,7 @@
         <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L73" s="48">
         <v>0</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="R73" s="21">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S73" s="20">
         <f t="shared" si="11"/>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="T73" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="U73" s="23">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L74" s="48">
         <v>0</v>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="R74" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S74" s="20">
         <f t="shared" si="11"/>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="T74" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U74" s="23">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L75" s="48">
         <v>0.1328</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="R75" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="S75" s="20">
         <f t="shared" si="11"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="T75" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="U75" s="23">
         <v>7.3681118933140155</v>
@@ -7339,7 +7339,7 @@
         <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L76" s="48">
         <v>0.70679999999999998</v>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="R76" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="S76" s="20">
         <f t="shared" si="11"/>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="T76" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="U76" s="23">
         <v>1.9262225609604624</v>
@@ -7411,7 +7411,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L77" s="48">
         <v>0</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="R77" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S77" s="20">
         <f t="shared" si="11"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="T77" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U77" s="23">
         <v>0</v>
@@ -7483,7 +7483,7 @@
         <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L78" s="48">
         <v>0.84150000000000003</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="R78" s="21">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="S78" s="20">
         <f t="shared" si="11"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="T78" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-72</v>
       </c>
       <c r="U78" s="23">
         <v>2.6947696149272917</v>
@@ -7555,7 +7555,7 @@
         <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L79" s="48">
         <v>0.14460000000000001</v>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="R79" s="21">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="S79" s="20">
         <f t="shared" si="11"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="T79" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="U79" s="23">
         <v>7.1455552805644906</v>
@@ -7627,10 +7627,10 @@
         <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L80" s="48">
-        <v>0.81530000000000002</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="M80" s="18" t="s">
         <v>26</v>
@@ -7644,15 +7644,15 @@
       </c>
       <c r="P80" s="20">
         <f t="shared" si="8"/>
-        <v>50.5486</v>
+        <v>49.903799999999997</v>
       </c>
       <c r="Q80" s="20">
         <f t="shared" si="9"/>
-        <v>11.4514</v>
+        <v>12.096200000000003</v>
       </c>
       <c r="R80" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="S80" s="20">
         <f t="shared" si="11"/>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="T80" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="U80" s="23">
         <v>2.1250737260073151</v>
@@ -7699,7 +7699,7 @@
         <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L81" s="48">
         <v>0.91210000000000002</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="R81" s="21">
         <f t="shared" si="10"/>
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="S81" s="20">
         <f t="shared" si="11"/>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="T81" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-392</v>
+        <v>-372</v>
       </c>
       <c r="U81" s="23">
         <v>2.2141421850391501</v>
@@ -7771,7 +7771,7 @@
         <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L82" s="48">
         <v>7.5800000000000006E-2</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="R82" s="21">
         <f t="shared" si="10"/>
-        <v>-30</v>
+        <v>-51</v>
       </c>
       <c r="S82" s="20">
         <f t="shared" si="11"/>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="T82" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U82" s="23">
         <v>2.1434231234710972</v>
@@ -7843,7 +7843,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L83" s="48">
         <v>0</v>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="R83" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S83" s="20">
         <f t="shared" si="11"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="T83" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U83" s="23">
         <v>0</v>
@@ -7915,10 +7915,10 @@
         <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L84" s="48">
-        <v>0.87190000000000001</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="M84" s="18" t="s">
         <v>26</v>
@@ -7932,15 +7932,15 @@
       </c>
       <c r="P84" s="20">
         <f t="shared" si="8"/>
-        <v>41.851199999999999</v>
+        <v>41.270400000000002</v>
       </c>
       <c r="Q84" s="20">
         <f t="shared" si="9"/>
-        <v>6.1488000000000014</v>
+        <v>6.7295999999999978</v>
       </c>
       <c r="R84" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S84" s="20">
         <f t="shared" si="11"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="T84" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-14</v>
       </c>
       <c r="U84" s="23">
         <v>4.2091892986185098</v>
@@ -7987,7 +7987,7 @@
         <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L85" s="48">
         <v>0.87160000000000004</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="R85" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S85" s="20">
         <f t="shared" si="11"/>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="T85" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U85" s="23">
         <v>0.67906690555318538</v>
@@ -8059,7 +8059,7 @@
         <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L86" s="48">
         <v>0</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="R86" s="21">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="S86" s="20">
         <f t="shared" si="11"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="T86" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-42</v>
       </c>
       <c r="U86" s="23">
         <v>0.3705846265159719</v>
@@ -8131,7 +8131,7 @@
         <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L87" s="48">
         <v>0.86219999999999997</v>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="R87" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S87" s="20">
         <f t="shared" si="11"/>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="T87" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U87" s="23">
         <v>0.46782862216660642</v>
@@ -8203,10 +8203,10 @@
         <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L88" s="48">
-        <v>0.71130000000000004</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="M88" s="18" t="s">
         <v>26</v>
@@ -8220,15 +8220,15 @@
       </c>
       <c r="P88" s="20">
         <f t="shared" si="8"/>
-        <v>-26.318100000000001</v>
+        <v>-26.010999999999999</v>
       </c>
       <c r="Q88" s="20">
         <f t="shared" si="9"/>
-        <v>-10.681899999999999</v>
+        <v>-10.989000000000001</v>
       </c>
       <c r="R88" s="21">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="S88" s="20">
         <f t="shared" si="11"/>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="T88" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-98</v>
+        <v>-78</v>
       </c>
       <c r="U88" s="23">
         <v>2.1434231234710972</v>
@@ -8275,7 +8275,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L89" s="48">
         <v>1</v>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="R89" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S89" s="20">
         <f t="shared" si="11"/>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="T89" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U89" s="23">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L90" s="48">
         <v>0.49690000000000001</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="R90" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="S90" s="20">
         <f t="shared" si="11"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="T90" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="U90" s="23">
         <v>0.66829826225735345</v>
@@ -8419,10 +8419,10 @@
         <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L91" s="48">
-        <v>6.8450000000000004E-3</v>
+        <v>2.934E-3</v>
       </c>
       <c r="M91" s="18" t="s">
         <v>26</v>
@@ -8436,15 +8436,15 @@
       </c>
       <c r="P91" s="20">
         <f t="shared" si="8"/>
-        <v>0.23273000000000002</v>
+        <v>9.9755999999999997E-2</v>
       </c>
       <c r="Q91" s="20">
         <f t="shared" si="9"/>
-        <v>33.767270000000003</v>
+        <v>33.900244000000001</v>
       </c>
       <c r="R91" s="21">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S91" s="20">
         <f t="shared" si="11"/>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="T91" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="U91" s="23">
         <v>0.45089754003550009</v>
@@ -8491,7 +8491,7 @@
         <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L92" s="48">
         <v>8.1199999999999994E-2</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="R92" s="21">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S92" s="20">
         <f t="shared" si="11"/>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="T92" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="U92" s="23">
         <v>0.47544300629915759</v>
@@ -8563,7 +8563,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L93" s="48">
         <v>0</v>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="R93" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S93" s="20">
         <f t="shared" si="11"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="T93" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U93" s="23">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L94" s="48">
         <v>9.8500000000000004E-2</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="R94" s="21">
         <f t="shared" si="10"/>
-        <v>-30</v>
+        <v>-51</v>
       </c>
       <c r="S94" s="20">
         <f t="shared" si="11"/>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="T94" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U94" s="23">
         <v>7.4012273158472057</v>
@@ -8707,7 +8707,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L95" s="48">
         <v>0</v>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="R95" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S95" s="20">
         <f t="shared" si="11"/>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="T95" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U95" s="23">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L96" s="48">
         <v>0.15540000000000001</v>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="R96" s="21">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="S96" s="20">
         <f t="shared" si="11"/>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="T96" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="U96" s="23">
         <v>0.12529658962134113</v>
@@ -8851,7 +8851,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L97" s="48">
         <v>0</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="R97" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S97" s="20">
         <f t="shared" si="11"/>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="T97" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U97" s="23">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L98" s="48">
         <v>6.9900000000000004E-2</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="R98" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S98" s="20">
         <f t="shared" si="11"/>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="T98" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U98" s="23">
         <v>0.53563667137898285</v>
@@ -8995,10 +8995,10 @@
         <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L99" s="48">
-        <v>0.30080000000000001</v>
+        <v>0.29360000000000003</v>
       </c>
       <c r="M99" s="18" t="s">
         <v>40</v>
@@ -9012,15 +9012,15 @@
       </c>
       <c r="P99" s="20">
         <f t="shared" si="8"/>
-        <v>6.016</v>
+        <v>5.8720000000000008</v>
       </c>
       <c r="Q99" s="20">
         <f t="shared" si="9"/>
-        <v>13.984</v>
+        <v>14.128</v>
       </c>
       <c r="R99" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S99" s="20">
         <f t="shared" si="11"/>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="T99" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-14</v>
       </c>
       <c r="U99" s="23">
         <v>0.31365570942757215</v>
@@ -9067,7 +9067,7 @@
         <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L100" s="48">
         <v>0.18659999999999999</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="R100" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="S100" s="20">
         <f t="shared" si="11"/>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="T100" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="U100" s="23">
         <v>0.1502798023901277</v>
@@ -9139,7 +9139,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L101" s="48">
         <v>0</v>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="R101" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S101" s="20">
         <f t="shared" si="11"/>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="T101" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U101" s="23">
         <v>0</v>
@@ -9211,10 +9211,10 @@
         <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L102" s="48">
-        <v>0.3483</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="M102" s="18" t="s">
         <v>40</v>
@@ -9228,15 +9228,15 @@
       </c>
       <c r="P102" s="20">
         <f t="shared" si="8"/>
-        <v>4.5278999999999998</v>
+        <v>4.3940000000000001</v>
       </c>
       <c r="Q102" s="20">
         <f t="shared" si="9"/>
-        <v>8.4721000000000011</v>
+        <v>8.6059999999999999</v>
       </c>
       <c r="R102" s="21">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="S102" s="20">
         <f t="shared" si="11"/>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="T102" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-42</v>
       </c>
       <c r="U102" s="23">
         <v>0.1640586615913901</v>
@@ -9283,7 +9283,7 @@
         <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L103" s="48">
         <v>0.43099999999999999</v>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="R103" s="21">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S103" s="20">
         <f t="shared" si="11"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="T103" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="U103" s="23">
         <v>0.1502798023901277</v>
@@ -9355,7 +9355,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L104" s="48">
         <v>0</v>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="R104" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S104" s="20">
         <f t="shared" si="11"/>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="T104" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U104" s="23">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L105" s="48">
         <v>8.48E-2</v>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="R105" s="21">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="S105" s="20">
         <f t="shared" si="11"/>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="T105" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-70</v>
       </c>
       <c r="U105" s="23">
         <v>0.41311075421685678</v>
@@ -9499,7 +9499,7 @@
         <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L106" s="48">
         <v>8.48E-2</v>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="R106" s="21">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="S106" s="20">
         <f t="shared" si="11"/>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="T106" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-90</v>
+        <v>-70</v>
       </c>
       <c r="U106" s="23">
         <v>0.41311075421685678</v>
@@ -9571,7 +9571,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L107" s="48">
         <v>0</v>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="R107" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S107" s="20">
         <f t="shared" si="11"/>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="T107" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U107" s="23">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L108" s="48">
         <v>0.23980000000000001</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="R108" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="S108" s="20">
         <f t="shared" si="11"/>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="T108" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="U108" s="23">
         <v>0.71590581972999912</v>
@@ -9715,7 +9715,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L109" s="48">
         <v>0</v>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="R109" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S109" s="20">
         <f t="shared" si="11"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="T109" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U109" s="23">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L110" s="48">
         <v>0</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="R110" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S110" s="20">
         <f t="shared" si="11"/>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="T110" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U110" s="23">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L111" s="48">
         <v>0.4491</v>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="R111" s="21">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="S111" s="20">
         <f t="shared" si="11"/>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="T111" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="U111" s="23">
         <v>1.1364470150796924</v>
@@ -9931,7 +9931,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L112" s="48">
         <v>0</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="R112" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S112" s="20">
         <f t="shared" si="11"/>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="T112" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U112" s="23">
         <v>0</v>
@@ -10003,7 +10003,7 @@
         <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L113" s="48">
         <v>0.48920000000000002</v>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="R113" s="21">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>-35</v>
       </c>
       <c r="S113" s="20">
         <f t="shared" si="11"/>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="T113" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="U113" s="23">
         <v>0.86888955106354271</v>
@@ -10075,7 +10075,7 @@
         <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L114" s="48">
         <v>0.60950000000000004</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="R114" s="21">
         <f t="shared" si="10"/>
-        <v>-30</v>
+        <v>-51</v>
       </c>
       <c r="S114" s="20">
         <f t="shared" si="11"/>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="T114" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U114" s="23">
         <v>1.9101722387327178</v>
@@ -10147,7 +10147,7 @@
         <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L115" s="48">
         <v>0.59099999999999997</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="R115" s="21">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S115" s="20">
         <f t="shared" si="11"/>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="T115" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="U115" s="23">
         <v>2.3615133681493417</v>
@@ -10219,7 +10219,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L116" s="48">
         <v>0</v>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="R116" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S116" s="20">
         <f t="shared" si="11"/>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="T116" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U116" s="23">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L117" s="48">
         <v>1</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="R117" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S117" s="20">
         <f t="shared" si="11"/>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="T117" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U117" s="23">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L118" s="48">
         <v>0</v>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="R118" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="S118" s="20">
         <f t="shared" si="11"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="T118" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U118" s="23">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L119" s="48">
         <v>0.56559999999999999</v>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="R119" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="S119" s="20">
         <f t="shared" si="11"/>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="T119" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="U119" s="23">
         <v>1.2772542166873568</v>
@@ -10507,7 +10507,7 @@
         <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L120" s="48">
         <v>0.56910000000000005</v>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="R120" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S120" s="20">
         <f t="shared" si="11"/>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="T120" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="U120" s="23">
         <v>1.3021928291029847</v>
@@ -10579,7 +10579,7 @@
         <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L121" s="48">
         <v>0</v>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="R121" s="21">
         <f t="shared" si="10"/>
-        <v>-30</v>
+        <v>-51</v>
       </c>
       <c r="S121" s="20">
         <f t="shared" si="11"/>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="T121" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U121" s="23">
         <v>2.2106399922458855</v>
@@ -10651,7 +10651,7 @@
         <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L122" s="48">
         <v>0.52310000000000001</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="R122" s="21">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="S122" s="20">
         <f t="shared" si="11"/>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="T122" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-69</v>
+        <v>-49</v>
       </c>
       <c r="U122" s="23">
         <v>0.94089880391742786</v>
@@ -10723,7 +10723,7 @@
         <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L123" s="48">
         <v>0.3</v>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="R123" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S123" s="20">
         <f t="shared" si="11"/>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="T123" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-14</v>
       </c>
       <c r="U123" s="23">
         <v>0.83220228058553414</v>
@@ -10795,7 +10795,7 @@
         <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L124" s="48">
         <v>0</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="R124" s="21">
         <f t="shared" si="10"/>
-        <v>-30</v>
+        <v>-51</v>
       </c>
       <c r="S124" s="20">
         <f t="shared" si="11"/>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="T124" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U124" s="23">
         <v>1.1429745636452144</v>
@@ -10867,7 +10867,7 @@
         <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L125" s="48">
         <v>0.51339999999999997</v>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="R125" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="S125" s="20">
         <f t="shared" si="11"/>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="T125" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="U125" s="23">
         <v>0.65729302337862683</v>
@@ -10939,7 +10939,7 @@
         <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L126" s="48">
         <v>0.5161</v>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="R126" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="S126" s="20">
         <f t="shared" si="11"/>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="T126" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="U126" s="23">
         <v>1.1353862689916343</v>
@@ -11011,7 +11011,7 @@
         <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45900</v>
+        <v>45879</v>
       </c>
       <c r="L127" s="49">
         <v>0.3</v>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="R127" s="40">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S127" s="20">
         <f t="shared" si="11"/>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="T127" s="41">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="U127" s="41">
         <v>0.45616355925610708</v>
@@ -11052,13 +11052,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/AGUSTUS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldyn\OneDrive\Documents\INCA NUSA AQUA\MASTER DASHBOARD\AGUSTUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B07605-6FED-4A79-A5CD-7F0D00340FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1959CD-EC2D-44BF-A672-BA966A9D31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DATA (wajib update)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="118">
   <si>
     <t>NO</t>
   </si>
@@ -763,108 +763,6 @@
   <dxfs count="27">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF332D2D"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1180,6 +1078,108 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF332D2D"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1535,29 +1535,29 @@
     <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="11">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="9">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="8">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="7">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1885,9 +1885,9 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2:M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,10 +2013,10 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L2" s="48">
-        <v>0.73740000000000006</v>
+        <v>0.75339999999999996</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>26</v>
@@ -2030,15 +2030,15 @@
       </c>
       <c r="P2" s="20">
         <f>$L2*$S2</f>
-        <v>313.39500000000004</v>
+        <v>320.19499999999999</v>
       </c>
       <c r="Q2" s="20">
         <f>S2-P2</f>
-        <v>111.60499999999996</v>
+        <v>104.80500000000001</v>
       </c>
       <c r="R2" s="21">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="S2" s="20">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="T2" s="22">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="U2" s="22">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="18" t="s">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="R3" s="21">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="T3" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-357</v>
+        <v>-377</v>
       </c>
       <c r="U3" s="23">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L4" s="48">
         <v>0.78779999999999994</v>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="R4" s="21">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="5"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="T4" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-217</v>
+        <v>-237</v>
       </c>
       <c r="U4" s="23">
         <v>1.8586563945729366</v>
@@ -2227,7 +2227,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L5" s="48">
         <v>0</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="R5" s="21">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="5"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="T5" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-189</v>
+        <v>-209</v>
       </c>
       <c r="U5" s="23">
         <v>0.79194964416177871</v>
@@ -2299,7 +2299,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L6" s="48">
         <v>0.1246</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="R6" s="21">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="5"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="T6" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-131</v>
+        <v>-151</v>
       </c>
       <c r="U6" s="23">
         <v>1.8581913281290774</v>
@@ -2371,7 +2371,7 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L7" s="48">
         <v>0.35589999999999999</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="R7" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="5"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="T7" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-105</v>
+        <v>-125</v>
       </c>
       <c r="U7" s="23">
         <v>0.45069827803129847</v>
@@ -2443,7 +2443,7 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L8" s="48">
         <v>0.19869999999999999</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="R8" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="5"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="T8" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-77</v>
+        <v>-97</v>
       </c>
       <c r="U8" s="23">
         <v>6.4714074693689341</v>
@@ -2515,7 +2515,7 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L9" s="48">
         <v>0.51639999999999997</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="R9" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="5"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="T9" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-105</v>
+        <v>-125</v>
       </c>
       <c r="U9" s="23">
         <v>2.1938359438979802</v>
@@ -2587,7 +2587,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L10" s="48">
         <v>0.4572</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="5"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="T10" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-238</v>
+        <v>-258</v>
       </c>
       <c r="U10" s="23">
         <v>1.4899400056670535</v>
@@ -2659,10 +2659,10 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L11" s="48">
-        <v>4.7800000000000002E-2</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>40</v>
@@ -2676,15 +2676,15 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" si="2"/>
-        <v>16.013000000000002</v>
+        <v>31.691000000000003</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="3"/>
-        <v>318.98700000000002</v>
+        <v>303.30899999999997</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="5"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="T11" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U11" s="23">
         <v>33.058446215526629</v>
@@ -2731,7 +2731,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L12" s="48">
         <v>0</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="5"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="T12" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U12" s="23">
         <v>1.8989416148357232</v>
@@ -2803,7 +2803,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L13" s="48">
         <v>0</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="5"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="T13" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-182</v>
+        <v>-202</v>
       </c>
       <c r="U13" s="23">
         <v>0.61599151131979568</v>
@@ -2875,7 +2875,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L14" s="48">
         <v>0</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="5"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="T14" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-126</v>
+        <v>-146</v>
       </c>
       <c r="U14" s="23">
         <v>0.42275200889415104</v>
@@ -2947,7 +2947,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L15" s="48">
         <v>0</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="5"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="T15" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-119</v>
+        <v>-139</v>
       </c>
       <c r="U15" s="23">
         <v>5.4312137246679076E-2</v>
@@ -3019,7 +3019,7 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L16" s="48">
         <v>0.4385</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="R16" s="21">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="5"/>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="T16" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-98</v>
+        <v>-118</v>
       </c>
       <c r="U16" s="23">
         <v>0.74004960479265314</v>
@@ -3091,7 +3091,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L17" s="48">
         <v>0</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="R17" s="21">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="5"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="T17" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-98</v>
+        <v>-118</v>
       </c>
       <c r="U17" s="23">
         <v>0.17748202368678323</v>
@@ -3163,7 +3163,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L18" s="48">
         <v>0.99970000000000003</v>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="5"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="T18" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-189</v>
+        <v>-209</v>
       </c>
       <c r="U18" s="23">
         <v>3.9250044561777282E-2</v>
@@ -3235,7 +3235,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L19" s="48">
         <v>0</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="R19" s="21">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="5"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="T19" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-189</v>
+        <v>-209</v>
       </c>
       <c r="U19" s="23">
         <v>4.9777015190575383E-2</v>
@@ -3307,10 +3307,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L20" s="48">
-        <v>0.1507</v>
+        <v>0.15770000000000001</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>32</v>
@@ -3324,15 +3324,15 @@
       </c>
       <c r="P20" s="20">
         <f t="shared" si="2"/>
-        <v>29.386500000000002</v>
+        <v>30.7515</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="3"/>
-        <v>165.61349999999999</v>
+        <v>164.24850000000001</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="S20" s="20">
         <f t="shared" si="5"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="T20" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-105</v>
+        <v>-125</v>
       </c>
       <c r="U20" s="23">
         <v>1.9866670170786576</v>
@@ -3379,7 +3379,7 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L21" s="48">
         <v>0.129</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="R21" s="21">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S21" s="20">
         <f t="shared" si="5"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="T21" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-83</v>
       </c>
       <c r="U21" s="23">
         <v>8.0826749208230453</v>
@@ -3451,7 +3451,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L22" s="48">
         <v>0</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="R22" s="21">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S22" s="20">
         <f t="shared" si="5"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="T22" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-83</v>
       </c>
       <c r="U22" s="23">
         <v>4.8861619889981514E-2</v>
@@ -3523,7 +3523,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L23" s="48">
         <v>0</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="R23" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="S23" s="20">
         <f t="shared" si="5"/>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="T23" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-119</v>
+        <v>-139</v>
       </c>
       <c r="U23" s="23">
         <v>0.22890573488117585</v>
@@ -3595,7 +3595,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L24" s="48">
         <v>0</v>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="R24" s="21">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S24" s="20">
         <f t="shared" si="5"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="T24" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-126</v>
+        <v>-146</v>
       </c>
       <c r="U24" s="23">
         <v>7.4966605347794035E-2</v>
@@ -3667,7 +3667,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L25" s="48">
         <v>0</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="R25" s="21">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S25" s="20">
         <f t="shared" si="5"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="T25" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-83</v>
       </c>
       <c r="U25" s="23">
         <v>0.4156489033720388</v>
@@ -3739,7 +3739,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L26" s="48">
         <v>0</v>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="R26" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S26" s="20">
         <f t="shared" si="5"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="T26" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U26" s="23">
         <v>0.34221449233860612</v>
@@ -3811,7 +3811,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L27" s="48">
         <v>0.20930000000000001</v>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="R27" s="21">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="S27" s="20">
         <f t="shared" si="5"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="T27" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-203</v>
+        <v>-223</v>
       </c>
       <c r="U27" s="23">
         <v>2.0404487343946266E-2</v>
@@ -3883,7 +3883,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L28" s="48">
         <v>0</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="R28" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S28" s="20">
         <f t="shared" si="5"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="T28" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U28" s="23">
         <v>2.3371433481226382E-2</v>
@@ -3955,7 +3955,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L29" s="48">
         <v>4.7800000000000002E-2</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="R29" s="21">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S29" s="20">
         <f t="shared" si="5"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="T29" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-49</v>
+        <v>-69</v>
       </c>
       <c r="U29" s="23">
         <v>2.9187755059895788</v>
@@ -4027,7 +4027,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L30" s="48">
         <v>0</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="R30" s="21">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S30" s="20">
         <f t="shared" si="5"/>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="T30" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-34</v>
       </c>
       <c r="U30" s="23">
         <v>0.11596582079047627</v>
@@ -4099,7 +4099,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L31" s="48">
         <v>0</v>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="R31" s="21">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="S31" s="20">
         <f t="shared" si="5"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="T31" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-132</v>
       </c>
       <c r="U31" s="23">
         <v>8.1747544717989548E-2</v>
@@ -4171,7 +4171,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L32" s="48">
         <v>0</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="R32" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S32" s="20">
         <f t="shared" si="5"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="T32" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U32" s="23">
         <v>4.396791761852549E-2</v>
@@ -4243,7 +4243,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L33" s="48">
         <v>0</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="R33" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S33" s="20">
         <f t="shared" si="5"/>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="T33" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U33" s="23">
         <v>1.2091683970173784E-2</v>
@@ -4315,7 +4315,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L34" s="48">
         <v>0.1056</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="R34" s="21">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="S34" s="20">
         <f t="shared" si="5"/>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="T34" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-203</v>
+        <v>-223</v>
       </c>
       <c r="U34" s="23">
         <v>2.2129086244257725</v>
@@ -4387,7 +4387,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L35" s="48">
         <v>0.21909999999999999</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="R35" s="21">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S35" s="20">
         <f t="shared" si="5"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="T35" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-98</v>
+        <v>-118</v>
       </c>
       <c r="U35" s="23">
         <v>0.7163956909384217</v>
@@ -4459,7 +4459,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L36" s="48">
         <v>0</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="R36" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S36" s="20">
         <f t="shared" si="5"/>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="T36" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-7</v>
+        <v>-27</v>
       </c>
       <c r="U36" s="23">
         <v>2.788276283922893</v>
@@ -4531,7 +4531,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L37" s="48">
         <v>0.84599999999999997</v>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="R37" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S37" s="20">
         <f t="shared" si="5"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="T37" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-7</v>
+        <v>-27</v>
       </c>
       <c r="U37" s="23">
         <v>0.24445340046690409</v>
@@ -4603,7 +4603,7 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L38" s="48">
         <v>0.33679999999999999</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="R38" s="21">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="S38" s="20">
         <f t="shared" si="5"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="T38" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-105</v>
+        <v>-125</v>
       </c>
       <c r="U38" s="23">
         <v>1.3834064445609398</v>
@@ -4675,7 +4675,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L39" s="48">
         <v>0</v>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="R39" s="21">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="S39" s="20">
         <f t="shared" si="5"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="T39" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-119</v>
+        <v>-139</v>
       </c>
       <c r="U39" s="23">
         <v>0.39134230671971154</v>
@@ -4747,7 +4747,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L40" s="48">
         <v>4.4999999999999997E-3</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="R40" s="21">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="S40" s="20">
         <f t="shared" si="5"/>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="T40" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-75</v>
       </c>
       <c r="U40" s="23">
         <v>0.10777677087659648</v>
@@ -4819,7 +4819,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L41" s="48">
         <v>8.1500000000000003E-2</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="R41" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S41" s="20">
         <f t="shared" si="5"/>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="T41" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U41" s="23">
         <v>8.2318386059768451E-3</v>
@@ -4891,7 +4891,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L42" s="48">
         <v>0.20580000000000001</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="R42" s="21">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="S42" s="20">
         <f t="shared" si="5"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="T42" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-132</v>
       </c>
       <c r="U42" s="23">
         <v>6.3041469860199054E-2</v>
@@ -4963,7 +4963,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L43" s="48">
         <v>0.2019</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="R43" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S43" s="20">
         <f t="shared" si="5"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="T43" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U43" s="23">
         <v>3.5386814494663736E-2</v>
@@ -5035,7 +5035,7 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L44" s="48">
         <v>0.2301</v>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="R44" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S44" s="20">
         <f t="shared" si="5"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="T44" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U44" s="23">
         <v>0.58542108403682003</v>
@@ -5107,10 +5107,10 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L45" s="48">
-        <v>0.3216</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="M45" s="18" t="s">
         <v>42</v>
@@ -5124,15 +5124,15 @@
       </c>
       <c r="P45" s="20">
         <f t="shared" si="2"/>
-        <v>107.736</v>
+        <v>126.19449999999999</v>
       </c>
       <c r="Q45" s="20">
         <f t="shared" si="3"/>
-        <v>227.26400000000001</v>
+        <v>208.80549999999999</v>
       </c>
       <c r="R45" s="21">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="S45" s="20">
         <f t="shared" si="5"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="T45" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-70</v>
+        <v>-90</v>
       </c>
       <c r="U45" s="23">
         <v>18.96429322855024</v>
@@ -5179,7 +5179,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L46" s="48">
         <v>7.6799999999999993E-2</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="R46" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S46" s="20">
         <f t="shared" si="5"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="T46" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U46" s="23">
         <v>2.1882553326908354E-2</v>
@@ -5251,7 +5251,7 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L47" s="48">
         <v>0.44629999999999997</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="R47" s="21">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="S47" s="20">
         <f t="shared" si="5"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="T47" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-189</v>
+        <v>-209</v>
       </c>
       <c r="U47" s="23">
         <v>0.10433791562790558</v>
@@ -5323,7 +5323,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L48" s="48">
         <v>0</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="R48" s="21">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="S48" s="20">
         <f t="shared" si="5"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="T48" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-112</v>
+        <v>-132</v>
       </c>
       <c r="U48" s="23">
         <v>1.6500421520262731</v>
@@ -5395,7 +5395,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L49" s="48">
         <v>0</v>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="R49" s="21">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S49" s="20">
         <f t="shared" si="5"/>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="T49" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-83</v>
       </c>
       <c r="U49" s="23">
         <v>1.4876499045579906E-2</v>
@@ -5467,7 +5467,7 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L50" s="48">
         <v>7.2700000000000001E-2</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="R50" s="21">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S50" s="20">
         <f t="shared" si="5"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="T50" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-49</v>
+        <v>-69</v>
       </c>
       <c r="U50" s="23">
         <v>6.7954571404563111E-2</v>
@@ -5539,7 +5539,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L51" s="48">
         <v>9.7999999999999997E-3</v>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="R51" s="21">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="S51" s="20">
         <f t="shared" si="5"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="T51" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="U51" s="23">
         <v>0.24341470950651456</v>
@@ -5611,7 +5611,7 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L52" s="48">
         <v>0.58089999999999997</v>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="R52" s="21">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S52" s="20">
         <f t="shared" si="5"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="T52" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U52" s="23">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L53" s="48">
         <v>1</v>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="R53" s="21">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S53" s="20">
         <f t="shared" si="5"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="T53" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U53" s="23">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L54" s="48">
         <v>0</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="R54" s="21">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S54" s="20">
         <f t="shared" si="5"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="T54" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U54" s="23">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L55" s="48">
         <v>1</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="R55" s="21">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="S55" s="20">
         <f t="shared" si="5"/>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="T55" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-70</v>
+        <v>-90</v>
       </c>
       <c r="U55" s="23">
         <v>7.3157389496987042</v>
@@ -5899,7 +5899,7 @@
         <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L56" s="48">
         <v>0.85970000000000002</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="R56" s="21">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S56" s="20">
         <f t="shared" si="5"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="T56" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U56" s="23">
         <v>1.2678290518311721</v>
@@ -5971,7 +5971,7 @@
         <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L57" s="48">
         <v>1</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="R57" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="S57" s="20">
         <f t="shared" si="5"/>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="T57" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>-104</v>
       </c>
       <c r="U57" s="23">
         <v>0.90362130154493769</v>
@@ -6043,7 +6043,7 @@
         <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L58" s="48">
         <v>1</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="R58" s="21">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="S58" s="20">
         <f t="shared" si="5"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="T58" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>-104</v>
       </c>
       <c r="U58" s="23">
         <v>0.90362130154493769</v>
@@ -6115,7 +6115,7 @@
         <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L59" s="48">
         <v>0.29820000000000002</v>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="R59" s="21">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S59" s="20">
         <f t="shared" si="5"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="T59" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>-83</v>
       </c>
       <c r="U59" s="23">
         <v>0.90362130154493769</v>
@@ -6187,7 +6187,7 @@
         <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L60" s="48">
         <v>0.99270000000000003</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="R60" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S60" s="20">
         <f t="shared" si="5"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="T60" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="U60" s="23">
         <v>1.5818776119585585</v>
@@ -6259,7 +6259,7 @@
         <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L61" s="48">
         <v>0.25729999999999997</v>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="R61" s="21">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S61" s="20">
         <f t="shared" si="5"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="T61" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="U61" s="23">
         <v>1.2842274814527748</v>
@@ -6331,7 +6331,7 @@
         <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L62" s="48">
         <v>1</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="R62" s="21">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S62" s="20">
         <f t="shared" si="5"/>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="T62" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U62" s="23">
         <v>6.1841913050091657</v>
@@ -6403,7 +6403,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L63" s="48">
         <v>0</v>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="R63" s="21">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S63" s="20">
         <f t="shared" si="5"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="T63" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L64" s="48">
         <v>0.85829999999999995</v>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="R64" s="21">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S64" s="20">
         <f t="shared" si="5"/>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="T64" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="U64" s="23">
         <v>0.94074024135300072</v>
@@ -6547,7 +6547,7 @@
         <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L65" s="48">
         <v>0.9879</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="R65" s="21">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S65" s="20">
         <f t="shared" si="5"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="T65" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="U65" s="23">
         <v>1.2317038245452467</v>
@@ -6619,10 +6619,10 @@
         <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L66" s="48">
-        <v>0.1716</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="M66" s="18" t="s">
         <v>26</v>
@@ -6636,15 +6636,15 @@
       </c>
       <c r="P66" s="20">
         <f t="shared" si="2"/>
-        <v>49.077600000000004</v>
+        <v>50.107199999999999</v>
       </c>
       <c r="Q66" s="20">
         <f t="shared" si="3"/>
-        <v>236.92239999999998</v>
+        <v>235.89279999999999</v>
       </c>
       <c r="R66" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S66" s="20">
         <f t="shared" si="5"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="T66" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-7</v>
+        <v>-27</v>
       </c>
       <c r="U66" s="23">
         <v>4.341217820948339</v>
@@ -6691,7 +6691,7 @@
         <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L67" s="48">
         <v>1</v>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="R67" s="21">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S67" s="20">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="T67" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-56</v>
+        <v>-76</v>
       </c>
       <c r="U67" s="23">
         <v>1.2874256064363331E-2</v>
@@ -6763,7 +6763,7 @@
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L68" s="48">
         <v>0.1241</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="R68" s="21">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="S68" s="20">
         <f t="shared" si="11"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="T68" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-112</v>
       </c>
       <c r="U68" s="23">
         <v>0.87755848995820385</v>
@@ -6835,10 +6835,10 @@
         <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L69" s="48">
-        <v>0.90059999999999996</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="M69" s="18" t="s">
         <v>26</v>
@@ -6852,15 +6852,15 @@
       </c>
       <c r="P69" s="20">
         <f t="shared" si="8"/>
-        <v>62.141399999999997</v>
+        <v>62.914200000000001</v>
       </c>
       <c r="Q69" s="20">
         <f t="shared" si="9"/>
-        <v>6.8586000000000027</v>
+        <v>6.085799999999999</v>
       </c>
       <c r="R69" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S69" s="20">
         <f t="shared" si="11"/>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="T69" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="U69" s="23">
         <v>5.6463899562994637</v>
@@ -6907,10 +6907,10 @@
         <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L70" s="48">
-        <v>0.99890000000000001</v>
+        <v>0.99999199999999999</v>
       </c>
       <c r="M70" s="18" t="s">
         <v>26</v>
@@ -6924,15 +6924,15 @@
       </c>
       <c r="P70" s="20">
         <f t="shared" si="8"/>
-        <v>95.894400000000005</v>
+        <v>95.999232000000006</v>
       </c>
       <c r="Q70" s="20">
         <f t="shared" si="9"/>
-        <v>0.10559999999999548</v>
+        <v>7.6799999999366264E-4</v>
       </c>
       <c r="R70" s="21">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S70" s="20">
         <f t="shared" si="11"/>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="T70" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="U70" s="23">
         <v>3.3921463524873796</v>
@@ -6979,7 +6979,7 @@
         <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L71" s="48">
         <v>0.76270000000000004</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="R71" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S71" s="20">
         <f t="shared" si="11"/>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="T71" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-7</v>
+        <v>-27</v>
       </c>
       <c r="U71" s="23">
         <v>1.1565364385446064</v>
@@ -7051,7 +7051,7 @@
         <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L72" s="48">
         <v>3.225E-3</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="R72" s="21">
         <f t="shared" si="10"/>
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="S72" s="20">
         <f t="shared" si="11"/>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="T72" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="U72" s="23">
         <v>0.35948495436649136</v>
@@ -7123,7 +7123,7 @@
         <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L73" s="48">
         <v>0</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="R73" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S73" s="20">
         <f t="shared" si="11"/>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="T73" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="U73" s="23">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L74" s="48">
         <v>0</v>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="R74" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S74" s="20">
         <f t="shared" si="11"/>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="T74" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U74" s="23">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L75" s="48">
         <v>0.1328</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="R75" s="21">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S75" s="20">
         <f t="shared" si="11"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="T75" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="U75" s="23">
         <v>7.3681118933140155</v>
@@ -7339,7 +7339,7 @@
         <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L76" s="48">
         <v>0.70679999999999998</v>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="R76" s="21">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S76" s="20">
         <f t="shared" si="11"/>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="T76" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="U76" s="23">
         <v>1.9262225609604624</v>
@@ -7411,7 +7411,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L77" s="48">
         <v>0</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="R77" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S77" s="20">
         <f t="shared" si="11"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="T77" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U77" s="23">
         <v>0</v>
@@ -7483,7 +7483,7 @@
         <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L78" s="48">
         <v>0.84150000000000003</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="R78" s="21">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="S78" s="20">
         <f t="shared" si="11"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="T78" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-72</v>
+        <v>-92</v>
       </c>
       <c r="U78" s="23">
         <v>2.6947696149272917</v>
@@ -7555,7 +7555,7 @@
         <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L79" s="48">
         <v>0.14460000000000001</v>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="R79" s="21">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="S79" s="20">
         <f t="shared" si="11"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="T79" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="U79" s="23">
         <v>7.1455552805644906</v>
@@ -7627,10 +7627,10 @@
         <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L80" s="48">
-        <v>0.80489999999999995</v>
+        <v>0.81530000000000002</v>
       </c>
       <c r="M80" s="18" t="s">
         <v>26</v>
@@ -7644,15 +7644,15 @@
       </c>
       <c r="P80" s="20">
         <f t="shared" si="8"/>
-        <v>49.903799999999997</v>
+        <v>50.5486</v>
       </c>
       <c r="Q80" s="20">
         <f t="shared" si="9"/>
-        <v>12.096200000000003</v>
+        <v>11.4514</v>
       </c>
       <c r="R80" s="21">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S80" s="20">
         <f t="shared" si="11"/>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="T80" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="U80" s="23">
         <v>2.1250737260073151</v>
@@ -7699,7 +7699,7 @@
         <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L81" s="48">
         <v>0.91210000000000002</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="R81" s="21">
         <f t="shared" si="10"/>
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="S81" s="20">
         <f t="shared" si="11"/>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="T81" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-372</v>
+        <v>-392</v>
       </c>
       <c r="U81" s="23">
         <v>2.2141421850391501</v>
@@ -7771,7 +7771,7 @@
         <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L82" s="48">
         <v>7.5800000000000006E-2</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="R82" s="21">
         <f t="shared" si="10"/>
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="S82" s="20">
         <f t="shared" si="11"/>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="T82" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U82" s="23">
         <v>2.1434231234710972</v>
@@ -7843,7 +7843,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L83" s="48">
         <v>0</v>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="R83" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S83" s="20">
         <f t="shared" si="11"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="T83" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U83" s="23">
         <v>0</v>
@@ -7915,10 +7915,10 @@
         <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L84" s="48">
-        <v>0.85980000000000001</v>
+        <v>0.87190000000000001</v>
       </c>
       <c r="M84" s="18" t="s">
         <v>26</v>
@@ -7932,15 +7932,15 @@
       </c>
       <c r="P84" s="20">
         <f t="shared" si="8"/>
-        <v>41.270400000000002</v>
+        <v>41.851199999999999</v>
       </c>
       <c r="Q84" s="20">
         <f t="shared" si="9"/>
-        <v>6.7295999999999978</v>
+        <v>6.1488000000000014</v>
       </c>
       <c r="R84" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S84" s="20">
         <f t="shared" si="11"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="T84" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-34</v>
       </c>
       <c r="U84" s="23">
         <v>4.2091892986185098</v>
@@ -7987,7 +7987,7 @@
         <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L85" s="48">
         <v>0.87160000000000004</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="R85" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S85" s="20">
         <f t="shared" si="11"/>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="T85" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U85" s="23">
         <v>0.67906690555318538</v>
@@ -8059,7 +8059,7 @@
         <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L86" s="48">
         <v>0</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="R86" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S86" s="20">
         <f t="shared" si="11"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="T86" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-42</v>
+        <v>-62</v>
       </c>
       <c r="U86" s="23">
         <v>0.3705846265159719</v>
@@ -8131,7 +8131,7 @@
         <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L87" s="48">
         <v>0.86219999999999997</v>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="R87" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S87" s="20">
         <f t="shared" si="11"/>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="T87" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U87" s="23">
         <v>0.46782862216660642</v>
@@ -8203,10 +8203,10 @@
         <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L88" s="48">
-        <v>0.70299999999999996</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="M88" s="18" t="s">
         <v>26</v>
@@ -8220,15 +8220,15 @@
       </c>
       <c r="P88" s="20">
         <f t="shared" si="8"/>
-        <v>-26.010999999999999</v>
+        <v>-26.318100000000001</v>
       </c>
       <c r="Q88" s="20">
         <f t="shared" si="9"/>
-        <v>-10.989000000000001</v>
+        <v>-10.681899999999999</v>
       </c>
       <c r="R88" s="21">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="S88" s="20">
         <f t="shared" si="11"/>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="T88" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-78</v>
+        <v>-98</v>
       </c>
       <c r="U88" s="23">
         <v>2.1434231234710972</v>
@@ -8275,7 +8275,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L89" s="48">
         <v>1</v>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="R89" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S89" s="20">
         <f t="shared" si="11"/>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="T89" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U89" s="23">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L90" s="48">
         <v>0.49690000000000001</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="R90" s="21">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S90" s="20">
         <f t="shared" si="11"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="T90" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="U90" s="23">
         <v>0.66829826225735345</v>
@@ -8419,10 +8419,10 @@
         <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L91" s="48">
-        <v>2.934E-3</v>
+        <v>6.8450000000000004E-3</v>
       </c>
       <c r="M91" s="18" t="s">
         <v>26</v>
@@ -8436,15 +8436,15 @@
       </c>
       <c r="P91" s="20">
         <f t="shared" si="8"/>
-        <v>9.9755999999999997E-2</v>
+        <v>0.23273000000000002</v>
       </c>
       <c r="Q91" s="20">
         <f t="shared" si="9"/>
-        <v>33.900244000000001</v>
+        <v>33.767270000000003</v>
       </c>
       <c r="R91" s="21">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S91" s="20">
         <f t="shared" si="11"/>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="T91" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="U91" s="23">
         <v>0.45089754003550009</v>
@@ -8491,7 +8491,7 @@
         <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L92" s="48">
         <v>8.1199999999999994E-2</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="R92" s="21">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S92" s="20">
         <f t="shared" si="11"/>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="T92" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="U92" s="23">
         <v>0.47544300629915759</v>
@@ -8563,7 +8563,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L93" s="48">
         <v>0</v>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="R93" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S93" s="20">
         <f t="shared" si="11"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="T93" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U93" s="23">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L94" s="48">
         <v>9.8500000000000004E-2</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="R94" s="21">
         <f t="shared" si="10"/>
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="S94" s="20">
         <f t="shared" si="11"/>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="T94" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U94" s="23">
         <v>7.4012273158472057</v>
@@ -8707,7 +8707,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L95" s="48">
         <v>0</v>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="R95" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S95" s="20">
         <f t="shared" si="11"/>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="T95" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U95" s="23">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L96" s="48">
         <v>0.15540000000000001</v>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="R96" s="21">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="S96" s="20">
         <f t="shared" si="11"/>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="T96" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="U96" s="23">
         <v>0.12529658962134113</v>
@@ -8851,7 +8851,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L97" s="48">
         <v>0</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="R97" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S97" s="20">
         <f t="shared" si="11"/>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="T97" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U97" s="23">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L98" s="48">
         <v>6.9900000000000004E-2</v>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="R98" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S98" s="20">
         <f t="shared" si="11"/>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="T98" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U98" s="23">
         <v>0.53563667137898285</v>
@@ -8995,10 +8995,10 @@
         <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L99" s="48">
-        <v>0.29360000000000003</v>
+        <v>0.30080000000000001</v>
       </c>
       <c r="M99" s="18" t="s">
         <v>40</v>
@@ -9012,15 +9012,15 @@
       </c>
       <c r="P99" s="20">
         <f t="shared" si="8"/>
-        <v>5.8720000000000008</v>
+        <v>6.016</v>
       </c>
       <c r="Q99" s="20">
         <f t="shared" si="9"/>
-        <v>14.128</v>
+        <v>13.984</v>
       </c>
       <c r="R99" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S99" s="20">
         <f t="shared" si="11"/>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="T99" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-34</v>
       </c>
       <c r="U99" s="23">
         <v>0.31365570942757215</v>
@@ -9067,7 +9067,7 @@
         <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L100" s="48">
         <v>0.18659999999999999</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="R100" s="21">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S100" s="20">
         <f t="shared" si="11"/>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="T100" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="U100" s="23">
         <v>0.1502798023901277</v>
@@ -9139,7 +9139,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L101" s="48">
         <v>0</v>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="R101" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S101" s="20">
         <f t="shared" si="11"/>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="T101" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U101" s="23">
         <v>0</v>
@@ -9211,10 +9211,10 @@
         <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L102" s="48">
-        <v>0.33800000000000002</v>
+        <v>0.3483</v>
       </c>
       <c r="M102" s="18" t="s">
         <v>40</v>
@@ -9228,15 +9228,15 @@
       </c>
       <c r="P102" s="20">
         <f t="shared" si="8"/>
-        <v>4.3940000000000001</v>
+        <v>4.5278999999999998</v>
       </c>
       <c r="Q102" s="20">
         <f t="shared" si="9"/>
-        <v>8.6059999999999999</v>
+        <v>8.4721000000000011</v>
       </c>
       <c r="R102" s="21">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S102" s="20">
         <f t="shared" si="11"/>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="T102" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-42</v>
+        <v>-62</v>
       </c>
       <c r="U102" s="23">
         <v>0.1640586615913901</v>
@@ -9283,7 +9283,7 @@
         <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L103" s="48">
         <v>0.43099999999999999</v>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="R103" s="21">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S103" s="20">
         <f t="shared" si="11"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="T103" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="U103" s="23">
         <v>0.1502798023901277</v>
@@ -9355,7 +9355,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L104" s="48">
         <v>0</v>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="R104" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S104" s="20">
         <f t="shared" si="11"/>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="T104" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U104" s="23">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L105" s="48">
         <v>8.48E-2</v>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="R105" s="21">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="S105" s="20">
         <f t="shared" si="11"/>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="T105" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-70</v>
+        <v>-90</v>
       </c>
       <c r="U105" s="23">
         <v>0.41311075421685678</v>
@@ -9499,7 +9499,7 @@
         <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L106" s="48">
         <v>8.48E-2</v>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="R106" s="21">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="S106" s="20">
         <f t="shared" si="11"/>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="T106" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-70</v>
+        <v>-90</v>
       </c>
       <c r="U106" s="23">
         <v>0.41311075421685678</v>
@@ -9571,7 +9571,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L107" s="48">
         <v>0</v>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="R107" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S107" s="20">
         <f t="shared" si="11"/>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="T107" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U107" s="23">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L108" s="48">
         <v>0.23980000000000001</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="R108" s="21">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S108" s="20">
         <f t="shared" si="11"/>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="T108" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="U108" s="23">
         <v>0.71590581972999912</v>
@@ -9715,7 +9715,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L109" s="48">
         <v>0</v>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="R109" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S109" s="20">
         <f t="shared" si="11"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="T109" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U109" s="23">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L110" s="48">
         <v>0</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="R110" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S110" s="20">
         <f t="shared" si="11"/>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="T110" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U110" s="23">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L111" s="48">
         <v>0.4491</v>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="R111" s="21">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-21</v>
       </c>
       <c r="S111" s="20">
         <f t="shared" si="11"/>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="T111" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="U111" s="23">
         <v>1.1364470150796924</v>
@@ -9931,7 +9931,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L112" s="48">
         <v>0</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="R112" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S112" s="20">
         <f t="shared" si="11"/>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="T112" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U112" s="23">
         <v>0</v>
@@ -10003,7 +10003,7 @@
         <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L113" s="48">
         <v>0.48920000000000002</v>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="R113" s="21">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="S113" s="20">
         <f t="shared" si="11"/>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="T113" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="U113" s="23">
         <v>0.86888955106354271</v>
@@ -10075,7 +10075,7 @@
         <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L114" s="48">
         <v>0.60950000000000004</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="R114" s="21">
         <f t="shared" si="10"/>
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="S114" s="20">
         <f t="shared" si="11"/>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="T114" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U114" s="23">
         <v>1.9101722387327178</v>
@@ -10147,7 +10147,7 @@
         <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L115" s="48">
         <v>0.59099999999999997</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="R115" s="21">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S115" s="20">
         <f t="shared" si="11"/>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="T115" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="U115" s="23">
         <v>2.3615133681493417</v>
@@ -10219,7 +10219,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L116" s="48">
         <v>0</v>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="R116" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S116" s="20">
         <f t="shared" si="11"/>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="T116" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U116" s="23">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L117" s="48">
         <v>1</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="R117" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S117" s="20">
         <f t="shared" si="11"/>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="T117" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U117" s="23">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L118" s="48">
         <v>0</v>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="R118" s="21">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S118" s="20">
         <f t="shared" si="11"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="T118" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U118" s="23">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L119" s="48">
         <v>0.56559999999999999</v>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="R119" s="21">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S119" s="20">
         <f t="shared" si="11"/>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="T119" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="U119" s="23">
         <v>1.2772542166873568</v>
@@ -10507,7 +10507,7 @@
         <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L120" s="48">
         <v>0.56910000000000005</v>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="R120" s="21">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S120" s="20">
         <f t="shared" si="11"/>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="T120" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-21</v>
+        <v>-41</v>
       </c>
       <c r="U120" s="23">
         <v>1.3021928291029847</v>
@@ -10579,7 +10579,7 @@
         <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L121" s="48">
         <v>0</v>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="R121" s="21">
         <f t="shared" si="10"/>
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="S121" s="20">
         <f t="shared" si="11"/>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="T121" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U121" s="23">
         <v>2.2106399922458855</v>
@@ -10651,7 +10651,7 @@
         <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L122" s="48">
         <v>0.52310000000000001</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="R122" s="21">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S122" s="20">
         <f t="shared" si="11"/>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="T122" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-49</v>
+        <v>-69</v>
       </c>
       <c r="U122" s="23">
         <v>0.94089880391742786</v>
@@ -10723,7 +10723,7 @@
         <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L123" s="48">
         <v>0.3</v>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="R123" s="21">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S123" s="20">
         <f t="shared" si="11"/>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="T123" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-14</v>
+        <v>-34</v>
       </c>
       <c r="U123" s="23">
         <v>0.83220228058553414</v>
@@ -10795,7 +10795,7 @@
         <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L124" s="48">
         <v>0</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="R124" s="21">
         <f t="shared" si="10"/>
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="S124" s="20">
         <f t="shared" si="11"/>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="T124" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U124" s="23">
         <v>1.1429745636452144</v>
@@ -10867,7 +10867,7 @@
         <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L125" s="48">
         <v>0.51339999999999997</v>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="R125" s="21">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S125" s="20">
         <f t="shared" si="11"/>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="T125" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="U125" s="23">
         <v>0.65729302337862683</v>
@@ -10939,7 +10939,7 @@
         <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L126" s="48">
         <v>0.5161</v>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="R126" s="21">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S126" s="20">
         <f t="shared" si="11"/>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="T126" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="U126" s="23">
         <v>1.1353862689916343</v>
@@ -11011,7 +11011,7 @@
         <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="L127" s="49">
         <v>0.3</v>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="R127" s="40">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S127" s="20">
         <f t="shared" si="11"/>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="T127" s="41">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="U127" s="41">
         <v>0.45616355925610708</v>
@@ -11052,13 +11052,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
